--- a/hesaptakip.xlsx
+++ b/hesaptakip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yucel\Desktop\melikkent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6FE5D7-2571-4AA4-AE66-2FE02E19FCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE27EFF1-164C-4B98-A76D-46FEC87F45F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="83">
   <si>
     <t>GELİR NEDENİ</t>
   </si>
@@ -248,6 +248,30 @@
   </si>
   <si>
     <t>BİNA BAKIMI ( 16 SİNEKLİK TAKILMASI)</t>
+  </si>
+  <si>
+    <t>BAHÇE BAKIMI ÇİM BİÇME YAKIT</t>
+  </si>
+  <si>
+    <t>BİNA BAKIMI TEMİZLİK MALZEMESİ</t>
+  </si>
+  <si>
+    <t>BAHÇE BİNA İLAÇLAMA-ABDULLAH BURHAN</t>
+  </si>
+  <si>
+    <t>BAHÇE AYDINLATMASI YENİLEME</t>
+  </si>
+  <si>
+    <t>BİNA GÜVENLİK KAMERASI HARDİSK YENİLEME</t>
+  </si>
+  <si>
+    <t>BİNA BAKIMI TEMİZLİK MALZEMESİ - KOVA</t>
+  </si>
+  <si>
+    <t>BİNA DOĞALGAZ BORU HATTI YENİLEME</t>
+  </si>
+  <si>
+    <t>BAHÇE GİRİŞ KAPISI SU SAYÇ KAPAĞI TAMİRİ</t>
   </si>
 </sst>
 </file>
@@ -649,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I558"/>
+  <dimension ref="A1:I672"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9288,7 +9312,7 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C538">
         <v>2023</v>
@@ -9297,15 +9321,15 @@
         <v>62</v>
       </c>
       <c r="E538">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F538">
-        <v>125</v>
+        <v>300</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C539">
         <v>2023</v>
@@ -9314,15 +9338,15 @@
         <v>62</v>
       </c>
       <c r="E539">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F539">
-        <v>125</v>
+        <v>300</v>
       </c>
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A540" t="s">
-        <v>42</v>
+      <c r="B540" t="s">
+        <v>30</v>
       </c>
       <c r="C540">
         <v>2023</v>
@@ -9330,16 +9354,13 @@
       <c r="D540" t="s">
         <v>62</v>
       </c>
-      <c r="E540">
-        <v>3</v>
-      </c>
-      <c r="F540">
-        <v>125</v>
+      <c r="G540">
+        <v>265.5</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C541">
         <v>2023</v>
@@ -9348,15 +9369,15 @@
         <v>62</v>
       </c>
       <c r="E541">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F541">
-        <v>125</v>
+        <v>300</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C542">
         <v>2023</v>
@@ -9365,10 +9386,10 @@
         <v>62</v>
       </c>
       <c r="E542">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F542">
-        <v>125</v>
+        <v>300</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.3">
@@ -9385,12 +9406,12 @@
         <v>4</v>
       </c>
       <c r="F543">
-        <v>125</v>
+        <v>300</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C544">
         <v>2023</v>
@@ -9399,15 +9420,15 @@
         <v>62</v>
       </c>
       <c r="E544">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F544">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="545" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B545" t="s">
-        <v>58</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>14</v>
       </c>
       <c r="C545">
         <v>2023</v>
@@ -9415,13 +9436,16 @@
       <c r="D545" t="s">
         <v>62</v>
       </c>
-      <c r="G545">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="546" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B546" t="s">
-        <v>58</v>
+      <c r="E545">
+        <v>6</v>
+      </c>
+      <c r="F545">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>21</v>
       </c>
       <c r="C546">
         <v>2023</v>
@@ -9429,180 +9453,1651 @@
       <c r="D546" t="s">
         <v>62</v>
       </c>
-      <c r="G546">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="547" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B547" t="s">
-        <v>58</v>
-      </c>
-      <c r="C547">
-        <v>2023</v>
+      <c r="E546">
+        <v>15</v>
+      </c>
+      <c r="F546">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>21</v>
       </c>
       <c r="D547" t="s">
-        <v>62</v>
-      </c>
-      <c r="G547">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="548" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B548" t="s">
-        <v>58</v>
-      </c>
-      <c r="C548">
-        <v>2023</v>
+        <v>63</v>
+      </c>
+      <c r="E547">
+        <v>15</v>
+      </c>
+      <c r="F547">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>21</v>
       </c>
       <c r="D548" t="s">
-        <v>62</v>
-      </c>
-      <c r="G548">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="549" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B549" t="s">
-        <v>58</v>
-      </c>
-      <c r="C549">
-        <v>2023</v>
+        <v>64</v>
+      </c>
+      <c r="E548">
+        <v>15</v>
+      </c>
+      <c r="F548">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>21</v>
       </c>
       <c r="D549" t="s">
-        <v>62</v>
-      </c>
-      <c r="G549">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="550" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B550" t="s">
-        <v>58</v>
-      </c>
-      <c r="C550">
-        <v>2023</v>
+        <v>67</v>
+      </c>
+      <c r="E549">
+        <v>15</v>
+      </c>
+      <c r="F549">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>21</v>
       </c>
       <c r="D550" t="s">
-        <v>62</v>
-      </c>
-      <c r="G550">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="551" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B551" t="s">
-        <v>58</v>
-      </c>
-      <c r="C551">
-        <v>2023</v>
+        <v>68</v>
+      </c>
+      <c r="E550">
+        <v>15</v>
+      </c>
+      <c r="F550">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>21</v>
       </c>
       <c r="D551" t="s">
-        <v>62</v>
-      </c>
-      <c r="G551">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="552" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B552" t="s">
-        <v>58</v>
-      </c>
-      <c r="C552">
-        <v>2023</v>
+        <v>69</v>
+      </c>
+      <c r="E551">
+        <v>15</v>
+      </c>
+      <c r="F551">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>16</v>
       </c>
       <c r="D552" t="s">
         <v>62</v>
       </c>
-      <c r="G552">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="553" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B553" t="s">
-        <v>58</v>
-      </c>
-      <c r="C553">
-        <v>2023</v>
+      <c r="E552">
+        <v>14</v>
+      </c>
+      <c r="F552">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>43</v>
       </c>
       <c r="D553" t="s">
         <v>62</v>
       </c>
-      <c r="G553">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="554" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B554" t="s">
-        <v>58</v>
-      </c>
-      <c r="C554">
-        <v>2023</v>
+      <c r="E553">
+        <v>16</v>
+      </c>
+      <c r="F553">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>20</v>
       </c>
       <c r="D554" t="s">
         <v>62</v>
       </c>
-      <c r="G554">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="555" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B555" t="s">
-        <v>58</v>
-      </c>
-      <c r="C555">
-        <v>2023</v>
+      <c r="E554">
+        <v>16</v>
+      </c>
+      <c r="H554">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>24</v>
       </c>
       <c r="D555" t="s">
         <v>62</v>
       </c>
-      <c r="G555">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="556" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E555">
+        <v>7</v>
+      </c>
+      <c r="F555">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B556" t="s">
-        <v>58</v>
-      </c>
-      <c r="C556">
-        <v>2023</v>
+        <v>19</v>
       </c>
       <c r="D556" t="s">
         <v>62</v>
       </c>
       <c r="G556">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="557" spans="2:7" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B557" t="s">
-        <v>59</v>
-      </c>
-      <c r="C557">
-        <v>2023</v>
+        <v>18</v>
       </c>
       <c r="D557" t="s">
         <v>62</v>
       </c>
       <c r="G557">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="558" spans="2:7" x14ac:dyDescent="0.3">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B558" t="s">
-        <v>60</v>
-      </c>
-      <c r="C558">
-        <v>2023</v>
+        <v>58</v>
       </c>
       <c r="D558" t="s">
         <v>62</v>
       </c>
       <c r="G558">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B559" t="s">
+        <v>26</v>
+      </c>
+      <c r="D559" t="s">
+        <v>62</v>
+      </c>
+      <c r="G559">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>42</v>
+      </c>
+      <c r="D560" t="s">
+        <v>63</v>
+      </c>
+      <c r="E560">
+        <v>3</v>
+      </c>
+      <c r="F560">
         <v>300</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>57</v>
+      </c>
+      <c r="D561" t="s">
+        <v>63</v>
+      </c>
+      <c r="E561">
+        <v>10</v>
+      </c>
+      <c r="F561">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>10</v>
+      </c>
+      <c r="D562" t="s">
+        <v>63</v>
+      </c>
+      <c r="E562">
+        <v>9</v>
+      </c>
+      <c r="F562">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>12</v>
+      </c>
+      <c r="D563" t="s">
+        <v>63</v>
+      </c>
+      <c r="E563">
+        <v>12</v>
+      </c>
+      <c r="F563">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>12</v>
+      </c>
+      <c r="D564" t="s">
+        <v>63</v>
+      </c>
+      <c r="E564">
+        <v>13</v>
+      </c>
+      <c r="F564">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B565" t="s">
+        <v>30</v>
+      </c>
+      <c r="D565" t="s">
+        <v>63</v>
+      </c>
+      <c r="G565">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>22</v>
+      </c>
+      <c r="D566" t="s">
+        <v>63</v>
+      </c>
+      <c r="E566">
+        <v>4</v>
+      </c>
+      <c r="F566">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>23</v>
+      </c>
+      <c r="D567" t="s">
+        <v>62</v>
+      </c>
+      <c r="E567">
+        <v>2</v>
+      </c>
+      <c r="F567">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>23</v>
+      </c>
+      <c r="D568" t="s">
+        <v>63</v>
+      </c>
+      <c r="E568">
+        <v>2</v>
+      </c>
+      <c r="F568">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>16</v>
+      </c>
+      <c r="D569" t="s">
+        <v>63</v>
+      </c>
+      <c r="E569">
+        <v>14</v>
+      </c>
+      <c r="F569">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>24</v>
+      </c>
+      <c r="D570" t="s">
+        <v>63</v>
+      </c>
+      <c r="E570">
+        <v>7</v>
+      </c>
+      <c r="F570">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>43</v>
+      </c>
+      <c r="D571" t="s">
+        <v>63</v>
+      </c>
+      <c r="E571">
+        <v>16</v>
+      </c>
+      <c r="F571">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>20</v>
+      </c>
+      <c r="D572" t="s">
+        <v>63</v>
+      </c>
+      <c r="E572">
+        <v>16</v>
+      </c>
+      <c r="H572">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B573" t="s">
+        <v>19</v>
+      </c>
+      <c r="D573" t="s">
+        <v>63</v>
+      </c>
+      <c r="G573">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>11</v>
+      </c>
+      <c r="D574" t="s">
+        <v>62</v>
+      </c>
+      <c r="E574">
+        <v>1</v>
+      </c>
+      <c r="F574">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>11</v>
+      </c>
+      <c r="D575" t="s">
+        <v>63</v>
+      </c>
+      <c r="E575">
+        <v>1</v>
+      </c>
+      <c r="F575">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B576" t="s">
+        <v>18</v>
+      </c>
+      <c r="D576" t="s">
+        <v>63</v>
+      </c>
+      <c r="G576">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>12</v>
+      </c>
+      <c r="D577" t="s">
+        <v>64</v>
+      </c>
+      <c r="E577">
+        <v>12</v>
+      </c>
+      <c r="F577">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>12</v>
+      </c>
+      <c r="D578" t="s">
+        <v>64</v>
+      </c>
+      <c r="E578">
+        <v>13</v>
+      </c>
+      <c r="F578">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B579" t="s">
+        <v>30</v>
+      </c>
+      <c r="D579" t="s">
+        <v>64</v>
+      </c>
+      <c r="G579">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>10</v>
+      </c>
+      <c r="D580" t="s">
+        <v>64</v>
+      </c>
+      <c r="E580">
+        <v>9</v>
+      </c>
+      <c r="F580">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>42</v>
+      </c>
+      <c r="D581" t="s">
+        <v>64</v>
+      </c>
+      <c r="E581">
+        <v>3</v>
+      </c>
+      <c r="F581">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>22</v>
+      </c>
+      <c r="D582" t="s">
+        <v>64</v>
+      </c>
+      <c r="E582">
+        <v>4</v>
+      </c>
+      <c r="F582">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>57</v>
+      </c>
+      <c r="D583" t="s">
+        <v>64</v>
+      </c>
+      <c r="E583">
+        <v>10</v>
+      </c>
+      <c r="F583">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>16</v>
+      </c>
+      <c r="D584" t="s">
+        <v>64</v>
+      </c>
+      <c r="E584">
+        <v>14</v>
+      </c>
+      <c r="F584">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>43</v>
+      </c>
+      <c r="D585" t="s">
+        <v>64</v>
+      </c>
+      <c r="E585">
+        <v>16</v>
+      </c>
+      <c r="F585">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>20</v>
+      </c>
+      <c r="D586" t="s">
+        <v>64</v>
+      </c>
+      <c r="E586">
+        <v>16</v>
+      </c>
+      <c r="H586">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>24</v>
+      </c>
+      <c r="D587" t="s">
+        <v>64</v>
+      </c>
+      <c r="E587">
+        <v>7</v>
+      </c>
+      <c r="F587">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B588" t="s">
+        <v>19</v>
+      </c>
+      <c r="D588" t="s">
+        <v>64</v>
+      </c>
+      <c r="G588">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>11</v>
+      </c>
+      <c r="D589" t="s">
+        <v>64</v>
+      </c>
+      <c r="E589">
+        <v>1</v>
+      </c>
+      <c r="F589">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B590" t="s">
+        <v>18</v>
+      </c>
+      <c r="D590" t="s">
+        <v>64</v>
+      </c>
+      <c r="G590">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B591" t="s">
+        <v>58</v>
+      </c>
+      <c r="D591" t="s">
+        <v>63</v>
+      </c>
+      <c r="G591">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B592" t="s">
+        <v>58</v>
+      </c>
+      <c r="D592" t="s">
+        <v>64</v>
+      </c>
+      <c r="G592">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>12</v>
+      </c>
+      <c r="D593" t="s">
+        <v>67</v>
+      </c>
+      <c r="E593">
+        <v>12</v>
+      </c>
+      <c r="F593">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>12</v>
+      </c>
+      <c r="D594" t="s">
+        <v>67</v>
+      </c>
+      <c r="E594">
+        <v>13</v>
+      </c>
+      <c r="F594">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B595" t="s">
+        <v>30</v>
+      </c>
+      <c r="D595" t="s">
+        <v>67</v>
+      </c>
+      <c r="G595">
+        <v>269.5</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>10</v>
+      </c>
+      <c r="D596" t="s">
+        <v>67</v>
+      </c>
+      <c r="E596">
+        <v>9</v>
+      </c>
+      <c r="F596">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>42</v>
+      </c>
+      <c r="D597" t="s">
+        <v>67</v>
+      </c>
+      <c r="E597">
+        <v>3</v>
+      </c>
+      <c r="F597">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>22</v>
+      </c>
+      <c r="D598" t="s">
+        <v>67</v>
+      </c>
+      <c r="E598">
+        <v>4</v>
+      </c>
+      <c r="F598">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>15</v>
+      </c>
+      <c r="D599" t="s">
+        <v>62</v>
+      </c>
+      <c r="E599">
+        <v>8</v>
+      </c>
+      <c r="F599">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>15</v>
+      </c>
+      <c r="D600" t="s">
+        <v>63</v>
+      </c>
+      <c r="E600">
+        <v>8</v>
+      </c>
+      <c r="F600">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>15</v>
+      </c>
+      <c r="D601" t="s">
+        <v>64</v>
+      </c>
+      <c r="E601">
+        <v>8</v>
+      </c>
+      <c r="F601">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>15</v>
+      </c>
+      <c r="D602" t="s">
+        <v>67</v>
+      </c>
+      <c r="E602">
+        <v>8</v>
+      </c>
+      <c r="F602">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>15</v>
+      </c>
+      <c r="D603" t="s">
+        <v>68</v>
+      </c>
+      <c r="E603">
+        <v>8</v>
+      </c>
+      <c r="F603">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>24</v>
+      </c>
+      <c r="D604" t="s">
+        <v>67</v>
+      </c>
+      <c r="E604">
+        <v>7</v>
+      </c>
+      <c r="F604">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>57</v>
+      </c>
+      <c r="D605" t="s">
+        <v>67</v>
+      </c>
+      <c r="E605">
+        <v>10</v>
+      </c>
+      <c r="F605">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B606" t="s">
+        <v>75</v>
+      </c>
+      <c r="D606" t="s">
+        <v>67</v>
+      </c>
+      <c r="G606">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>16</v>
+      </c>
+      <c r="D607" t="s">
+        <v>67</v>
+      </c>
+      <c r="E607">
+        <v>14</v>
+      </c>
+      <c r="F607">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B608" t="s">
+        <v>19</v>
+      </c>
+      <c r="D608" t="s">
+        <v>67</v>
+      </c>
+      <c r="G608">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>43</v>
+      </c>
+      <c r="D609" t="s">
+        <v>67</v>
+      </c>
+      <c r="E609">
+        <v>16</v>
+      </c>
+      <c r="F609">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>20</v>
+      </c>
+      <c r="D610" t="s">
+        <v>67</v>
+      </c>
+      <c r="E610">
+        <v>16</v>
+      </c>
+      <c r="H610">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B611" t="s">
+        <v>18</v>
+      </c>
+      <c r="D611" t="s">
+        <v>67</v>
+      </c>
+      <c r="G611">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B612" t="s">
+        <v>58</v>
+      </c>
+      <c r="D612" t="s">
+        <v>67</v>
+      </c>
+      <c r="G612">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B613" t="s">
+        <v>76</v>
+      </c>
+      <c r="D613" t="s">
+        <v>68</v>
+      </c>
+      <c r="G613">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>12</v>
+      </c>
+      <c r="D614" t="s">
+        <v>68</v>
+      </c>
+      <c r="E614">
+        <v>12</v>
+      </c>
+      <c r="F614">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>12</v>
+      </c>
+      <c r="D615" t="s">
+        <v>68</v>
+      </c>
+      <c r="E615">
+        <v>13</v>
+      </c>
+      <c r="F615">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B616" t="s">
+        <v>30</v>
+      </c>
+      <c r="D616" t="s">
+        <v>68</v>
+      </c>
+      <c r="G616">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>10</v>
+      </c>
+      <c r="D617" t="s">
+        <v>68</v>
+      </c>
+      <c r="E617">
+        <v>9</v>
+      </c>
+      <c r="F617">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>57</v>
+      </c>
+      <c r="D618" t="s">
+        <v>68</v>
+      </c>
+      <c r="E618">
+        <v>10</v>
+      </c>
+      <c r="F618">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>42</v>
+      </c>
+      <c r="D619" t="s">
+        <v>68</v>
+      </c>
+      <c r="E619">
+        <v>3</v>
+      </c>
+      <c r="F619">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>22</v>
+      </c>
+      <c r="D620" t="s">
+        <v>68</v>
+      </c>
+      <c r="E620">
+        <v>4</v>
+      </c>
+      <c r="F620">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>16</v>
+      </c>
+      <c r="D621" t="s">
+        <v>68</v>
+      </c>
+      <c r="E621">
+        <v>14</v>
+      </c>
+      <c r="F621">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>43</v>
+      </c>
+      <c r="D622" t="s">
+        <v>68</v>
+      </c>
+      <c r="E622">
+        <v>16</v>
+      </c>
+      <c r="F622">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>20</v>
+      </c>
+      <c r="D623" t="s">
+        <v>68</v>
+      </c>
+      <c r="H623">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B624" t="s">
+        <v>19</v>
+      </c>
+      <c r="D624" t="s">
+        <v>68</v>
+      </c>
+      <c r="G624">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>24</v>
+      </c>
+      <c r="D625" t="s">
+        <v>68</v>
+      </c>
+      <c r="E625">
+        <v>7</v>
+      </c>
+      <c r="F625">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B626" t="s">
+        <v>18</v>
+      </c>
+      <c r="D626" t="s">
+        <v>68</v>
+      </c>
+      <c r="G626">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>12</v>
+      </c>
+      <c r="D627" t="s">
+        <v>69</v>
+      </c>
+      <c r="E627">
+        <v>12</v>
+      </c>
+      <c r="F627">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>12</v>
+      </c>
+      <c r="D628" t="s">
+        <v>69</v>
+      </c>
+      <c r="E628">
+        <v>13</v>
+      </c>
+      <c r="F628">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B629" t="s">
+        <v>30</v>
+      </c>
+      <c r="D629" t="s">
+        <v>69</v>
+      </c>
+      <c r="G629">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>57</v>
+      </c>
+      <c r="D630" t="s">
+        <v>69</v>
+      </c>
+      <c r="E630">
+        <v>10</v>
+      </c>
+      <c r="F630">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>42</v>
+      </c>
+      <c r="D631" t="s">
+        <v>69</v>
+      </c>
+      <c r="E631">
+        <v>3</v>
+      </c>
+      <c r="F631">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>24</v>
+      </c>
+      <c r="D632" t="s">
+        <v>69</v>
+      </c>
+      <c r="E632">
+        <v>7</v>
+      </c>
+      <c r="F632">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B633" t="s">
+        <v>77</v>
+      </c>
+      <c r="D633" t="s">
+        <v>69</v>
+      </c>
+      <c r="G633">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B634" t="s">
+        <v>78</v>
+      </c>
+      <c r="D634" t="s">
+        <v>69</v>
+      </c>
+      <c r="I634">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B635" t="s">
+        <v>19</v>
+      </c>
+      <c r="D635" t="s">
+        <v>69</v>
+      </c>
+      <c r="G635">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>43</v>
+      </c>
+      <c r="D636" t="s">
+        <v>69</v>
+      </c>
+      <c r="E636">
+        <v>16</v>
+      </c>
+      <c r="F636">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>20</v>
+      </c>
+      <c r="D637" t="s">
+        <v>69</v>
+      </c>
+      <c r="E637">
+        <v>16</v>
+      </c>
+      <c r="H637">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B638" t="s">
+        <v>79</v>
+      </c>
+      <c r="D638" t="s">
+        <v>69</v>
+      </c>
+      <c r="I638">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B639" t="s">
+        <v>18</v>
+      </c>
+      <c r="D639" t="s">
+        <v>69</v>
+      </c>
+      <c r="G639">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B640" t="s">
+        <v>30</v>
+      </c>
+      <c r="D640" t="s">
+        <v>70</v>
+      </c>
+      <c r="G640">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B641" t="s">
+        <v>30</v>
+      </c>
+      <c r="D641" t="s">
+        <v>70</v>
+      </c>
+      <c r="G641">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>12</v>
+      </c>
+      <c r="D642" t="s">
+        <v>70</v>
+      </c>
+      <c r="E642">
+        <v>12</v>
+      </c>
+      <c r="F642">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>12</v>
+      </c>
+      <c r="D643" t="s">
+        <v>70</v>
+      </c>
+      <c r="E643">
+        <v>13</v>
+      </c>
+      <c r="F643">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>42</v>
+      </c>
+      <c r="D644" t="s">
+        <v>70</v>
+      </c>
+      <c r="E644">
+        <v>3</v>
+      </c>
+      <c r="F644">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>57</v>
+      </c>
+      <c r="D645" t="s">
+        <v>70</v>
+      </c>
+      <c r="E645">
+        <v>10</v>
+      </c>
+      <c r="F645">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>24</v>
+      </c>
+      <c r="D646" t="s">
+        <v>70</v>
+      </c>
+      <c r="E646">
+        <v>7</v>
+      </c>
+      <c r="F646">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>22</v>
+      </c>
+      <c r="D647" t="s">
+        <v>70</v>
+      </c>
+      <c r="E647">
+        <v>4</v>
+      </c>
+      <c r="F647">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>43</v>
+      </c>
+      <c r="D648" t="s">
+        <v>70</v>
+      </c>
+      <c r="E648">
+        <v>16</v>
+      </c>
+      <c r="F648">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>20</v>
+      </c>
+      <c r="D649" t="s">
+        <v>70</v>
+      </c>
+      <c r="E649">
+        <v>16</v>
+      </c>
+      <c r="H649">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B650" t="s">
+        <v>19</v>
+      </c>
+      <c r="D650" t="s">
+        <v>70</v>
+      </c>
+      <c r="G650">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B651" t="s">
+        <v>18</v>
+      </c>
+      <c r="D651" t="s">
+        <v>70</v>
+      </c>
+      <c r="G651">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B652" t="s">
+        <v>54</v>
+      </c>
+      <c r="D652" t="s">
+        <v>71</v>
+      </c>
+      <c r="G652">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B653" t="s">
+        <v>58</v>
+      </c>
+      <c r="D653" t="s">
+        <v>68</v>
+      </c>
+      <c r="G653">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B654" t="s">
+        <v>58</v>
+      </c>
+      <c r="D654" t="s">
+        <v>69</v>
+      </c>
+      <c r="G654">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B655" t="s">
+        <v>58</v>
+      </c>
+      <c r="D655" t="s">
+        <v>70</v>
+      </c>
+      <c r="G655">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>12</v>
+      </c>
+      <c r="D656" t="s">
+        <v>71</v>
+      </c>
+      <c r="E656">
+        <v>12</v>
+      </c>
+      <c r="F656">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>12</v>
+      </c>
+      <c r="D657" t="s">
+        <v>71</v>
+      </c>
+      <c r="E657">
+        <v>13</v>
+      </c>
+      <c r="F657">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B658" t="s">
+        <v>30</v>
+      </c>
+      <c r="D658" t="s">
+        <v>71</v>
+      </c>
+      <c r="G658">
+        <v>1352.5</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B659" t="s">
+        <v>80</v>
+      </c>
+      <c r="D659" t="s">
+        <v>71</v>
+      </c>
+      <c r="G659">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>42</v>
+      </c>
+      <c r="D660" t="s">
+        <v>71</v>
+      </c>
+      <c r="E660">
+        <v>3</v>
+      </c>
+      <c r="F660">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>57</v>
+      </c>
+      <c r="D661" t="s">
+        <v>71</v>
+      </c>
+      <c r="E661">
+        <v>10</v>
+      </c>
+      <c r="F661">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>10</v>
+      </c>
+      <c r="D662" t="s">
+        <v>69</v>
+      </c>
+      <c r="E662">
+        <v>9</v>
+      </c>
+      <c r="F662">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>10</v>
+      </c>
+      <c r="D663" t="s">
+        <v>70</v>
+      </c>
+      <c r="E663">
+        <v>9</v>
+      </c>
+      <c r="F663">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B664" t="s">
+        <v>81</v>
+      </c>
+      <c r="D664" t="s">
+        <v>71</v>
+      </c>
+      <c r="I664">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>22</v>
+      </c>
+      <c r="D665" t="s">
+        <v>71</v>
+      </c>
+      <c r="E665">
+        <v>4</v>
+      </c>
+      <c r="F665">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>24</v>
+      </c>
+      <c r="D666" t="s">
+        <v>71</v>
+      </c>
+      <c r="E666">
+        <v>7</v>
+      </c>
+      <c r="F666">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B667" t="s">
+        <v>19</v>
+      </c>
+      <c r="D667" t="s">
+        <v>71</v>
+      </c>
+      <c r="G667">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>43</v>
+      </c>
+      <c r="D668" t="s">
+        <v>71</v>
+      </c>
+      <c r="E668">
+        <v>16</v>
+      </c>
+      <c r="F668">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>20</v>
+      </c>
+      <c r="D669" t="s">
+        <v>71</v>
+      </c>
+      <c r="E669">
+        <v>16</v>
+      </c>
+      <c r="H669">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B670" t="s">
+        <v>18</v>
+      </c>
+      <c r="D670" t="s">
+        <v>72</v>
+      </c>
+      <c r="G670">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B671" t="s">
+        <v>58</v>
+      </c>
+      <c r="D671" t="s">
+        <v>71</v>
+      </c>
+      <c r="G671">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B672" t="s">
+        <v>82</v>
+      </c>
+      <c r="D672" t="s">
+        <v>72</v>
+      </c>
+      <c r="G672">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I558" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/hesaptakip.xlsx
+++ b/hesaptakip.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yucel\Desktop\melikkent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATASCIENCE\GITHUB\melikkenthesap\melikkenthesap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE27EFF1-164C-4B98-A76D-46FEC87F45F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5AFFD2-D6E0-4717-8E4F-9B5FA2CB7A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I672"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
+      <selection activeCell="B679" sqref="B679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9464,6 +9464,9 @@
       <c r="A547" t="s">
         <v>21</v>
       </c>
+      <c r="C547">
+        <v>2023</v>
+      </c>
       <c r="D547" t="s">
         <v>63</v>
       </c>
@@ -9478,6 +9481,9 @@
       <c r="A548" t="s">
         <v>21</v>
       </c>
+      <c r="C548">
+        <v>2023</v>
+      </c>
       <c r="D548" t="s">
         <v>64</v>
       </c>
@@ -9492,6 +9498,9 @@
       <c r="A549" t="s">
         <v>21</v>
       </c>
+      <c r="C549">
+        <v>2023</v>
+      </c>
       <c r="D549" t="s">
         <v>67</v>
       </c>
@@ -9506,6 +9515,9 @@
       <c r="A550" t="s">
         <v>21</v>
       </c>
+      <c r="C550">
+        <v>2023</v>
+      </c>
       <c r="D550" t="s">
         <v>68</v>
       </c>
@@ -9520,6 +9532,9 @@
       <c r="A551" t="s">
         <v>21</v>
       </c>
+      <c r="C551">
+        <v>2023</v>
+      </c>
       <c r="D551" t="s">
         <v>69</v>
       </c>
@@ -9534,6 +9549,9 @@
       <c r="A552" t="s">
         <v>16</v>
       </c>
+      <c r="C552">
+        <v>2023</v>
+      </c>
       <c r="D552" t="s">
         <v>62</v>
       </c>
@@ -9548,6 +9566,9 @@
       <c r="A553" t="s">
         <v>43</v>
       </c>
+      <c r="C553">
+        <v>2023</v>
+      </c>
       <c r="D553" t="s">
         <v>62</v>
       </c>
@@ -9562,6 +9583,9 @@
       <c r="A554" t="s">
         <v>20</v>
       </c>
+      <c r="C554">
+        <v>2023</v>
+      </c>
       <c r="D554" t="s">
         <v>62</v>
       </c>
@@ -9576,6 +9600,9 @@
       <c r="A555" t="s">
         <v>24</v>
       </c>
+      <c r="C555">
+        <v>2023</v>
+      </c>
       <c r="D555" t="s">
         <v>62</v>
       </c>
@@ -9590,6 +9617,9 @@
       <c r="B556" t="s">
         <v>19</v>
       </c>
+      <c r="C556">
+        <v>2023</v>
+      </c>
       <c r="D556" t="s">
         <v>62</v>
       </c>
@@ -9601,6 +9631,9 @@
       <c r="B557" t="s">
         <v>18</v>
       </c>
+      <c r="C557">
+        <v>2023</v>
+      </c>
       <c r="D557" t="s">
         <v>62</v>
       </c>
@@ -9612,6 +9645,9 @@
       <c r="B558" t="s">
         <v>58</v>
       </c>
+      <c r="C558">
+        <v>2023</v>
+      </c>
       <c r="D558" t="s">
         <v>62</v>
       </c>
@@ -9623,6 +9659,9 @@
       <c r="B559" t="s">
         <v>26</v>
       </c>
+      <c r="C559">
+        <v>2023</v>
+      </c>
       <c r="D559" t="s">
         <v>62</v>
       </c>
@@ -9634,6 +9673,9 @@
       <c r="A560" t="s">
         <v>42</v>
       </c>
+      <c r="C560">
+        <v>2023</v>
+      </c>
       <c r="D560" t="s">
         <v>63</v>
       </c>
@@ -9648,6 +9690,9 @@
       <c r="A561" t="s">
         <v>57</v>
       </c>
+      <c r="C561">
+        <v>2023</v>
+      </c>
       <c r="D561" t="s">
         <v>63</v>
       </c>
@@ -9662,6 +9707,9 @@
       <c r="A562" t="s">
         <v>10</v>
       </c>
+      <c r="C562">
+        <v>2023</v>
+      </c>
       <c r="D562" t="s">
         <v>63</v>
       </c>
@@ -9676,6 +9724,9 @@
       <c r="A563" t="s">
         <v>12</v>
       </c>
+      <c r="C563">
+        <v>2023</v>
+      </c>
       <c r="D563" t="s">
         <v>63</v>
       </c>
@@ -9690,6 +9741,9 @@
       <c r="A564" t="s">
         <v>12</v>
       </c>
+      <c r="C564">
+        <v>2023</v>
+      </c>
       <c r="D564" t="s">
         <v>63</v>
       </c>
@@ -9704,6 +9758,9 @@
       <c r="B565" t="s">
         <v>30</v>
       </c>
+      <c r="C565">
+        <v>2023</v>
+      </c>
       <c r="D565" t="s">
         <v>63</v>
       </c>
@@ -9715,6 +9772,9 @@
       <c r="A566" t="s">
         <v>22</v>
       </c>
+      <c r="C566">
+        <v>2023</v>
+      </c>
       <c r="D566" t="s">
         <v>63</v>
       </c>
@@ -9729,6 +9789,9 @@
       <c r="A567" t="s">
         <v>23</v>
       </c>
+      <c r="C567">
+        <v>2023</v>
+      </c>
       <c r="D567" t="s">
         <v>62</v>
       </c>
@@ -9743,6 +9806,9 @@
       <c r="A568" t="s">
         <v>23</v>
       </c>
+      <c r="C568">
+        <v>2023</v>
+      </c>
       <c r="D568" t="s">
         <v>63</v>
       </c>
@@ -9757,6 +9823,9 @@
       <c r="A569" t="s">
         <v>16</v>
       </c>
+      <c r="C569">
+        <v>2023</v>
+      </c>
       <c r="D569" t="s">
         <v>63</v>
       </c>
@@ -9771,6 +9840,9 @@
       <c r="A570" t="s">
         <v>24</v>
       </c>
+      <c r="C570">
+        <v>2023</v>
+      </c>
       <c r="D570" t="s">
         <v>63</v>
       </c>
@@ -9785,6 +9857,9 @@
       <c r="A571" t="s">
         <v>43</v>
       </c>
+      <c r="C571">
+        <v>2023</v>
+      </c>
       <c r="D571" t="s">
         <v>63</v>
       </c>
@@ -9799,6 +9874,9 @@
       <c r="A572" t="s">
         <v>20</v>
       </c>
+      <c r="C572">
+        <v>2023</v>
+      </c>
       <c r="D572" t="s">
         <v>63</v>
       </c>
@@ -9813,6 +9891,9 @@
       <c r="B573" t="s">
         <v>19</v>
       </c>
+      <c r="C573">
+        <v>2023</v>
+      </c>
       <c r="D573" t="s">
         <v>63</v>
       </c>
@@ -9824,6 +9905,9 @@
       <c r="A574" t="s">
         <v>11</v>
       </c>
+      <c r="C574">
+        <v>2023</v>
+      </c>
       <c r="D574" t="s">
         <v>62</v>
       </c>
@@ -9838,6 +9922,9 @@
       <c r="A575" t="s">
         <v>11</v>
       </c>
+      <c r="C575">
+        <v>2023</v>
+      </c>
       <c r="D575" t="s">
         <v>63</v>
       </c>
@@ -9852,6 +9939,9 @@
       <c r="B576" t="s">
         <v>18</v>
       </c>
+      <c r="C576">
+        <v>2023</v>
+      </c>
       <c r="D576" t="s">
         <v>63</v>
       </c>
@@ -9863,6 +9953,9 @@
       <c r="A577" t="s">
         <v>12</v>
       </c>
+      <c r="C577">
+        <v>2023</v>
+      </c>
       <c r="D577" t="s">
         <v>64</v>
       </c>
@@ -9877,6 +9970,9 @@
       <c r="A578" t="s">
         <v>12</v>
       </c>
+      <c r="C578">
+        <v>2023</v>
+      </c>
       <c r="D578" t="s">
         <v>64</v>
       </c>
@@ -9891,6 +9987,9 @@
       <c r="B579" t="s">
         <v>30</v>
       </c>
+      <c r="C579">
+        <v>2023</v>
+      </c>
       <c r="D579" t="s">
         <v>64</v>
       </c>
@@ -9902,6 +10001,9 @@
       <c r="A580" t="s">
         <v>10</v>
       </c>
+      <c r="C580">
+        <v>2023</v>
+      </c>
       <c r="D580" t="s">
         <v>64</v>
       </c>
@@ -9916,6 +10018,9 @@
       <c r="A581" t="s">
         <v>42</v>
       </c>
+      <c r="C581">
+        <v>2023</v>
+      </c>
       <c r="D581" t="s">
         <v>64</v>
       </c>
@@ -9930,6 +10035,9 @@
       <c r="A582" t="s">
         <v>22</v>
       </c>
+      <c r="C582">
+        <v>2023</v>
+      </c>
       <c r="D582" t="s">
         <v>64</v>
       </c>
@@ -9944,6 +10052,9 @@
       <c r="A583" t="s">
         <v>57</v>
       </c>
+      <c r="C583">
+        <v>2023</v>
+      </c>
       <c r="D583" t="s">
         <v>64</v>
       </c>
@@ -9958,6 +10069,9 @@
       <c r="A584" t="s">
         <v>16</v>
       </c>
+      <c r="C584">
+        <v>2023</v>
+      </c>
       <c r="D584" t="s">
         <v>64</v>
       </c>
@@ -9972,6 +10086,9 @@
       <c r="A585" t="s">
         <v>43</v>
       </c>
+      <c r="C585">
+        <v>2023</v>
+      </c>
       <c r="D585" t="s">
         <v>64</v>
       </c>
@@ -9986,6 +10103,9 @@
       <c r="A586" t="s">
         <v>20</v>
       </c>
+      <c r="C586">
+        <v>2023</v>
+      </c>
       <c r="D586" t="s">
         <v>64</v>
       </c>
@@ -10000,6 +10120,9 @@
       <c r="A587" t="s">
         <v>24</v>
       </c>
+      <c r="C587">
+        <v>2023</v>
+      </c>
       <c r="D587" t="s">
         <v>64</v>
       </c>
@@ -10014,6 +10137,9 @@
       <c r="B588" t="s">
         <v>19</v>
       </c>
+      <c r="C588">
+        <v>2023</v>
+      </c>
       <c r="D588" t="s">
         <v>64</v>
       </c>
@@ -10025,6 +10151,9 @@
       <c r="A589" t="s">
         <v>11</v>
       </c>
+      <c r="C589">
+        <v>2023</v>
+      </c>
       <c r="D589" t="s">
         <v>64</v>
       </c>
@@ -10039,6 +10168,9 @@
       <c r="B590" t="s">
         <v>18</v>
       </c>
+      <c r="C590">
+        <v>2023</v>
+      </c>
       <c r="D590" t="s">
         <v>64</v>
       </c>
@@ -10050,6 +10182,9 @@
       <c r="B591" t="s">
         <v>58</v>
       </c>
+      <c r="C591">
+        <v>2023</v>
+      </c>
       <c r="D591" t="s">
         <v>63</v>
       </c>
@@ -10061,6 +10196,9 @@
       <c r="B592" t="s">
         <v>58</v>
       </c>
+      <c r="C592">
+        <v>2023</v>
+      </c>
       <c r="D592" t="s">
         <v>64</v>
       </c>
@@ -10072,6 +10210,9 @@
       <c r="A593" t="s">
         <v>12</v>
       </c>
+      <c r="C593">
+        <v>2023</v>
+      </c>
       <c r="D593" t="s">
         <v>67</v>
       </c>
@@ -10086,6 +10227,9 @@
       <c r="A594" t="s">
         <v>12</v>
       </c>
+      <c r="C594">
+        <v>2023</v>
+      </c>
       <c r="D594" t="s">
         <v>67</v>
       </c>
@@ -10100,6 +10244,9 @@
       <c r="B595" t="s">
         <v>30</v>
       </c>
+      <c r="C595">
+        <v>2023</v>
+      </c>
       <c r="D595" t="s">
         <v>67</v>
       </c>
@@ -10111,6 +10258,9 @@
       <c r="A596" t="s">
         <v>10</v>
       </c>
+      <c r="C596">
+        <v>2023</v>
+      </c>
       <c r="D596" t="s">
         <v>67</v>
       </c>
@@ -10125,6 +10275,9 @@
       <c r="A597" t="s">
         <v>42</v>
       </c>
+      <c r="C597">
+        <v>2023</v>
+      </c>
       <c r="D597" t="s">
         <v>67</v>
       </c>
@@ -10139,6 +10292,9 @@
       <c r="A598" t="s">
         <v>22</v>
       </c>
+      <c r="C598">
+        <v>2023</v>
+      </c>
       <c r="D598" t="s">
         <v>67</v>
       </c>
@@ -10153,6 +10309,9 @@
       <c r="A599" t="s">
         <v>15</v>
       </c>
+      <c r="C599">
+        <v>2023</v>
+      </c>
       <c r="D599" t="s">
         <v>62</v>
       </c>
@@ -10167,6 +10326,9 @@
       <c r="A600" t="s">
         <v>15</v>
       </c>
+      <c r="C600">
+        <v>2023</v>
+      </c>
       <c r="D600" t="s">
         <v>63</v>
       </c>
@@ -10181,6 +10343,9 @@
       <c r="A601" t="s">
         <v>15</v>
       </c>
+      <c r="C601">
+        <v>2023</v>
+      </c>
       <c r="D601" t="s">
         <v>64</v>
       </c>
@@ -10195,6 +10360,9 @@
       <c r="A602" t="s">
         <v>15</v>
       </c>
+      <c r="C602">
+        <v>2023</v>
+      </c>
       <c r="D602" t="s">
         <v>67</v>
       </c>
@@ -10209,6 +10377,9 @@
       <c r="A603" t="s">
         <v>15</v>
       </c>
+      <c r="C603">
+        <v>2023</v>
+      </c>
       <c r="D603" t="s">
         <v>68</v>
       </c>
@@ -10223,6 +10394,9 @@
       <c r="A604" t="s">
         <v>24</v>
       </c>
+      <c r="C604">
+        <v>2023</v>
+      </c>
       <c r="D604" t="s">
         <v>67</v>
       </c>
@@ -10237,6 +10411,9 @@
       <c r="A605" t="s">
         <v>57</v>
       </c>
+      <c r="C605">
+        <v>2023</v>
+      </c>
       <c r="D605" t="s">
         <v>67</v>
       </c>
@@ -10251,6 +10428,9 @@
       <c r="B606" t="s">
         <v>75</v>
       </c>
+      <c r="C606">
+        <v>2023</v>
+      </c>
       <c r="D606" t="s">
         <v>67</v>
       </c>
@@ -10262,6 +10442,9 @@
       <c r="A607" t="s">
         <v>16</v>
       </c>
+      <c r="C607">
+        <v>2023</v>
+      </c>
       <c r="D607" t="s">
         <v>67</v>
       </c>
@@ -10276,6 +10459,9 @@
       <c r="B608" t="s">
         <v>19</v>
       </c>
+      <c r="C608">
+        <v>2023</v>
+      </c>
       <c r="D608" t="s">
         <v>67</v>
       </c>
@@ -10287,6 +10473,9 @@
       <c r="A609" t="s">
         <v>43</v>
       </c>
+      <c r="C609">
+        <v>2023</v>
+      </c>
       <c r="D609" t="s">
         <v>67</v>
       </c>
@@ -10301,6 +10490,9 @@
       <c r="A610" t="s">
         <v>20</v>
       </c>
+      <c r="C610">
+        <v>2023</v>
+      </c>
       <c r="D610" t="s">
         <v>67</v>
       </c>
@@ -10315,6 +10507,9 @@
       <c r="B611" t="s">
         <v>18</v>
       </c>
+      <c r="C611">
+        <v>2023</v>
+      </c>
       <c r="D611" t="s">
         <v>67</v>
       </c>
@@ -10326,6 +10521,9 @@
       <c r="B612" t="s">
         <v>58</v>
       </c>
+      <c r="C612">
+        <v>2023</v>
+      </c>
       <c r="D612" t="s">
         <v>67</v>
       </c>
@@ -10337,6 +10535,9 @@
       <c r="B613" t="s">
         <v>76</v>
       </c>
+      <c r="C613">
+        <v>2023</v>
+      </c>
       <c r="D613" t="s">
         <v>68</v>
       </c>
@@ -10348,6 +10549,9 @@
       <c r="A614" t="s">
         <v>12</v>
       </c>
+      <c r="C614">
+        <v>2023</v>
+      </c>
       <c r="D614" t="s">
         <v>68</v>
       </c>
@@ -10362,6 +10566,9 @@
       <c r="A615" t="s">
         <v>12</v>
       </c>
+      <c r="C615">
+        <v>2023</v>
+      </c>
       <c r="D615" t="s">
         <v>68</v>
       </c>
@@ -10376,6 +10583,9 @@
       <c r="B616" t="s">
         <v>30</v>
       </c>
+      <c r="C616">
+        <v>2023</v>
+      </c>
       <c r="D616" t="s">
         <v>68</v>
       </c>
@@ -10387,6 +10597,9 @@
       <c r="A617" t="s">
         <v>10</v>
       </c>
+      <c r="C617">
+        <v>2023</v>
+      </c>
       <c r="D617" t="s">
         <v>68</v>
       </c>
@@ -10401,6 +10614,9 @@
       <c r="A618" t="s">
         <v>57</v>
       </c>
+      <c r="C618">
+        <v>2023</v>
+      </c>
       <c r="D618" t="s">
         <v>68</v>
       </c>
@@ -10415,6 +10631,9 @@
       <c r="A619" t="s">
         <v>42</v>
       </c>
+      <c r="C619">
+        <v>2023</v>
+      </c>
       <c r="D619" t="s">
         <v>68</v>
       </c>
@@ -10429,6 +10648,9 @@
       <c r="A620" t="s">
         <v>22</v>
       </c>
+      <c r="C620">
+        <v>2023</v>
+      </c>
       <c r="D620" t="s">
         <v>68</v>
       </c>
@@ -10443,6 +10665,9 @@
       <c r="A621" t="s">
         <v>16</v>
       </c>
+      <c r="C621">
+        <v>2023</v>
+      </c>
       <c r="D621" t="s">
         <v>68</v>
       </c>
@@ -10457,6 +10682,9 @@
       <c r="A622" t="s">
         <v>43</v>
       </c>
+      <c r="C622">
+        <v>2023</v>
+      </c>
       <c r="D622" t="s">
         <v>68</v>
       </c>
@@ -10471,6 +10699,9 @@
       <c r="A623" t="s">
         <v>20</v>
       </c>
+      <c r="C623">
+        <v>2023</v>
+      </c>
       <c r="D623" t="s">
         <v>68</v>
       </c>
@@ -10482,6 +10713,9 @@
       <c r="B624" t="s">
         <v>19</v>
       </c>
+      <c r="C624">
+        <v>2023</v>
+      </c>
       <c r="D624" t="s">
         <v>68</v>
       </c>
@@ -10493,6 +10727,9 @@
       <c r="A625" t="s">
         <v>24</v>
       </c>
+      <c r="C625">
+        <v>2023</v>
+      </c>
       <c r="D625" t="s">
         <v>68</v>
       </c>
@@ -10507,6 +10744,9 @@
       <c r="B626" t="s">
         <v>18</v>
       </c>
+      <c r="C626">
+        <v>2023</v>
+      </c>
       <c r="D626" t="s">
         <v>68</v>
       </c>
@@ -10518,6 +10758,9 @@
       <c r="A627" t="s">
         <v>12</v>
       </c>
+      <c r="C627">
+        <v>2023</v>
+      </c>
       <c r="D627" t="s">
         <v>69</v>
       </c>
@@ -10532,6 +10775,9 @@
       <c r="A628" t="s">
         <v>12</v>
       </c>
+      <c r="C628">
+        <v>2023</v>
+      </c>
       <c r="D628" t="s">
         <v>69</v>
       </c>
@@ -10546,6 +10792,9 @@
       <c r="B629" t="s">
         <v>30</v>
       </c>
+      <c r="C629">
+        <v>2023</v>
+      </c>
       <c r="D629" t="s">
         <v>69</v>
       </c>
@@ -10557,6 +10806,9 @@
       <c r="A630" t="s">
         <v>57</v>
       </c>
+      <c r="C630">
+        <v>2023</v>
+      </c>
       <c r="D630" t="s">
         <v>69</v>
       </c>
@@ -10571,6 +10823,9 @@
       <c r="A631" t="s">
         <v>42</v>
       </c>
+      <c r="C631">
+        <v>2023</v>
+      </c>
       <c r="D631" t="s">
         <v>69</v>
       </c>
@@ -10585,6 +10840,9 @@
       <c r="A632" t="s">
         <v>24</v>
       </c>
+      <c r="C632">
+        <v>2023</v>
+      </c>
       <c r="D632" t="s">
         <v>69</v>
       </c>
@@ -10599,6 +10857,9 @@
       <c r="B633" t="s">
         <v>77</v>
       </c>
+      <c r="C633">
+        <v>2023</v>
+      </c>
       <c r="D633" t="s">
         <v>69</v>
       </c>
@@ -10610,6 +10871,9 @@
       <c r="B634" t="s">
         <v>78</v>
       </c>
+      <c r="C634">
+        <v>2023</v>
+      </c>
       <c r="D634" t="s">
         <v>69</v>
       </c>
@@ -10621,6 +10885,9 @@
       <c r="B635" t="s">
         <v>19</v>
       </c>
+      <c r="C635">
+        <v>2023</v>
+      </c>
       <c r="D635" t="s">
         <v>69</v>
       </c>
@@ -10632,6 +10899,9 @@
       <c r="A636" t="s">
         <v>43</v>
       </c>
+      <c r="C636">
+        <v>2023</v>
+      </c>
       <c r="D636" t="s">
         <v>69</v>
       </c>
@@ -10646,6 +10916,9 @@
       <c r="A637" t="s">
         <v>20</v>
       </c>
+      <c r="C637">
+        <v>2023</v>
+      </c>
       <c r="D637" t="s">
         <v>69</v>
       </c>
@@ -10660,6 +10933,9 @@
       <c r="B638" t="s">
         <v>79</v>
       </c>
+      <c r="C638">
+        <v>2023</v>
+      </c>
       <c r="D638" t="s">
         <v>69</v>
       </c>
@@ -10671,6 +10947,9 @@
       <c r="B639" t="s">
         <v>18</v>
       </c>
+      <c r="C639">
+        <v>2023</v>
+      </c>
       <c r="D639" t="s">
         <v>69</v>
       </c>
@@ -10682,6 +10961,9 @@
       <c r="B640" t="s">
         <v>30</v>
       </c>
+      <c r="C640">
+        <v>2023</v>
+      </c>
       <c r="D640" t="s">
         <v>70</v>
       </c>
@@ -10693,6 +10975,9 @@
       <c r="B641" t="s">
         <v>30</v>
       </c>
+      <c r="C641">
+        <v>2023</v>
+      </c>
       <c r="D641" t="s">
         <v>70</v>
       </c>
@@ -10704,6 +10989,9 @@
       <c r="A642" t="s">
         <v>12</v>
       </c>
+      <c r="C642">
+        <v>2023</v>
+      </c>
       <c r="D642" t="s">
         <v>70</v>
       </c>
@@ -10718,6 +11006,9 @@
       <c r="A643" t="s">
         <v>12</v>
       </c>
+      <c r="C643">
+        <v>2023</v>
+      </c>
       <c r="D643" t="s">
         <v>70</v>
       </c>
@@ -10732,6 +11023,9 @@
       <c r="A644" t="s">
         <v>42</v>
       </c>
+      <c r="C644">
+        <v>2023</v>
+      </c>
       <c r="D644" t="s">
         <v>70</v>
       </c>
@@ -10746,6 +11040,9 @@
       <c r="A645" t="s">
         <v>57</v>
       </c>
+      <c r="C645">
+        <v>2023</v>
+      </c>
       <c r="D645" t="s">
         <v>70</v>
       </c>
@@ -10760,6 +11057,9 @@
       <c r="A646" t="s">
         <v>24</v>
       </c>
+      <c r="C646">
+        <v>2023</v>
+      </c>
       <c r="D646" t="s">
         <v>70</v>
       </c>
@@ -10774,6 +11074,9 @@
       <c r="A647" t="s">
         <v>22</v>
       </c>
+      <c r="C647">
+        <v>2023</v>
+      </c>
       <c r="D647" t="s">
         <v>70</v>
       </c>
@@ -10788,6 +11091,9 @@
       <c r="A648" t="s">
         <v>43</v>
       </c>
+      <c r="C648">
+        <v>2023</v>
+      </c>
       <c r="D648" t="s">
         <v>70</v>
       </c>
@@ -10802,6 +11108,9 @@
       <c r="A649" t="s">
         <v>20</v>
       </c>
+      <c r="C649">
+        <v>2023</v>
+      </c>
       <c r="D649" t="s">
         <v>70</v>
       </c>
@@ -10816,6 +11125,9 @@
       <c r="B650" t="s">
         <v>19</v>
       </c>
+      <c r="C650">
+        <v>2023</v>
+      </c>
       <c r="D650" t="s">
         <v>70</v>
       </c>
@@ -10827,6 +11139,9 @@
       <c r="B651" t="s">
         <v>18</v>
       </c>
+      <c r="C651">
+        <v>2023</v>
+      </c>
       <c r="D651" t="s">
         <v>70</v>
       </c>
@@ -10838,6 +11153,9 @@
       <c r="B652" t="s">
         <v>54</v>
       </c>
+      <c r="C652">
+        <v>2023</v>
+      </c>
       <c r="D652" t="s">
         <v>71</v>
       </c>
@@ -10849,6 +11167,9 @@
       <c r="B653" t="s">
         <v>58</v>
       </c>
+      <c r="C653">
+        <v>2023</v>
+      </c>
       <c r="D653" t="s">
         <v>68</v>
       </c>
@@ -10860,6 +11181,9 @@
       <c r="B654" t="s">
         <v>58</v>
       </c>
+      <c r="C654">
+        <v>2023</v>
+      </c>
       <c r="D654" t="s">
         <v>69</v>
       </c>
@@ -10871,6 +11195,9 @@
       <c r="B655" t="s">
         <v>58</v>
       </c>
+      <c r="C655">
+        <v>2023</v>
+      </c>
       <c r="D655" t="s">
         <v>70</v>
       </c>
@@ -10882,6 +11209,9 @@
       <c r="A656" t="s">
         <v>12</v>
       </c>
+      <c r="C656">
+        <v>2023</v>
+      </c>
       <c r="D656" t="s">
         <v>71</v>
       </c>
@@ -10896,6 +11226,9 @@
       <c r="A657" t="s">
         <v>12</v>
       </c>
+      <c r="C657">
+        <v>2023</v>
+      </c>
       <c r="D657" t="s">
         <v>71</v>
       </c>
@@ -10910,6 +11243,9 @@
       <c r="B658" t="s">
         <v>30</v>
       </c>
+      <c r="C658">
+        <v>2023</v>
+      </c>
       <c r="D658" t="s">
         <v>71</v>
       </c>
@@ -10921,6 +11257,9 @@
       <c r="B659" t="s">
         <v>80</v>
       </c>
+      <c r="C659">
+        <v>2023</v>
+      </c>
       <c r="D659" t="s">
         <v>71</v>
       </c>
@@ -10932,6 +11271,9 @@
       <c r="A660" t="s">
         <v>42</v>
       </c>
+      <c r="C660">
+        <v>2023</v>
+      </c>
       <c r="D660" t="s">
         <v>71</v>
       </c>
@@ -10946,6 +11288,9 @@
       <c r="A661" t="s">
         <v>57</v>
       </c>
+      <c r="C661">
+        <v>2023</v>
+      </c>
       <c r="D661" t="s">
         <v>71</v>
       </c>
@@ -10960,6 +11305,9 @@
       <c r="A662" t="s">
         <v>10</v>
       </c>
+      <c r="C662">
+        <v>2023</v>
+      </c>
       <c r="D662" t="s">
         <v>69</v>
       </c>
@@ -10974,6 +11322,9 @@
       <c r="A663" t="s">
         <v>10</v>
       </c>
+      <c r="C663">
+        <v>2023</v>
+      </c>
       <c r="D663" t="s">
         <v>70</v>
       </c>
@@ -10988,6 +11339,9 @@
       <c r="B664" t="s">
         <v>81</v>
       </c>
+      <c r="C664">
+        <v>2023</v>
+      </c>
       <c r="D664" t="s">
         <v>71</v>
       </c>
@@ -10999,6 +11353,9 @@
       <c r="A665" t="s">
         <v>22</v>
       </c>
+      <c r="C665">
+        <v>2023</v>
+      </c>
       <c r="D665" t="s">
         <v>71</v>
       </c>
@@ -11013,6 +11370,9 @@
       <c r="A666" t="s">
         <v>24</v>
       </c>
+      <c r="C666">
+        <v>2023</v>
+      </c>
       <c r="D666" t="s">
         <v>71</v>
       </c>
@@ -11027,6 +11387,9 @@
       <c r="B667" t="s">
         <v>19</v>
       </c>
+      <c r="C667">
+        <v>2023</v>
+      </c>
       <c r="D667" t="s">
         <v>71</v>
       </c>
@@ -11038,6 +11401,9 @@
       <c r="A668" t="s">
         <v>43</v>
       </c>
+      <c r="C668">
+        <v>2023</v>
+      </c>
       <c r="D668" t="s">
         <v>71</v>
       </c>
@@ -11052,6 +11418,9 @@
       <c r="A669" t="s">
         <v>20</v>
       </c>
+      <c r="C669">
+        <v>2023</v>
+      </c>
       <c r="D669" t="s">
         <v>71</v>
       </c>
@@ -11066,6 +11435,9 @@
       <c r="B670" t="s">
         <v>18</v>
       </c>
+      <c r="C670">
+        <v>2023</v>
+      </c>
       <c r="D670" t="s">
         <v>72</v>
       </c>
@@ -11077,6 +11449,9 @@
       <c r="B671" t="s">
         <v>58</v>
       </c>
+      <c r="C671">
+        <v>2023</v>
+      </c>
       <c r="D671" t="s">
         <v>71</v>
       </c>
@@ -11087,6 +11462,9 @@
     <row r="672" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B672" t="s">
         <v>82</v>
+      </c>
+      <c r="C672">
+        <v>2023</v>
       </c>
       <c r="D672" t="s">
         <v>72</v>

--- a/hesaptakip.xlsx
+++ b/hesaptakip.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATASCIENCE\GITHUB\melikkenthesap\melikkenthesap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yucel\Desktop\melikkent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5AFFD2-D6E0-4717-8E4F-9B5FA2CB7A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30A88FC-6149-4C8E-92DA-F55D372C1142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$558</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$672</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="83">
   <si>
     <t>GELİR NEDENİ</t>
   </si>
@@ -673,10 +673,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I672"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
-      <selection activeCell="B679" sqref="B679"/>
+    <sheetView tabSelected="1" topLeftCell="A637" workbookViewId="0">
+      <selection activeCell="E675" sqref="E675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -731,7 +732,7 @@
         <v>13888.42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -748,7 +749,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -765,7 +766,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -782,7 +783,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -799,7 +800,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -816,7 +817,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -833,7 +834,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -850,7 +851,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -867,7 +868,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -884,7 +885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -901,7 +902,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -915,7 +916,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -929,7 +930,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -943,7 +944,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -960,7 +961,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -977,7 +978,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -994,7 +995,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>18</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>19</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>26</v>
       </c>
@@ -1240,7 +1241,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1291,7 +1292,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1342,7 +1343,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1393,7 +1394,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>18</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>26</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>26</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>19</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>27</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1576,7 +1577,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -1712,7 +1713,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -1746,7 +1747,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>26</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>19</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>18</v>
       </c>
@@ -1788,7 +1789,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>27</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -1833,7 +1834,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -1850,7 +1851,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -1918,7 +1919,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>18</v>
       </c>
@@ -2051,7 +2052,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>19</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>26</v>
       </c>
@@ -2079,7 +2080,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -2130,7 +2131,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -2181,7 +2182,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -2266,7 +2267,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>25</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>28</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>28</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>28</v>
       </c>
@@ -2385,7 +2386,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>28</v>
       </c>
@@ -2419,7 +2420,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>28</v>
       </c>
@@ -2436,7 +2437,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>28</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>28</v>
       </c>
@@ -2470,7 +2471,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>28</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -2504,7 +2505,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -2538,7 +2539,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -2555,7 +2556,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -2572,7 +2573,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -2589,7 +2590,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -2606,7 +2607,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>29</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>30</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>1512.5</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>18</v>
       </c>
@@ -2648,7 +2649,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>19</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>26</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -2704,7 +2705,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>31</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -2769,7 +2770,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>22</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -2888,7 +2889,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -2905,7 +2906,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>29</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>30</v>
       </c>
@@ -2933,7 +2934,7 @@
         <v>110.5</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>18</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>19</v>
       </c>
@@ -2961,7 +2962,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>26</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -2989,7 +2990,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -3057,7 +3058,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>22</v>
       </c>
@@ -3074,7 +3075,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>23</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -3108,7 +3109,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>29</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>14.54</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>32</v>
       </c>
@@ -3187,7 +3188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>33</v>
       </c>
@@ -3201,7 +3202,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>74</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>34</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>458.19</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>18</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>19</v>
       </c>
@@ -3257,7 +3258,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>26</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -3285,7 +3286,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>22</v>
       </c>
@@ -3370,7 +3371,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>23</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -3404,7 +3405,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -3438,7 +3439,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -3506,7 +3507,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>21</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -3574,7 +3575,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -3591,7 +3592,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>24</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -3625,7 +3626,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>35</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>15.15</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>18</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>19</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>26</v>
       </c>
@@ -3698,7 +3699,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>36</v>
       </c>
@@ -3712,7 +3713,7 @@
         <v>345.15</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>31</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>15</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -3859,7 +3860,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -3893,7 +3894,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -3910,7 +3911,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -3944,7 +3945,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -3978,7 +3979,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>23</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>16</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>24</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>37</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>38</v>
       </c>
@@ -4074,7 +4075,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>38</v>
       </c>
@@ -4088,7 +4089,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>38</v>
       </c>
@@ -4102,7 +4103,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>38</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>38</v>
       </c>
@@ -4130,7 +4131,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>38</v>
       </c>
@@ -4144,7 +4145,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>38</v>
       </c>
@@ -4158,7 +4159,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>38</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>39</v>
       </c>
@@ -4186,7 +4187,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>40</v>
       </c>
@@ -4200,7 +4201,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>30</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>18</v>
       </c>
@@ -4228,7 +4229,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>20</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>31</v>
       </c>
@@ -4256,7 +4257,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>12</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -4290,7 +4291,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>10</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>25</v>
       </c>
@@ -4324,7 +4325,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>25</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>25</v>
       </c>
@@ -4358,7 +4359,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>25</v>
       </c>
@@ -4375,7 +4376,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>25</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>22</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>23</v>
       </c>
@@ -4443,7 +4444,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>16</v>
       </c>
@@ -4460,7 +4461,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>24</v>
       </c>
@@ -4477,7 +4478,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>26</v>
       </c>
@@ -4491,7 +4492,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>26</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>19</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>19</v>
       </c>
@@ -4533,7 +4534,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>30</v>
       </c>
@@ -4547,7 +4548,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>12</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>12</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -4598,7 +4599,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -4615,7 +4616,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>22</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>23</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -4700,7 +4701,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -4717,7 +4718,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>16</v>
       </c>
@@ -4734,7 +4735,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -4768,7 +4769,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>38</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>38</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>38</v>
       </c>
@@ -4810,7 +4811,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>18</v>
       </c>
@@ -4824,7 +4825,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>18</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>30</v>
       </c>
@@ -4852,7 +4853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>19</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>26</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>20</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>41</v>
       </c>
@@ -4925,7 +4926,7 @@
         <v>13475.42</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -4942,7 +4943,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>22</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>23</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>42</v>
       </c>
@@ -5044,7 +5045,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>43</v>
       </c>
@@ -5078,7 +5079,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>24</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>30</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>18</v>
       </c>
@@ -5123,7 +5124,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>19</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>20</v>
       </c>
@@ -5151,7 +5152,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -5185,7 +5186,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>14</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -5236,7 +5237,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -5253,7 +5254,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>10</v>
       </c>
@@ -5270,7 +5271,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>22</v>
       </c>
@@ -5287,7 +5288,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>42</v>
       </c>
@@ -5304,7 +5305,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>23</v>
       </c>
@@ -5321,7 +5322,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>16</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>24</v>
       </c>
@@ -5355,7 +5356,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>43</v>
       </c>
@@ -5372,7 +5373,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
         <v>18</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
         <v>19</v>
       </c>
@@ -5400,7 +5401,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -5448,7 +5449,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>10</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>22</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>23</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>16</v>
       </c>
@@ -5516,7 +5517,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -5533,7 +5534,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>24</v>
       </c>
@@ -5567,7 +5568,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>43</v>
       </c>
@@ -5584,7 +5585,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
         <v>18</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>44</v>
       </c>
@@ -5612,7 +5613,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>19</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>20</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -5657,7 +5658,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>15</v>
       </c>
@@ -5674,7 +5675,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>15</v>
       </c>
@@ -5708,7 +5709,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>15</v>
       </c>
@@ -5725,7 +5726,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>12</v>
       </c>
@@ -5759,7 +5760,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>10</v>
       </c>
@@ -5793,7 +5794,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>22</v>
       </c>
@@ -5810,7 +5811,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>23</v>
       </c>
@@ -5827,7 +5828,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>42</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>16</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>24</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>43</v>
       </c>
@@ -5895,7 +5896,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
         <v>30</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
         <v>18</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
         <v>45</v>
       </c>
@@ -5937,7 +5938,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
         <v>26</v>
       </c>
@@ -5951,7 +5952,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
         <v>26</v>
       </c>
@@ -5965,7 +5966,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
         <v>26</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>46</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>47</v>
       </c>
@@ -6007,7 +6008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>48</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>19</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>20</v>
       </c>
@@ -6049,7 +6050,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>12</v>
       </c>
@@ -6066,7 +6067,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -6083,7 +6084,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>10</v>
       </c>
@@ -6100,7 +6101,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>42</v>
       </c>
@@ -6117,7 +6118,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>23</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>24</v>
       </c>
@@ -6151,7 +6152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>11</v>
       </c>
@@ -6168,7 +6169,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>43</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
         <v>26</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
         <v>26</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
         <v>18</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>49</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
         <v>50</v>
       </c>
@@ -6272,7 +6273,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>19</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>20</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>25</v>
       </c>
@@ -6317,7 +6318,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>25</v>
       </c>
@@ -6334,7 +6335,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>25</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>25</v>
       </c>
@@ -6368,7 +6369,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>25</v>
       </c>
@@ -6385,7 +6386,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>25</v>
       </c>
@@ -6402,7 +6403,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>14</v>
       </c>
@@ -6419,7 +6420,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>14</v>
       </c>
@@ -6436,7 +6437,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>14</v>
       </c>
@@ -6453,7 +6454,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>14</v>
       </c>
@@ -6470,7 +6471,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>21</v>
       </c>
@@ -6487,7 +6488,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>21</v>
       </c>
@@ -6504,7 +6505,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>21</v>
       </c>
@@ -6521,7 +6522,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>21</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>21</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>21</v>
       </c>
@@ -6572,7 +6573,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>21</v>
       </c>
@@ -6589,7 +6590,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>21</v>
       </c>
@@ -6606,7 +6607,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>21</v>
       </c>
@@ -6623,7 +6624,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>21</v>
       </c>
@@ -6640,7 +6641,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>21</v>
       </c>
@@ -6657,7 +6658,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>21</v>
       </c>
@@ -6674,7 +6675,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>28</v>
       </c>
@@ -6691,7 +6692,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>28</v>
       </c>
@@ -6708,7 +6709,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>28</v>
       </c>
@@ -6725,7 +6726,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>28</v>
       </c>
@@ -6742,7 +6743,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>28</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>28</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>28</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>28</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>28</v>
       </c>
@@ -6827,7 +6828,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>28</v>
       </c>
@@ -6844,7 +6845,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>28</v>
       </c>
@@ -6861,7 +6862,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>28</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>12</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>12</v>
       </c>
@@ -6912,7 +6913,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>10</v>
       </c>
@@ -6929,7 +6930,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>42</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>22</v>
       </c>
@@ -6963,7 +6964,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>16</v>
       </c>
@@ -6980,7 +6981,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>16</v>
       </c>
@@ -6997,7 +6998,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>24</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>11</v>
       </c>
@@ -7031,7 +7032,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>43</v>
       </c>
@@ -7048,7 +7049,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B394" t="s">
         <v>30</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>834.5</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
         <v>18</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B396" t="s">
         <v>19</v>
       </c>
@@ -7090,7 +7091,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B397" t="s">
         <v>26</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B398" t="s">
         <v>51</v>
       </c>
@@ -7118,7 +7119,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>20</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>52</v>
       </c>
@@ -7146,7 +7147,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>42</v>
       </c>
@@ -7163,7 +7164,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>12</v>
       </c>
@@ -7180,7 +7181,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>12</v>
       </c>
@@ -7197,7 +7198,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>10</v>
       </c>
@@ -7214,7 +7215,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>23</v>
       </c>
@@ -7231,7 +7232,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>23</v>
       </c>
@@ -7248,7 +7249,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>16</v>
       </c>
@@ -7265,7 +7266,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>24</v>
       </c>
@@ -7282,7 +7283,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>43</v>
       </c>
@@ -7299,7 +7300,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
         <v>18</v>
       </c>
@@ -7313,7 +7314,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B411" t="s">
         <v>30</v>
       </c>
@@ -7327,7 +7328,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
         <v>30</v>
       </c>
@@ -7341,7 +7342,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B413" t="s">
         <v>19</v>
       </c>
@@ -7355,7 +7356,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
         <v>51</v>
       </c>
@@ -7369,7 +7370,7 @@
         <v>229.9</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
         <v>53</v>
       </c>
@@ -7383,7 +7384,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>20</v>
       </c>
@@ -7397,7 +7398,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>12</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>12</v>
       </c>
@@ -7431,7 +7432,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>11</v>
       </c>
@@ -7448,7 +7449,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>11</v>
       </c>
@@ -7465,7 +7466,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>10</v>
       </c>
@@ -7482,7 +7483,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>22</v>
       </c>
@@ -7499,7 +7500,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>23</v>
       </c>
@@ -7516,7 +7517,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>42</v>
       </c>
@@ -7533,7 +7534,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>16</v>
       </c>
@@ -7550,7 +7551,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>24</v>
       </c>
@@ -7567,7 +7568,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>43</v>
       </c>
@@ -7584,7 +7585,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
         <v>26</v>
       </c>
@@ -7598,7 +7599,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
         <v>26</v>
       </c>
@@ -7612,7 +7613,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B430" t="s">
         <v>54</v>
       </c>
@@ -7626,7 +7627,7 @@
         <v>568.52</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B431" t="s">
         <v>30</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B432" t="s">
         <v>18</v>
       </c>
@@ -7654,7 +7655,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B433" t="s">
         <v>19</v>
       </c>
@@ -7668,7 +7669,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>20</v>
       </c>
@@ -7682,7 +7683,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>12</v>
       </c>
@@ -7699,7 +7700,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>12</v>
       </c>
@@ -7716,7 +7717,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>10</v>
       </c>
@@ -7733,7 +7734,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>42</v>
       </c>
@@ -7750,7 +7751,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>23</v>
       </c>
@@ -7767,7 +7768,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>15</v>
       </c>
@@ -7784,7 +7785,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>15</v>
       </c>
@@ -7801,7 +7802,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>15</v>
       </c>
@@ -7818,7 +7819,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>15</v>
       </c>
@@ -7835,7 +7836,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>15</v>
       </c>
@@ -7852,7 +7853,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>15</v>
       </c>
@@ -7869,7 +7870,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>16</v>
       </c>
@@ -7886,7 +7887,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>24</v>
       </c>
@@ -7903,7 +7904,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>11</v>
       </c>
@@ -7920,7 +7921,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>43</v>
       </c>
@@ -7937,7 +7938,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
         <v>30</v>
       </c>
@@ -7951,7 +7952,7 @@
         <v>818.5</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B451" t="s">
         <v>18</v>
       </c>
@@ -7965,7 +7966,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B452" t="s">
         <v>47</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>97.28</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B453" t="s">
         <v>26</v>
       </c>
@@ -7993,7 +7994,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
         <v>55</v>
       </c>
@@ -8007,7 +8008,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
         <v>56</v>
       </c>
@@ -8021,7 +8022,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>20</v>
       </c>
@@ -8035,7 +8036,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>12</v>
       </c>
@@ -8052,7 +8053,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>12</v>
       </c>
@@ -8069,7 +8070,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>10</v>
       </c>
@@ -8086,7 +8087,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>42</v>
       </c>
@@ -8103,7 +8104,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>23</v>
       </c>
@@ -8120,7 +8121,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>14</v>
       </c>
@@ -8137,7 +8138,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>14</v>
       </c>
@@ -8154,7 +8155,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>14</v>
       </c>
@@ -8171,7 +8172,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>14</v>
       </c>
@@ -8188,7 +8189,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>57</v>
       </c>
@@ -8205,7 +8206,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>57</v>
       </c>
@@ -8222,7 +8223,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>57</v>
       </c>
@@ -8239,7 +8240,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>57</v>
       </c>
@@ -8256,7 +8257,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>16</v>
       </c>
@@ -8273,7 +8274,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>22</v>
       </c>
@@ -8290,7 +8291,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>24</v>
       </c>
@@ -8307,7 +8308,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B473" t="s">
         <v>26</v>
       </c>
@@ -8321,7 +8322,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B474" t="s">
         <v>19</v>
       </c>
@@ -8335,7 +8336,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B475" t="s">
         <v>18</v>
       </c>
@@ -8349,7 +8350,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B476" t="s">
         <v>30</v>
       </c>
@@ -8363,7 +8364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B477" t="s">
         <v>30</v>
       </c>
@@ -8377,7 +8378,7 @@
         <v>776.5</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B478" t="s">
         <v>19</v>
       </c>
@@ -8391,7 +8392,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>12</v>
       </c>
@@ -8408,7 +8409,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>12</v>
       </c>
@@ -8425,7 +8426,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>10</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>42</v>
       </c>
@@ -8459,7 +8460,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>57</v>
       </c>
@@ -8476,7 +8477,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>22</v>
       </c>
@@ -8493,7 +8494,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>23</v>
       </c>
@@ -8510,7 +8511,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>16</v>
       </c>
@@ -8527,7 +8528,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>43</v>
       </c>
@@ -8544,7 +8545,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>43</v>
       </c>
@@ -8561,7 +8562,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B489" t="s">
         <v>30</v>
       </c>
@@ -8575,7 +8576,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B490" t="s">
         <v>30</v>
       </c>
@@ -8589,7 +8590,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B491" t="s">
         <v>18</v>
       </c>
@@ -8603,7 +8604,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B492" t="s">
         <v>19</v>
       </c>
@@ -8617,7 +8618,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B493" t="s">
         <v>26</v>
       </c>
@@ -8631,7 +8632,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>20</v>
       </c>
@@ -8645,7 +8646,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>20</v>
       </c>
@@ -8659,7 +8660,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>12</v>
       </c>
@@ -8676,7 +8677,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>12</v>
       </c>
@@ -8693,7 +8694,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>11</v>
       </c>
@@ -8710,7 +8711,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>11</v>
       </c>
@@ -8727,7 +8728,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>11</v>
       </c>
@@ -8744,7 +8745,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>10</v>
       </c>
@@ -8761,7 +8762,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>22</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>42</v>
       </c>
@@ -8795,7 +8796,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>57</v>
       </c>
@@ -8812,7 +8813,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>23</v>
       </c>
@@ -8829,7 +8830,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>16</v>
       </c>
@@ -8846,7 +8847,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>24</v>
       </c>
@@ -8863,7 +8864,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>43</v>
       </c>
@@ -8880,7 +8881,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B509" t="s">
         <v>26</v>
       </c>
@@ -8894,7 +8895,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B510" t="s">
         <v>19</v>
       </c>
@@ -8908,7 +8909,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B511" t="s">
         <v>51</v>
       </c>
@@ -8922,7 +8923,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B512" t="s">
         <v>18</v>
       </c>
@@ -8936,7 +8937,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B513" t="s">
         <v>30</v>
       </c>
@@ -8950,7 +8951,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B514" t="s">
         <v>51</v>
       </c>
@@ -8964,7 +8965,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>20</v>
       </c>
@@ -8978,7 +8979,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>14</v>
       </c>
@@ -8995,7 +8996,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>14</v>
       </c>
@@ -9012,7 +9013,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>42</v>
       </c>
@@ -9029,7 +9030,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>22</v>
       </c>
@@ -9046,7 +9047,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>22</v>
       </c>
@@ -9063,7 +9064,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>22</v>
       </c>
@@ -9080,7 +9081,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>24</v>
       </c>
@@ -9097,7 +9098,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B523" t="s">
         <v>58</v>
       </c>
@@ -9111,7 +9112,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B524" t="s">
         <v>58</v>
       </c>
@@ -9125,7 +9126,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B525" t="s">
         <v>58</v>
       </c>
@@ -9139,7 +9140,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B526" t="s">
         <v>58</v>
       </c>
@@ -9153,7 +9154,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B527" t="s">
         <v>58</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B528" t="s">
         <v>58</v>
       </c>
@@ -9181,7 +9182,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B529" t="s">
         <v>58</v>
       </c>
@@ -9195,7 +9196,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B530" t="s">
         <v>58</v>
       </c>
@@ -9209,7 +9210,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B531" t="s">
         <v>58</v>
       </c>
@@ -9223,7 +9224,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B532" t="s">
         <v>58</v>
       </c>
@@ -9237,7 +9238,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B533" t="s">
         <v>58</v>
       </c>
@@ -9251,7 +9252,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B534" t="s">
         <v>58</v>
       </c>
@@ -9265,7 +9266,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B535" t="s">
         <v>59</v>
       </c>
@@ -9279,7 +9280,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B536" t="s">
         <v>60</v>
       </c>
@@ -11439,7 +11440,7 @@
         <v>2023</v>
       </c>
       <c r="D670" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G670">
         <v>1250</v>
@@ -11473,8 +11474,48 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>12</v>
+      </c>
+      <c r="C673">
+        <v>2023</v>
+      </c>
+      <c r="D673" t="s">
+        <v>72</v>
+      </c>
+      <c r="E673">
+        <v>12</v>
+      </c>
+      <c r="F673">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>12</v>
+      </c>
+      <c r="C674">
+        <v>2023</v>
+      </c>
+      <c r="D674" t="s">
+        <v>72</v>
+      </c>
+      <c r="E674">
+        <v>13</v>
+      </c>
+      <c r="F674">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I558" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I672" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2023"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/hesaptakip.xlsx
+++ b/hesaptakip.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yucel\Desktop\melikkent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATASCIENCE\GITHUB\melikkenthesap\melikkenthesap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F482754-332A-4331-AA04-3A32EFBA5D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D5517-6710-4011-8F68-93CBCEA1748C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,6 +305,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;₺&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,19 +409,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -430,6 +420,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -773,17 +776,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I674"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E544" sqref="E544"/>
+    <sheetView tabSelected="1" topLeftCell="A663" workbookViewId="0">
+      <selection activeCell="F660" sqref="F660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -799,19 +803,19 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9766,10 +9770,10 @@
       <c r="D537" t="s">
         <v>62</v>
       </c>
-      <c r="F537" s="6">
+      <c r="F537" s="11">
         <v>-2965.04</v>
       </c>
-      <c r="H537" s="6">
+      <c r="H537" s="11">
         <v>30546.02</v>
       </c>
     </row>
@@ -9784,15 +9788,15 @@
       <c r="D538" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E538" s="12">
+      <c r="E538" s="7">
         <v>12</v>
       </c>
-      <c r="F538" s="7">
+      <c r="F538" s="12">
         <v>300</v>
       </c>
-      <c r="G538" s="8"/>
-      <c r="H538" s="8"/>
-      <c r="I538" s="8"/>
+      <c r="G538" s="13"/>
+      <c r="H538" s="13"/>
+      <c r="I538" s="13"/>
     </row>
     <row r="539" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
@@ -9805,15 +9809,15 @@
       <c r="D539" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E539" s="12">
+      <c r="E539" s="7">
         <v>13</v>
       </c>
-      <c r="F539" s="7">
+      <c r="F539" s="12">
         <v>300</v>
       </c>
-      <c r="G539" s="8"/>
-      <c r="H539" s="8"/>
-      <c r="I539" s="8"/>
+      <c r="G539" s="13"/>
+      <c r="H539" s="13"/>
+      <c r="I539" s="13"/>
     </row>
     <row r="540" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A540" s="3"/>
@@ -9826,13 +9830,13 @@
       <c r="D540" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E540" s="12"/>
-      <c r="F540" s="7"/>
-      <c r="G540" s="7">
+      <c r="E540" s="7"/>
+      <c r="F540" s="12"/>
+      <c r="G540" s="12">
         <v>400</v>
       </c>
-      <c r="H540" s="8"/>
-      <c r="I540" s="8"/>
+      <c r="H540" s="13"/>
+      <c r="I540" s="13"/>
     </row>
     <row r="541" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A541" s="3"/>
@@ -9845,13 +9849,13 @@
       <c r="D541" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E541" s="13"/>
-      <c r="F541" s="8"/>
-      <c r="G541" s="7" t="s">
+      <c r="E541" s="8"/>
+      <c r="F541" s="13"/>
+      <c r="G541" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H541" s="8"/>
-      <c r="I541" s="8"/>
+      <c r="H541" s="13"/>
+      <c r="I541" s="13"/>
     </row>
     <row r="542" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A542" s="3" t="s">
@@ -9864,15 +9868,15 @@
       <c r="D542" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E542" s="12">
+      <c r="E542" s="7">
         <v>3</v>
       </c>
-      <c r="F542" s="7">
+      <c r="F542" s="12">
         <v>300</v>
       </c>
-      <c r="G542" s="8"/>
-      <c r="H542" s="8"/>
-      <c r="I542" s="8"/>
+      <c r="G542" s="13"/>
+      <c r="H542" s="13"/>
+      <c r="I542" s="13"/>
     </row>
     <row r="543" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A543" s="3" t="s">
@@ -9885,15 +9889,15 @@
       <c r="D543" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E543" s="12">
+      <c r="E543" s="7">
         <v>9</v>
       </c>
-      <c r="F543" s="7">
+      <c r="F543" s="12">
         <v>300</v>
       </c>
-      <c r="G543" s="8"/>
-      <c r="H543" s="8"/>
-      <c r="I543" s="8"/>
+      <c r="G543" s="13"/>
+      <c r="H543" s="13"/>
+      <c r="I543" s="13"/>
     </row>
     <row r="544" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A544" s="3" t="s">
@@ -9906,15 +9910,15 @@
       <c r="D544" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E544" s="12">
+      <c r="E544" s="7">
         <v>4</v>
       </c>
-      <c r="F544" s="7">
+      <c r="F544" s="12">
         <v>300</v>
       </c>
-      <c r="G544" s="8"/>
-      <c r="H544" s="8"/>
-      <c r="I544" s="8"/>
+      <c r="G544" s="13"/>
+      <c r="H544" s="13"/>
+      <c r="I544" s="13"/>
     </row>
     <row r="545" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A545" s="3" t="s">
@@ -9927,15 +9931,15 @@
       <c r="D545" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E545" s="12">
+      <c r="E545" s="7">
         <v>10</v>
       </c>
-      <c r="F545" s="7">
+      <c r="F545" s="12">
         <v>300</v>
       </c>
-      <c r="G545" s="8"/>
-      <c r="H545" s="8"/>
-      <c r="I545" s="8"/>
+      <c r="G545" s="13"/>
+      <c r="H545" s="13"/>
+      <c r="I545" s="13"/>
     </row>
     <row r="546" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A546" s="3" t="s">
@@ -9948,15 +9952,15 @@
       <c r="D546" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E546" s="12">
+      <c r="E546" s="7">
         <v>6</v>
       </c>
-      <c r="F546" s="7">
+      <c r="F546" s="12">
         <v>300</v>
       </c>
-      <c r="G546" s="8"/>
-      <c r="H546" s="8"/>
-      <c r="I546" s="8"/>
+      <c r="G546" s="13"/>
+      <c r="H546" s="13"/>
+      <c r="I546" s="13"/>
     </row>
     <row r="547" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A547" s="3" t="s">
@@ -9969,15 +9973,15 @@
       <c r="D547" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E547" s="12">
+      <c r="E547" s="7">
         <v>15</v>
       </c>
-      <c r="F547" s="7">
+      <c r="F547" s="12">
         <v>300</v>
       </c>
-      <c r="G547" s="8"/>
-      <c r="H547" s="8"/>
-      <c r="I547" s="8"/>
+      <c r="G547" s="13"/>
+      <c r="H547" s="13"/>
+      <c r="I547" s="13"/>
     </row>
     <row r="548" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A548" s="3" t="s">
@@ -9990,15 +9994,15 @@
       <c r="D548" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E548" s="12">
+      <c r="E548" s="7">
         <v>15</v>
       </c>
-      <c r="F548" s="7">
+      <c r="F548" s="12">
         <v>300</v>
       </c>
-      <c r="G548" s="8"/>
-      <c r="H548" s="7"/>
-      <c r="I548" s="8"/>
+      <c r="G548" s="13"/>
+      <c r="H548" s="12"/>
+      <c r="I548" s="13"/>
     </row>
     <row r="549" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A549" s="3" t="s">
@@ -10011,15 +10015,15 @@
       <c r="D549" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E549" s="12">
+      <c r="E549" s="7">
         <v>15</v>
       </c>
-      <c r="F549" s="7">
+      <c r="F549" s="12">
         <v>300</v>
       </c>
-      <c r="G549" s="8"/>
-      <c r="H549" s="7"/>
-      <c r="I549" s="8"/>
+      <c r="G549" s="13"/>
+      <c r="H549" s="12"/>
+      <c r="I549" s="13"/>
     </row>
     <row r="550" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A550" s="3" t="s">
@@ -10032,15 +10036,15 @@
       <c r="D550" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E550" s="12">
+      <c r="E550" s="7">
         <v>15</v>
       </c>
-      <c r="F550" s="7">
+      <c r="F550" s="12">
         <v>300</v>
       </c>
-      <c r="G550" s="8"/>
-      <c r="H550" s="7"/>
-      <c r="I550" s="8"/>
+      <c r="G550" s="13"/>
+      <c r="H550" s="12"/>
+      <c r="I550" s="13"/>
     </row>
     <row r="551" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A551" s="3" t="s">
@@ -10053,15 +10057,15 @@
       <c r="D551" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E551" s="12">
+      <c r="E551" s="7">
         <v>15</v>
       </c>
-      <c r="F551" s="7">
+      <c r="F551" s="12">
         <v>300</v>
       </c>
-      <c r="G551" s="8"/>
-      <c r="H551" s="7"/>
-      <c r="I551" s="8"/>
+      <c r="G551" s="13"/>
+      <c r="H551" s="12"/>
+      <c r="I551" s="13"/>
     </row>
     <row r="552" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A552" s="3" t="s">
@@ -10074,15 +10078,15 @@
       <c r="D552" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E552" s="12">
+      <c r="E552" s="7">
         <v>15</v>
       </c>
-      <c r="F552" s="7">
+      <c r="F552" s="12">
         <v>300</v>
       </c>
-      <c r="G552" s="8"/>
-      <c r="H552" s="8"/>
-      <c r="I552" s="8"/>
+      <c r="G552" s="13"/>
+      <c r="H552" s="13"/>
+      <c r="I552" s="13"/>
     </row>
     <row r="553" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A553" s="3" t="s">
@@ -10095,15 +10099,15 @@
       <c r="D553" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E553" s="12">
+      <c r="E553" s="7">
         <v>14</v>
       </c>
-      <c r="F553" s="7">
+      <c r="F553" s="12">
         <v>300</v>
       </c>
-      <c r="G553" s="8"/>
-      <c r="H553" s="8"/>
-      <c r="I553" s="8"/>
+      <c r="G553" s="13"/>
+      <c r="H553" s="13"/>
+      <c r="I553" s="13"/>
     </row>
     <row r="554" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A554" s="3" t="s">
@@ -10116,15 +10120,15 @@
       <c r="D554" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E554" s="12">
+      <c r="E554" s="7">
         <v>16</v>
       </c>
-      <c r="F554" s="7">
+      <c r="F554" s="12">
         <v>400</v>
       </c>
-      <c r="G554" s="7"/>
-      <c r="H554" s="8"/>
-      <c r="I554" s="8"/>
+      <c r="G554" s="12"/>
+      <c r="H554" s="13"/>
+      <c r="I554" s="13"/>
     </row>
     <row r="555" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A555" s="3" t="s">
@@ -10137,13 +10141,13 @@
       <c r="D555" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E555" s="13"/>
-      <c r="F555" s="8"/>
-      <c r="G555" s="7"/>
-      <c r="H555" s="7">
+      <c r="E555" s="8"/>
+      <c r="F555" s="13"/>
+      <c r="G555" s="12"/>
+      <c r="H555" s="12">
         <v>2500</v>
       </c>
-      <c r="I555" s="8"/>
+      <c r="I555" s="13"/>
     </row>
     <row r="556" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A556" s="3" t="s">
@@ -10156,15 +10160,15 @@
       <c r="D556" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E556" s="12">
+      <c r="E556" s="7">
         <v>7</v>
       </c>
-      <c r="F556" s="7">
+      <c r="F556" s="12">
         <v>300</v>
       </c>
-      <c r="G556" s="7"/>
-      <c r="H556" s="8"/>
-      <c r="I556" s="8"/>
+      <c r="G556" s="12"/>
+      <c r="H556" s="13"/>
+      <c r="I556" s="13"/>
     </row>
     <row r="557" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A557" s="3"/>
@@ -10177,13 +10181,13 @@
       <c r="D557" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E557" s="13"/>
-      <c r="F557" s="8"/>
-      <c r="G557" s="7">
+      <c r="E557" s="8"/>
+      <c r="F557" s="13"/>
+      <c r="G557" s="12">
         <v>800</v>
       </c>
-      <c r="H557" s="8"/>
-      <c r="I557" s="8"/>
+      <c r="H557" s="13"/>
+      <c r="I557" s="13"/>
     </row>
     <row r="558" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A558" s="3"/>
@@ -10196,13 +10200,13 @@
       <c r="D558" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E558" s="12"/>
-      <c r="F558" s="7"/>
-      <c r="G558" s="7">
+      <c r="E558" s="7"/>
+      <c r="F558" s="12"/>
+      <c r="G558" s="12">
         <v>1250</v>
       </c>
-      <c r="H558" s="8"/>
-      <c r="I558" s="8"/>
+      <c r="H558" s="13"/>
+      <c r="I558" s="13"/>
     </row>
     <row r="559" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A559" s="3"/>
@@ -10215,13 +10219,13 @@
       <c r="D559" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E559" s="12"/>
-      <c r="F559" s="7"/>
-      <c r="G559" s="7">
+      <c r="E559" s="7"/>
+      <c r="F559" s="12"/>
+      <c r="G559" s="12">
         <v>200</v>
       </c>
-      <c r="H559" s="8"/>
-      <c r="I559" s="8"/>
+      <c r="H559" s="13"/>
+      <c r="I559" s="13"/>
     </row>
     <row r="560" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A560" s="3"/>
@@ -10234,13 +10238,13 @@
       <c r="D560" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E560" s="12"/>
-      <c r="F560" s="7"/>
-      <c r="G560" s="7">
+      <c r="E560" s="7"/>
+      <c r="F560" s="12"/>
+      <c r="G560" s="12">
         <v>375</v>
       </c>
-      <c r="H560" s="8"/>
-      <c r="I560" s="8"/>
+      <c r="H560" s="13"/>
+      <c r="I560" s="13"/>
     </row>
     <row r="561" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A561" s="3" t="s">
@@ -10253,13 +10257,13 @@
       <c r="D561" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E561" s="13"/>
-      <c r="F561" s="7">
-        <v>43435</v>
-      </c>
-      <c r="G561" s="7"/>
-      <c r="H561" s="8"/>
-      <c r="I561" s="8"/>
+      <c r="E561" s="8"/>
+      <c r="F561" s="12">
+        <v>12.18</v>
+      </c>
+      <c r="G561" s="12"/>
+      <c r="H561" s="13"/>
+      <c r="I561" s="13"/>
     </row>
     <row r="562" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A562" s="3" t="s">
@@ -10272,15 +10276,15 @@
       <c r="D562" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E562" s="12">
+      <c r="E562" s="7">
         <v>3</v>
       </c>
-      <c r="F562" s="7">
+      <c r="F562" s="12">
         <v>300</v>
       </c>
-      <c r="G562" s="8"/>
-      <c r="H562" s="8"/>
-      <c r="I562" s="8"/>
+      <c r="G562" s="13"/>
+      <c r="H562" s="13"/>
+      <c r="I562" s="13"/>
     </row>
     <row r="563" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A563" s="3" t="s">
@@ -10293,15 +10297,15 @@
       <c r="D563" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E563" s="12">
+      <c r="E563" s="7">
         <v>10</v>
       </c>
-      <c r="F563" s="7">
+      <c r="F563" s="12">
         <v>300</v>
       </c>
-      <c r="G563" s="7"/>
-      <c r="H563" s="8"/>
-      <c r="I563" s="8"/>
+      <c r="G563" s="12"/>
+      <c r="H563" s="13"/>
+      <c r="I563" s="13"/>
     </row>
     <row r="564" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A564" s="3" t="s">
@@ -10314,15 +10318,15 @@
       <c r="D564" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E564" s="12">
+      <c r="E564" s="7">
         <v>9</v>
       </c>
-      <c r="F564" s="7">
+      <c r="F564" s="12">
         <v>300</v>
       </c>
-      <c r="G564" s="8"/>
-      <c r="H564" s="8"/>
-      <c r="I564" s="8"/>
+      <c r="G564" s="13"/>
+      <c r="H564" s="13"/>
+      <c r="I564" s="13"/>
     </row>
     <row r="565" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A565" s="3" t="s">
@@ -10335,15 +10339,15 @@
       <c r="D565" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E565" s="12">
+      <c r="E565" s="7">
         <v>12</v>
       </c>
-      <c r="F565" s="7">
+      <c r="F565" s="12">
         <v>300</v>
       </c>
-      <c r="G565" s="8"/>
-      <c r="H565" s="8"/>
-      <c r="I565" s="8"/>
+      <c r="G565" s="13"/>
+      <c r="H565" s="13"/>
+      <c r="I565" s="13"/>
     </row>
     <row r="566" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A566" s="3" t="s">
@@ -10356,15 +10360,15 @@
       <c r="D566" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E566" s="12">
+      <c r="E566" s="7">
         <v>13</v>
       </c>
-      <c r="F566" s="7">
+      <c r="F566" s="12">
         <v>300</v>
       </c>
-      <c r="G566" s="8"/>
-      <c r="H566" s="8"/>
-      <c r="I566" s="8"/>
+      <c r="G566" s="13"/>
+      <c r="H566" s="13"/>
+      <c r="I566" s="13"/>
     </row>
     <row r="567" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A567" s="3"/>
@@ -10377,13 +10381,13 @@
       <c r="D567" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E567" s="12"/>
-      <c r="F567" s="7"/>
-      <c r="G567" s="7">
+      <c r="E567" s="7"/>
+      <c r="F567" s="12"/>
+      <c r="G567" s="12">
         <v>162</v>
       </c>
-      <c r="H567" s="8"/>
-      <c r="I567" s="8"/>
+      <c r="H567" s="13"/>
+      <c r="I567" s="13"/>
     </row>
     <row r="568" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A568" s="3" t="s">
@@ -10396,15 +10400,15 @@
       <c r="D568" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E568" s="12">
+      <c r="E568" s="7">
         <v>4</v>
       </c>
-      <c r="F568" s="7">
+      <c r="F568" s="12">
         <v>300</v>
       </c>
-      <c r="G568" s="8"/>
-      <c r="H568" s="8"/>
-      <c r="I568" s="8"/>
+      <c r="G568" s="13"/>
+      <c r="H568" s="13"/>
+      <c r="I568" s="13"/>
     </row>
     <row r="569" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A569" s="3" t="s">
@@ -10417,13 +10421,13 @@
       <c r="D569" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E569" s="12"/>
-      <c r="F569" s="7">
+      <c r="E569" s="7"/>
+      <c r="F569" s="12">
         <v>300</v>
       </c>
-      <c r="G569" s="8"/>
-      <c r="H569" s="8"/>
-      <c r="I569" s="8"/>
+      <c r="G569" s="13"/>
+      <c r="H569" s="13"/>
+      <c r="I569" s="13"/>
     </row>
     <row r="570" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A570" s="3" t="s">
@@ -10436,13 +10440,13 @@
       <c r="D570" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E570" s="12"/>
-      <c r="F570" s="7">
+      <c r="E570" s="7"/>
+      <c r="F570" s="12">
         <v>300</v>
       </c>
-      <c r="G570" s="8"/>
-      <c r="H570" s="8"/>
-      <c r="I570" s="8"/>
+      <c r="G570" s="13"/>
+      <c r="H570" s="13"/>
+      <c r="I570" s="13"/>
     </row>
     <row r="571" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A571" s="3" t="s">
@@ -10455,15 +10459,15 @@
       <c r="D571" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E571" s="12">
+      <c r="E571" s="7">
         <v>14</v>
       </c>
-      <c r="F571" s="7">
+      <c r="F571" s="12">
         <v>300</v>
       </c>
-      <c r="G571" s="8"/>
-      <c r="H571" s="8"/>
-      <c r="I571" s="8"/>
+      <c r="G571" s="13"/>
+      <c r="H571" s="13"/>
+      <c r="I571" s="13"/>
     </row>
     <row r="572" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A572" s="3" t="s">
@@ -10476,15 +10480,15 @@
       <c r="D572" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E572" s="12">
+      <c r="E572" s="7">
         <v>7</v>
       </c>
-      <c r="F572" s="7">
+      <c r="F572" s="12">
         <v>300</v>
       </c>
-      <c r="G572" s="8"/>
-      <c r="H572" s="7"/>
-      <c r="I572" s="8"/>
+      <c r="G572" s="13"/>
+      <c r="H572" s="12"/>
+      <c r="I572" s="13"/>
     </row>
     <row r="573" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A573" s="3" t="s">
@@ -10497,15 +10501,15 @@
       <c r="D573" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E573" s="12">
+      <c r="E573" s="7">
         <v>16</v>
       </c>
-      <c r="F573" s="7">
+      <c r="F573" s="12">
         <v>400</v>
       </c>
-      <c r="G573" s="8"/>
-      <c r="H573" s="8"/>
-      <c r="I573" s="8"/>
+      <c r="G573" s="13"/>
+      <c r="H573" s="13"/>
+      <c r="I573" s="13"/>
     </row>
     <row r="574" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A574" s="3" t="s">
@@ -10518,13 +10522,13 @@
       <c r="D574" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E574" s="13"/>
-      <c r="F574" s="8"/>
-      <c r="G574" s="7"/>
-      <c r="H574" s="7">
+      <c r="E574" s="8"/>
+      <c r="F574" s="13"/>
+      <c r="G574" s="12"/>
+      <c r="H574" s="12">
         <v>2500</v>
       </c>
-      <c r="I574" s="8"/>
+      <c r="I574" s="13"/>
     </row>
     <row r="575" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A575" s="3"/>
@@ -10537,13 +10541,13 @@
       <c r="D575" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E575" s="12"/>
-      <c r="F575" s="7"/>
-      <c r="G575" s="7">
+      <c r="E575" s="7"/>
+      <c r="F575" s="12"/>
+      <c r="G575" s="12">
         <v>803</v>
       </c>
-      <c r="H575" s="8"/>
-      <c r="I575" s="8"/>
+      <c r="H575" s="13"/>
+      <c r="I575" s="13"/>
     </row>
     <row r="576" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A576" s="3" t="s">
@@ -10556,15 +10560,15 @@
       <c r="D576" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E576" s="12">
+      <c r="E576" s="7">
         <v>1</v>
       </c>
-      <c r="F576" s="7">
+      <c r="F576" s="12">
         <v>300</v>
       </c>
-      <c r="G576" s="7"/>
-      <c r="H576" s="8"/>
-      <c r="I576" s="8"/>
+      <c r="G576" s="12"/>
+      <c r="H576" s="13"/>
+      <c r="I576" s="13"/>
     </row>
     <row r="577" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A577" s="3" t="s">
@@ -10577,15 +10581,15 @@
       <c r="D577" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E577" s="12">
+      <c r="E577" s="7">
         <v>1</v>
       </c>
-      <c r="F577" s="7">
+      <c r="F577" s="12">
         <v>300</v>
       </c>
-      <c r="G577" s="7"/>
-      <c r="H577" s="8"/>
-      <c r="I577" s="8"/>
+      <c r="G577" s="12"/>
+      <c r="H577" s="13"/>
+      <c r="I577" s="13"/>
     </row>
     <row r="578" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A578" s="3" t="s">
@@ -10598,13 +10602,13 @@
       <c r="D578" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E578" s="13"/>
-      <c r="F578" s="7" t="s">
+      <c r="E578" s="8"/>
+      <c r="F578" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G578" s="7"/>
-      <c r="H578" s="8"/>
-      <c r="I578" s="8"/>
+      <c r="G578" s="12"/>
+      <c r="H578" s="13"/>
+      <c r="I578" s="13"/>
     </row>
     <row r="579" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A579" s="3"/>
@@ -10617,13 +10621,13 @@
       <c r="D579" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E579" s="13"/>
-      <c r="F579" s="8"/>
-      <c r="G579" s="7">
+      <c r="E579" s="8"/>
+      <c r="F579" s="13"/>
+      <c r="G579" s="12">
         <v>1250</v>
       </c>
-      <c r="H579" s="8"/>
-      <c r="I579" s="8"/>
+      <c r="H579" s="13"/>
+      <c r="I579" s="13"/>
     </row>
     <row r="580" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A580" s="3" t="s">
@@ -10636,15 +10640,15 @@
       <c r="D580" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E580" s="12">
+      <c r="E580" s="7">
         <v>12</v>
       </c>
-      <c r="F580" s="7">
+      <c r="F580" s="12">
         <v>300</v>
       </c>
-      <c r="G580" s="8"/>
-      <c r="H580" s="8"/>
-      <c r="I580" s="8"/>
+      <c r="G580" s="13"/>
+      <c r="H580" s="13"/>
+      <c r="I580" s="13"/>
     </row>
     <row r="581" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A581" s="3" t="s">
@@ -10657,15 +10661,15 @@
       <c r="D581" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E581" s="12">
+      <c r="E581" s="7">
         <v>13</v>
       </c>
-      <c r="F581" s="7">
+      <c r="F581" s="12">
         <v>300</v>
       </c>
-      <c r="G581" s="8"/>
-      <c r="H581" s="8"/>
-      <c r="I581" s="8"/>
+      <c r="G581" s="13"/>
+      <c r="H581" s="13"/>
+      <c r="I581" s="13"/>
     </row>
     <row r="582" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A582" s="3"/>
@@ -10678,13 +10682,13 @@
       <c r="D582" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E582" s="13"/>
-      <c r="F582" s="8"/>
-      <c r="G582" s="7">
+      <c r="E582" s="8"/>
+      <c r="F582" s="13"/>
+      <c r="G582" s="12">
         <v>261</v>
       </c>
-      <c r="H582" s="8"/>
-      <c r="I582" s="8"/>
+      <c r="H582" s="13"/>
+      <c r="I582" s="13"/>
     </row>
     <row r="583" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A583" s="3" t="s">
@@ -10697,15 +10701,15 @@
       <c r="D583" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E583" s="12">
+      <c r="E583" s="7">
         <v>9</v>
       </c>
-      <c r="F583" s="7">
+      <c r="F583" s="12">
         <v>300</v>
       </c>
-      <c r="G583" s="8"/>
-      <c r="H583" s="8"/>
-      <c r="I583" s="8"/>
+      <c r="G583" s="13"/>
+      <c r="H583" s="13"/>
+      <c r="I583" s="13"/>
     </row>
     <row r="584" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A584" s="3" t="s">
@@ -10718,15 +10722,15 @@
       <c r="D584" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E584" s="12">
+      <c r="E584" s="7">
         <v>3</v>
       </c>
-      <c r="F584" s="7">
+      <c r="F584" s="12">
         <v>300</v>
       </c>
-      <c r="G584" s="8"/>
-      <c r="H584" s="8"/>
-      <c r="I584" s="8"/>
+      <c r="G584" s="13"/>
+      <c r="H584" s="13"/>
+      <c r="I584" s="13"/>
     </row>
     <row r="585" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A585" s="3" t="s">
@@ -10739,15 +10743,15 @@
       <c r="D585" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E585" s="12">
+      <c r="E585" s="7">
         <v>4</v>
       </c>
-      <c r="F585" s="7">
+      <c r="F585" s="12">
         <v>300</v>
       </c>
-      <c r="G585" s="8"/>
-      <c r="H585" s="8"/>
-      <c r="I585" s="8"/>
+      <c r="G585" s="13"/>
+      <c r="H585" s="13"/>
+      <c r="I585" s="13"/>
     </row>
     <row r="586" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A586" s="3" t="s">
@@ -10760,15 +10764,15 @@
       <c r="D586" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E586" s="12">
+      <c r="E586" s="7">
         <v>10</v>
       </c>
-      <c r="F586" s="7">
+      <c r="F586" s="12">
         <v>300</v>
       </c>
-      <c r="G586" s="8"/>
-      <c r="H586" s="8"/>
-      <c r="I586" s="8"/>
+      <c r="G586" s="13"/>
+      <c r="H586" s="13"/>
+      <c r="I586" s="13"/>
     </row>
     <row r="587" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A587" s="3" t="s">
@@ -10781,15 +10785,15 @@
       <c r="D587" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E587" s="12">
+      <c r="E587" s="7">
         <v>14</v>
       </c>
-      <c r="F587" s="7">
+      <c r="F587" s="12">
         <v>300</v>
       </c>
-      <c r="G587" s="8"/>
-      <c r="H587" s="8"/>
-      <c r="I587" s="8"/>
+      <c r="G587" s="13"/>
+      <c r="H587" s="13"/>
+      <c r="I587" s="13"/>
     </row>
     <row r="588" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A588" s="3" t="s">
@@ -10802,15 +10806,15 @@
       <c r="D588" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E588" s="12">
+      <c r="E588" s="7">
         <v>16</v>
       </c>
-      <c r="F588" s="7">
+      <c r="F588" s="12">
         <v>400</v>
       </c>
-      <c r="G588" s="8"/>
-      <c r="H588" s="8"/>
-      <c r="I588" s="8"/>
+      <c r="G588" s="13"/>
+      <c r="H588" s="13"/>
+      <c r="I588" s="13"/>
     </row>
     <row r="589" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A589" s="3" t="s">
@@ -10823,13 +10827,13 @@
       <c r="D589" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E589" s="12"/>
-      <c r="F589" s="7"/>
-      <c r="G589" s="8"/>
-      <c r="H589" s="7">
+      <c r="E589" s="7"/>
+      <c r="F589" s="12"/>
+      <c r="G589" s="13"/>
+      <c r="H589" s="12">
         <v>2500</v>
       </c>
-      <c r="I589" s="8"/>
+      <c r="I589" s="13"/>
     </row>
     <row r="590" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A590" s="3" t="s">
@@ -10842,15 +10846,15 @@
       <c r="D590" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E590" s="12">
+      <c r="E590" s="7">
         <v>7</v>
       </c>
-      <c r="F590" s="7">
+      <c r="F590" s="12">
         <v>300</v>
       </c>
-      <c r="G590" s="8"/>
-      <c r="H590" s="8"/>
-      <c r="I590" s="8"/>
+      <c r="G590" s="13"/>
+      <c r="H590" s="13"/>
+      <c r="I590" s="13"/>
     </row>
     <row r="591" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A591" s="3"/>
@@ -10863,13 +10867,13 @@
       <c r="D591" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E591" s="12"/>
-      <c r="F591" s="7"/>
-      <c r="G591" s="7">
+      <c r="E591" s="7"/>
+      <c r="F591" s="12"/>
+      <c r="G591" s="12">
         <v>729</v>
       </c>
-      <c r="H591" s="8"/>
-      <c r="I591" s="8"/>
+      <c r="H591" s="13"/>
+      <c r="I591" s="13"/>
     </row>
     <row r="592" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A592" s="3" t="s">
@@ -10882,15 +10886,15 @@
       <c r="D592" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E592" s="12">
+      <c r="E592" s="7">
         <v>1</v>
       </c>
-      <c r="F592" s="7">
+      <c r="F592" s="12">
         <v>300</v>
       </c>
-      <c r="G592" s="8"/>
-      <c r="H592" s="8"/>
-      <c r="I592" s="8"/>
+      <c r="G592" s="13"/>
+      <c r="H592" s="13"/>
+      <c r="I592" s="13"/>
     </row>
     <row r="593" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A593" s="3" t="s">
@@ -10903,13 +10907,13 @@
       <c r="D593" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E593" s="13"/>
-      <c r="F593" s="7" t="s">
+      <c r="E593" s="8"/>
+      <c r="F593" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G593" s="7"/>
-      <c r="H593" s="8"/>
-      <c r="I593" s="8"/>
+      <c r="G593" s="12"/>
+      <c r="H593" s="13"/>
+      <c r="I593" s="13"/>
     </row>
     <row r="594" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A594" s="3"/>
@@ -10922,13 +10926,13 @@
       <c r="D594" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E594" s="12"/>
-      <c r="F594" s="7"/>
-      <c r="G594" s="7">
+      <c r="E594" s="7"/>
+      <c r="F594" s="12"/>
+      <c r="G594" s="12">
         <v>1250</v>
       </c>
-      <c r="H594" s="8"/>
-      <c r="I594" s="8"/>
+      <c r="H594" s="13"/>
+      <c r="I594" s="13"/>
     </row>
     <row r="595" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A595" s="3"/>
@@ -10941,13 +10945,13 @@
       <c r="D595" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E595" s="13"/>
-      <c r="F595" s="8"/>
-      <c r="G595" s="7">
+      <c r="E595" s="8"/>
+      <c r="F595" s="13"/>
+      <c r="G595" s="12">
         <v>200</v>
       </c>
-      <c r="H595" s="8"/>
-      <c r="I595" s="8"/>
+      <c r="H595" s="13"/>
+      <c r="I595" s="13"/>
     </row>
     <row r="596" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A596" s="3"/>
@@ -10960,13 +10964,13 @@
       <c r="D596" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E596" s="12"/>
-      <c r="F596" s="7"/>
-      <c r="G596" s="7">
+      <c r="E596" s="7"/>
+      <c r="F596" s="12"/>
+      <c r="G596" s="12">
         <v>200</v>
       </c>
-      <c r="H596" s="8"/>
-      <c r="I596" s="8"/>
+      <c r="H596" s="13"/>
+      <c r="I596" s="13"/>
     </row>
     <row r="597" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A597" s="3" t="s">
@@ -10979,15 +10983,15 @@
       <c r="D597" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E597" s="12">
+      <c r="E597" s="7">
         <v>12</v>
       </c>
-      <c r="F597" s="7">
+      <c r="F597" s="12">
         <v>300</v>
       </c>
-      <c r="G597" s="8"/>
-      <c r="H597" s="7"/>
-      <c r="I597" s="8"/>
+      <c r="G597" s="13"/>
+      <c r="H597" s="12"/>
+      <c r="I597" s="13"/>
     </row>
     <row r="598" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A598" s="3" t="s">
@@ -11000,15 +11004,15 @@
       <c r="D598" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E598" s="12">
+      <c r="E598" s="7">
         <v>13</v>
       </c>
-      <c r="F598" s="7">
+      <c r="F598" s="12">
         <v>300</v>
       </c>
-      <c r="G598" s="7"/>
-      <c r="H598" s="8"/>
-      <c r="I598" s="8"/>
+      <c r="G598" s="12"/>
+      <c r="H598" s="13"/>
+      <c r="I598" s="13"/>
     </row>
     <row r="599" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A599" s="3"/>
@@ -11021,13 +11025,13 @@
       <c r="D599" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E599" s="13"/>
-      <c r="F599" s="8"/>
-      <c r="G599" s="7" t="s">
+      <c r="E599" s="8"/>
+      <c r="F599" s="13"/>
+      <c r="G599" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H599" s="8"/>
-      <c r="I599" s="8"/>
+      <c r="H599" s="13"/>
+      <c r="I599" s="13"/>
     </row>
     <row r="600" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A600" s="3" t="s">
@@ -11040,15 +11044,15 @@
       <c r="D600" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E600" s="12">
+      <c r="E600" s="7">
         <v>9</v>
       </c>
-      <c r="F600" s="7">
+      <c r="F600" s="12">
         <v>300</v>
       </c>
-      <c r="G600" s="7"/>
-      <c r="H600" s="8"/>
-      <c r="I600" s="8"/>
+      <c r="G600" s="12"/>
+      <c r="H600" s="13"/>
+      <c r="I600" s="13"/>
     </row>
     <row r="601" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A601" s="3" t="s">
@@ -11061,15 +11065,15 @@
       <c r="D601" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E601" s="12">
+      <c r="E601" s="7">
         <v>3</v>
       </c>
-      <c r="F601" s="7">
+      <c r="F601" s="12">
         <v>300</v>
       </c>
-      <c r="G601" s="8"/>
-      <c r="H601" s="8"/>
-      <c r="I601" s="8"/>
+      <c r="G601" s="13"/>
+      <c r="H601" s="13"/>
+      <c r="I601" s="13"/>
     </row>
     <row r="602" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A602" s="3" t="s">
@@ -11082,15 +11086,15 @@
       <c r="D602" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E602" s="12">
+      <c r="E602" s="7">
         <v>4</v>
       </c>
-      <c r="F602" s="7">
+      <c r="F602" s="12">
         <v>300</v>
       </c>
-      <c r="G602" s="8"/>
-      <c r="H602" s="8"/>
-      <c r="I602" s="8"/>
+      <c r="G602" s="13"/>
+      <c r="H602" s="13"/>
+      <c r="I602" s="13"/>
     </row>
     <row r="603" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A603" s="3" t="s">
@@ -11103,15 +11107,15 @@
       <c r="D603" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E603" s="12">
+      <c r="E603" s="7">
         <v>8</v>
       </c>
-      <c r="F603" s="7">
+      <c r="F603" s="12">
         <v>300</v>
       </c>
-      <c r="G603" s="7"/>
-      <c r="H603" s="8"/>
-      <c r="I603" s="8"/>
+      <c r="G603" s="12"/>
+      <c r="H603" s="13"/>
+      <c r="I603" s="13"/>
     </row>
     <row r="604" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A604" s="3" t="s">
@@ -11124,15 +11128,15 @@
       <c r="D604" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E604" s="12">
+      <c r="E604" s="7">
         <v>8</v>
       </c>
-      <c r="F604" s="7">
+      <c r="F604" s="12">
         <v>300</v>
       </c>
-      <c r="G604" s="8"/>
-      <c r="H604" s="8"/>
-      <c r="I604" s="8"/>
+      <c r="G604" s="13"/>
+      <c r="H604" s="13"/>
+      <c r="I604" s="13"/>
     </row>
     <row r="605" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A605" s="3" t="s">
@@ -11145,15 +11149,15 @@
       <c r="D605" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E605" s="12">
+      <c r="E605" s="7">
         <v>8</v>
       </c>
-      <c r="F605" s="7">
+      <c r="F605" s="12">
         <v>300</v>
       </c>
-      <c r="G605" s="8"/>
-      <c r="H605" s="8"/>
-      <c r="I605" s="8"/>
+      <c r="G605" s="13"/>
+      <c r="H605" s="13"/>
+      <c r="I605" s="13"/>
     </row>
     <row r="606" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A606" s="3" t="s">
@@ -11166,15 +11170,15 @@
       <c r="D606" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E606" s="12">
+      <c r="E606" s="7">
         <v>8</v>
       </c>
-      <c r="F606" s="7">
+      <c r="F606" s="12">
         <v>300</v>
       </c>
-      <c r="G606" s="8"/>
-      <c r="H606" s="8"/>
-      <c r="I606" s="8"/>
+      <c r="G606" s="13"/>
+      <c r="H606" s="13"/>
+      <c r="I606" s="13"/>
     </row>
     <row r="607" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A607" s="3" t="s">
@@ -11187,15 +11191,15 @@
       <c r="D607" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E607" s="12">
+      <c r="E607" s="7">
         <v>8</v>
       </c>
-      <c r="F607" s="7">
+      <c r="F607" s="12">
         <v>300</v>
       </c>
-      <c r="G607" s="8"/>
-      <c r="H607" s="8"/>
-      <c r="I607" s="8"/>
+      <c r="G607" s="13"/>
+      <c r="H607" s="13"/>
+      <c r="I607" s="13"/>
     </row>
     <row r="608" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A608" s="3" t="s">
@@ -11208,15 +11212,15 @@
       <c r="D608" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E608" s="12">
+      <c r="E608" s="7">
         <v>7</v>
       </c>
-      <c r="F608" s="7">
+      <c r="F608" s="12">
         <v>300</v>
       </c>
-      <c r="G608" s="8"/>
-      <c r="H608" s="8"/>
-      <c r="I608" s="8"/>
+      <c r="G608" s="13"/>
+      <c r="H608" s="13"/>
+      <c r="I608" s="13"/>
     </row>
     <row r="609" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A609" s="3" t="s">
@@ -11229,15 +11233,15 @@
       <c r="D609" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E609" s="12">
+      <c r="E609" s="7">
         <v>10</v>
       </c>
-      <c r="F609" s="7">
+      <c r="F609" s="12">
         <v>300</v>
       </c>
-      <c r="G609" s="8"/>
-      <c r="H609" s="8"/>
-      <c r="I609" s="8"/>
+      <c r="G609" s="13"/>
+      <c r="H609" s="13"/>
+      <c r="I609" s="13"/>
     </row>
     <row r="610" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A610" s="3"/>
@@ -11250,13 +11254,13 @@
       <c r="D610" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E610" s="12"/>
-      <c r="F610" s="7"/>
-      <c r="G610" s="7">
+      <c r="E610" s="7"/>
+      <c r="F610" s="12"/>
+      <c r="G610" s="12">
         <v>200</v>
       </c>
-      <c r="H610" s="8"/>
-      <c r="I610" s="8"/>
+      <c r="H610" s="13"/>
+      <c r="I610" s="13"/>
     </row>
     <row r="611" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A611" s="3" t="s">
@@ -11269,15 +11273,15 @@
       <c r="D611" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E611" s="12">
+      <c r="E611" s="7">
         <v>14</v>
       </c>
-      <c r="F611" s="7">
+      <c r="F611" s="12">
         <v>300</v>
       </c>
-      <c r="G611" s="8"/>
-      <c r="H611" s="8"/>
-      <c r="I611" s="8"/>
+      <c r="G611" s="13"/>
+      <c r="H611" s="13"/>
+      <c r="I611" s="13"/>
     </row>
     <row r="612" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A612" s="3"/>
@@ -11290,13 +11294,13 @@
       <c r="D612" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E612" s="12"/>
-      <c r="F612" s="7"/>
-      <c r="G612" s="7">
+      <c r="E612" s="7"/>
+      <c r="F612" s="12"/>
+      <c r="G612" s="12">
         <v>641</v>
       </c>
-      <c r="H612" s="8"/>
-      <c r="I612" s="8"/>
+      <c r="H612" s="13"/>
+      <c r="I612" s="13"/>
     </row>
     <row r="613" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A613" s="3" t="s">
@@ -11309,15 +11313,15 @@
       <c r="D613" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E613" s="12">
+      <c r="E613" s="7">
         <v>16</v>
       </c>
-      <c r="F613" s="7">
+      <c r="F613" s="12">
         <v>400</v>
       </c>
-      <c r="G613" s="8"/>
-      <c r="H613" s="8"/>
-      <c r="I613" s="8"/>
+      <c r="G613" s="13"/>
+      <c r="H613" s="13"/>
+      <c r="I613" s="13"/>
     </row>
     <row r="614" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A614" s="3" t="s">
@@ -11330,13 +11334,13 @@
       <c r="D614" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E614" s="13"/>
-      <c r="F614" s="8"/>
-      <c r="G614" s="8"/>
-      <c r="H614" s="7">
+      <c r="E614" s="8"/>
+      <c r="F614" s="13"/>
+      <c r="G614" s="13"/>
+      <c r="H614" s="12">
         <v>2500</v>
       </c>
-      <c r="I614" s="8"/>
+      <c r="I614" s="13"/>
     </row>
     <row r="615" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A615" s="3" t="s">
@@ -11349,13 +11353,13 @@
       <c r="D615" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E615" s="13"/>
-      <c r="F615" s="7" t="s">
+      <c r="E615" s="8"/>
+      <c r="F615" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G615" s="7"/>
-      <c r="H615" s="8"/>
-      <c r="I615" s="8"/>
+      <c r="G615" s="12"/>
+      <c r="H615" s="13"/>
+      <c r="I615" s="13"/>
     </row>
     <row r="616" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A616" s="3"/>
@@ -11368,13 +11372,13 @@
       <c r="D616" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E616" s="12"/>
-      <c r="F616" s="7"/>
-      <c r="G616" s="7">
+      <c r="E616" s="7"/>
+      <c r="F616" s="12"/>
+      <c r="G616" s="12">
         <v>1250</v>
       </c>
-      <c r="H616" s="8"/>
-      <c r="I616" s="8"/>
+      <c r="H616" s="13"/>
+      <c r="I616" s="13"/>
     </row>
     <row r="617" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A617" s="3"/>
@@ -11387,13 +11391,13 @@
       <c r="D617" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E617" s="13"/>
-      <c r="F617" s="8"/>
-      <c r="G617" s="7">
+      <c r="E617" s="8"/>
+      <c r="F617" s="13"/>
+      <c r="G617" s="12">
         <v>200</v>
       </c>
-      <c r="H617" s="8"/>
-      <c r="I617" s="8"/>
+      <c r="H617" s="13"/>
+      <c r="I617" s="13"/>
     </row>
     <row r="618" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A618" s="3"/>
@@ -11406,13 +11410,13 @@
       <c r="D618" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E618" s="12"/>
-      <c r="F618" s="7"/>
-      <c r="G618" s="7">
+      <c r="E618" s="7"/>
+      <c r="F618" s="12"/>
+      <c r="G618" s="12">
         <v>275</v>
       </c>
-      <c r="H618" s="8"/>
-      <c r="I618" s="8"/>
+      <c r="H618" s="13"/>
+      <c r="I618" s="13"/>
     </row>
     <row r="619" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A619" s="3" t="s">
@@ -11425,15 +11429,15 @@
       <c r="D619" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E619" s="12">
+      <c r="E619" s="7">
         <v>12</v>
       </c>
-      <c r="F619" s="7">
+      <c r="F619" s="12">
         <v>300</v>
       </c>
-      <c r="G619" s="8"/>
-      <c r="H619" s="8"/>
-      <c r="I619" s="8"/>
+      <c r="G619" s="13"/>
+      <c r="H619" s="13"/>
+      <c r="I619" s="13"/>
     </row>
     <row r="620" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A620" s="3" t="s">
@@ -11446,15 +11450,15 @@
       <c r="D620" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E620" s="12">
+      <c r="E620" s="7">
         <v>13</v>
       </c>
-      <c r="F620" s="7">
+      <c r="F620" s="12">
         <v>300</v>
       </c>
-      <c r="G620" s="7"/>
-      <c r="H620" s="8"/>
-      <c r="I620" s="8"/>
+      <c r="G620" s="12"/>
+      <c r="H620" s="13"/>
+      <c r="I620" s="13"/>
     </row>
     <row r="621" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A621" s="3"/>
@@ -11467,13 +11471,13 @@
       <c r="D621" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E621" s="12"/>
-      <c r="F621" s="7"/>
-      <c r="G621" s="7">
+      <c r="E621" s="7"/>
+      <c r="F621" s="12"/>
+      <c r="G621" s="12">
         <v>75</v>
       </c>
-      <c r="H621" s="8"/>
-      <c r="I621" s="8"/>
+      <c r="H621" s="13"/>
+      <c r="I621" s="13"/>
     </row>
     <row r="622" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A622" s="3" t="s">
@@ -11486,15 +11490,15 @@
       <c r="D622" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E622" s="12">
+      <c r="E622" s="7">
         <v>9</v>
       </c>
-      <c r="F622" s="7">
+      <c r="F622" s="12">
         <v>300</v>
       </c>
-      <c r="G622" s="8"/>
-      <c r="H622" s="8"/>
-      <c r="I622" s="8"/>
+      <c r="G622" s="13"/>
+      <c r="H622" s="13"/>
+      <c r="I622" s="13"/>
     </row>
     <row r="623" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A623" s="3" t="s">
@@ -11507,15 +11511,15 @@
       <c r="D623" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E623" s="12">
+      <c r="E623" s="7">
         <v>10</v>
       </c>
-      <c r="F623" s="7">
+      <c r="F623" s="12">
         <v>300</v>
       </c>
-      <c r="G623" s="8"/>
-      <c r="H623" s="8"/>
-      <c r="I623" s="8"/>
+      <c r="G623" s="13"/>
+      <c r="H623" s="13"/>
+      <c r="I623" s="13"/>
     </row>
     <row r="624" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A624" s="3" t="s">
@@ -11528,15 +11532,15 @@
       <c r="D624" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E624" s="12">
+      <c r="E624" s="7">
         <v>3</v>
       </c>
-      <c r="F624" s="7">
+      <c r="F624" s="12">
         <v>300</v>
       </c>
-      <c r="G624" s="7"/>
-      <c r="H624" s="8"/>
-      <c r="I624" s="8"/>
+      <c r="G624" s="12"/>
+      <c r="H624" s="13"/>
+      <c r="I624" s="13"/>
     </row>
     <row r="625" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A625" s="3" t="s">
@@ -11549,15 +11553,15 @@
       <c r="D625" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E625" s="12">
+      <c r="E625" s="7">
         <v>4</v>
       </c>
-      <c r="F625" s="7">
+      <c r="F625" s="12">
         <v>300</v>
       </c>
-      <c r="G625" s="8"/>
-      <c r="H625" s="8"/>
-      <c r="I625" s="7"/>
+      <c r="G625" s="13"/>
+      <c r="H625" s="13"/>
+      <c r="I625" s="12"/>
     </row>
     <row r="626" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A626" s="3" t="s">
@@ -11570,15 +11574,15 @@
       <c r="D626" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E626" s="12">
+      <c r="E626" s="7">
         <v>14</v>
       </c>
-      <c r="F626" s="7">
+      <c r="F626" s="12">
         <v>300</v>
       </c>
-      <c r="G626" s="7"/>
-      <c r="H626" s="8"/>
-      <c r="I626" s="8"/>
+      <c r="G626" s="12"/>
+      <c r="H626" s="13"/>
+      <c r="I626" s="13"/>
     </row>
     <row r="627" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A627" s="3" t="s">
@@ -11591,15 +11595,15 @@
       <c r="D627" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E627" s="12">
+      <c r="E627" s="7">
         <v>16</v>
       </c>
-      <c r="F627" s="7">
+      <c r="F627" s="12">
         <v>400</v>
       </c>
-      <c r="G627" s="8"/>
-      <c r="H627" s="8"/>
-      <c r="I627" s="8"/>
+      <c r="G627" s="13"/>
+      <c r="H627" s="13"/>
+      <c r="I627" s="13"/>
     </row>
     <row r="628" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A628" s="3" t="s">
@@ -11612,13 +11616,13 @@
       <c r="D628" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E628" s="12"/>
-      <c r="F628" s="8"/>
-      <c r="G628" s="8"/>
-      <c r="H628" s="7">
+      <c r="E628" s="7"/>
+      <c r="F628" s="13"/>
+      <c r="G628" s="13"/>
+      <c r="H628" s="12">
         <v>2500</v>
       </c>
-      <c r="I628" s="8"/>
+      <c r="I628" s="13"/>
     </row>
     <row r="629" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A629" s="3" t="s">
@@ -11631,15 +11635,15 @@
       <c r="D629" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E629" s="12">
+      <c r="E629" s="7">
         <v>7</v>
       </c>
-      <c r="F629" s="7">
+      <c r="F629" s="12">
         <v>300</v>
       </c>
-      <c r="G629" s="8"/>
-      <c r="H629" s="8"/>
-      <c r="I629" s="7"/>
+      <c r="G629" s="13"/>
+      <c r="H629" s="13"/>
+      <c r="I629" s="12"/>
     </row>
     <row r="630" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A630" s="3"/>
@@ -11652,13 +11656,13 @@
       <c r="D630" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E630" s="13"/>
-      <c r="F630" s="8"/>
-      <c r="G630" s="7">
+      <c r="E630" s="8"/>
+      <c r="F630" s="13"/>
+      <c r="G630" s="12">
         <v>564</v>
       </c>
-      <c r="H630" s="8"/>
-      <c r="I630" s="8"/>
+      <c r="H630" s="13"/>
+      <c r="I630" s="13"/>
     </row>
     <row r="631" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A631" s="3" t="s">
@@ -11671,13 +11675,13 @@
       <c r="D631" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E631" s="13"/>
-      <c r="F631" s="7" t="s">
+      <c r="E631" s="8"/>
+      <c r="F631" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G631" s="7"/>
-      <c r="H631" s="8"/>
-      <c r="I631" s="8"/>
+      <c r="G631" s="12"/>
+      <c r="H631" s="13"/>
+      <c r="I631" s="13"/>
     </row>
     <row r="632" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A632" s="3"/>
@@ -11690,13 +11694,13 @@
       <c r="D632" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E632" s="13"/>
-      <c r="F632" s="8"/>
-      <c r="G632" s="7">
+      <c r="E632" s="8"/>
+      <c r="F632" s="13"/>
+      <c r="G632" s="12">
         <v>1250</v>
       </c>
-      <c r="H632" s="8"/>
-      <c r="I632" s="8"/>
+      <c r="H632" s="13"/>
+      <c r="I632" s="13"/>
     </row>
     <row r="633" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A633" s="3" t="s">
@@ -11709,15 +11713,15 @@
       <c r="D633" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E633" s="12">
+      <c r="E633" s="7">
         <v>12</v>
       </c>
-      <c r="F633" s="7">
+      <c r="F633" s="12">
         <v>400</v>
       </c>
-      <c r="G633" s="8"/>
-      <c r="H633" s="8"/>
-      <c r="I633" s="8"/>
+      <c r="G633" s="13"/>
+      <c r="H633" s="13"/>
+      <c r="I633" s="13"/>
     </row>
     <row r="634" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A634" s="3" t="s">
@@ -11730,15 +11734,15 @@
       <c r="D634" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E634" s="12">
+      <c r="E634" s="7">
         <v>13</v>
       </c>
-      <c r="F634" s="7">
+      <c r="F634" s="12">
         <v>400</v>
       </c>
-      <c r="G634" s="8"/>
-      <c r="H634" s="8"/>
-      <c r="I634" s="8"/>
+      <c r="G634" s="13"/>
+      <c r="H634" s="13"/>
+      <c r="I634" s="13"/>
     </row>
     <row r="635" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A635" s="3"/>
@@ -11751,13 +11755,13 @@
       <c r="D635" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E635" s="12"/>
-      <c r="F635" s="7"/>
-      <c r="G635" s="7">
+      <c r="E635" s="7"/>
+      <c r="F635" s="12"/>
+      <c r="G635" s="12">
         <v>268</v>
       </c>
-      <c r="H635" s="8"/>
-      <c r="I635" s="8"/>
+      <c r="H635" s="13"/>
+      <c r="I635" s="13"/>
     </row>
     <row r="636" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A636" s="3" t="s">
@@ -11770,15 +11774,15 @@
       <c r="D636" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E636" s="12">
+      <c r="E636" s="7">
         <v>10</v>
       </c>
-      <c r="F636" s="7">
+      <c r="F636" s="12">
         <v>300</v>
       </c>
-      <c r="G636" s="8"/>
-      <c r="H636" s="8"/>
-      <c r="I636" s="8"/>
+      <c r="G636" s="13"/>
+      <c r="H636" s="13"/>
+      <c r="I636" s="13"/>
     </row>
     <row r="637" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A637" s="3" t="s">
@@ -11791,15 +11795,15 @@
       <c r="D637" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E637" s="12">
+      <c r="E637" s="7">
         <v>3</v>
       </c>
-      <c r="F637" s="7">
+      <c r="F637" s="12">
         <v>300</v>
       </c>
-      <c r="G637" s="8"/>
-      <c r="H637" s="8"/>
-      <c r="I637" s="8"/>
+      <c r="G637" s="13"/>
+      <c r="H637" s="13"/>
+      <c r="I637" s="13"/>
     </row>
     <row r="638" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A638" s="3" t="s">
@@ -11812,15 +11816,15 @@
       <c r="D638" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E638" s="12">
+      <c r="E638" s="7">
         <v>7</v>
       </c>
-      <c r="F638" s="7">
+      <c r="F638" s="12">
         <v>300</v>
       </c>
-      <c r="G638" s="8"/>
-      <c r="H638" s="8"/>
-      <c r="I638" s="8"/>
+      <c r="G638" s="13"/>
+      <c r="H638" s="13"/>
+      <c r="I638" s="13"/>
     </row>
     <row r="639" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A639" s="3"/>
@@ -11833,13 +11837,13 @@
       <c r="D639" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E639" s="12"/>
-      <c r="F639" s="7"/>
-      <c r="G639" s="7">
+      <c r="E639" s="7"/>
+      <c r="F639" s="12"/>
+      <c r="G639" s="12">
         <v>600</v>
       </c>
-      <c r="H639" s="8"/>
-      <c r="I639" s="8"/>
+      <c r="H639" s="13"/>
+      <c r="I639" s="13"/>
     </row>
     <row r="640" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A640" s="3"/>
@@ -11852,11 +11856,11 @@
       <c r="D640" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E640" s="12"/>
-      <c r="F640" s="8"/>
-      <c r="G640" s="8"/>
-      <c r="H640" s="7"/>
-      <c r="I640" s="7">
+      <c r="E640" s="7"/>
+      <c r="F640" s="13"/>
+      <c r="G640" s="13"/>
+      <c r="H640" s="12"/>
+      <c r="I640" s="12">
         <v>6650</v>
       </c>
     </row>
@@ -11871,13 +11875,13 @@
       <c r="D641" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E641" s="13"/>
-      <c r="F641" s="8"/>
-      <c r="G641" s="7">
+      <c r="E641" s="8"/>
+      <c r="F641" s="13"/>
+      <c r="G641" s="12">
         <v>457</v>
       </c>
-      <c r="H641" s="8"/>
-      <c r="I641" s="8"/>
+      <c r="H641" s="13"/>
+      <c r="I641" s="13"/>
     </row>
     <row r="642" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A642" s="3" t="s">
@@ -11890,15 +11894,15 @@
       <c r="D642" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E642" s="12">
+      <c r="E642" s="7">
         <v>16</v>
       </c>
-      <c r="F642" s="7">
+      <c r="F642" s="12">
         <v>400</v>
       </c>
-      <c r="G642" s="7"/>
-      <c r="H642" s="8"/>
-      <c r="I642" s="8"/>
+      <c r="G642" s="12"/>
+      <c r="H642" s="13"/>
+      <c r="I642" s="13"/>
     </row>
     <row r="643" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A643" s="3" t="s">
@@ -11911,13 +11915,13 @@
       <c r="D643" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E643" s="13"/>
-      <c r="F643" s="8"/>
-      <c r="G643" s="7"/>
-      <c r="H643" s="7">
+      <c r="E643" s="8"/>
+      <c r="F643" s="13"/>
+      <c r="G643" s="12"/>
+      <c r="H643" s="12">
         <v>2500</v>
       </c>
-      <c r="I643" s="8"/>
+      <c r="I643" s="13"/>
     </row>
     <row r="644" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A644" s="3"/>
@@ -11930,11 +11934,11 @@
       <c r="D644" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E644" s="13"/>
-      <c r="F644" s="8"/>
-      <c r="G644" s="7"/>
-      <c r="H644" s="8"/>
-      <c r="I644" s="7">
+      <c r="E644" s="8"/>
+      <c r="F644" s="13"/>
+      <c r="G644" s="12"/>
+      <c r="H644" s="13"/>
+      <c r="I644" s="12">
         <v>1857</v>
       </c>
     </row>
@@ -11949,13 +11953,13 @@
       <c r="D645" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E645" s="13"/>
-      <c r="F645" s="7" t="s">
+      <c r="E645" s="8"/>
+      <c r="F645" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G645" s="7"/>
-      <c r="H645" s="8"/>
-      <c r="I645" s="8"/>
+      <c r="G645" s="12"/>
+      <c r="H645" s="13"/>
+      <c r="I645" s="13"/>
     </row>
     <row r="646" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A646" s="3"/>
@@ -11968,13 +11972,13 @@
       <c r="D646" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E646" s="13"/>
-      <c r="F646" s="8"/>
-      <c r="G646" s="7">
+      <c r="E646" s="8"/>
+      <c r="F646" s="13"/>
+      <c r="G646" s="12">
         <v>1250</v>
       </c>
-      <c r="H646" s="8"/>
-      <c r="I646" s="8"/>
+      <c r="H646" s="13"/>
+      <c r="I646" s="13"/>
     </row>
     <row r="647" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A647" s="3"/>
@@ -11987,13 +11991,13 @@
       <c r="D647" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E647" s="12"/>
-      <c r="F647" s="7"/>
-      <c r="G647" s="7">
+      <c r="E647" s="7"/>
+      <c r="F647" s="12"/>
+      <c r="G647" s="12">
         <v>41</v>
       </c>
-      <c r="H647" s="8"/>
-      <c r="I647" s="8"/>
+      <c r="H647" s="13"/>
+      <c r="I647" s="13"/>
     </row>
     <row r="648" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A648" s="3"/>
@@ -12006,13 +12010,13 @@
       <c r="D648" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E648" s="12"/>
-      <c r="F648" s="7"/>
-      <c r="G648" s="7">
+      <c r="E648" s="7"/>
+      <c r="F648" s="12"/>
+      <c r="G648" s="12">
         <v>721</v>
       </c>
-      <c r="H648" s="8"/>
-      <c r="I648" s="8"/>
+      <c r="H648" s="13"/>
+      <c r="I648" s="13"/>
     </row>
     <row r="649" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A649" s="3" t="s">
@@ -12025,15 +12029,15 @@
       <c r="D649" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E649" s="12">
+      <c r="E649" s="7">
         <v>12</v>
       </c>
-      <c r="F649" s="7">
+      <c r="F649" s="12">
         <v>300</v>
       </c>
-      <c r="G649" s="7"/>
-      <c r="H649" s="8"/>
-      <c r="I649" s="8"/>
+      <c r="G649" s="12"/>
+      <c r="H649" s="13"/>
+      <c r="I649" s="13"/>
     </row>
     <row r="650" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A650" s="3" t="s">
@@ -12046,15 +12050,15 @@
       <c r="D650" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E650" s="12">
+      <c r="E650" s="7">
         <v>13</v>
       </c>
-      <c r="F650" s="7">
+      <c r="F650" s="12">
         <v>300</v>
       </c>
-      <c r="G650" s="7"/>
-      <c r="H650" s="8"/>
-      <c r="I650" s="8"/>
+      <c r="G650" s="12"/>
+      <c r="H650" s="13"/>
+      <c r="I650" s="13"/>
     </row>
     <row r="651" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A651" s="3" t="s">
@@ -12067,15 +12071,15 @@
       <c r="D651" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E651" s="12">
+      <c r="E651" s="7">
         <v>3</v>
       </c>
-      <c r="F651" s="7">
+      <c r="F651" s="12">
         <v>400</v>
       </c>
-      <c r="G651" s="8"/>
-      <c r="H651" s="8"/>
-      <c r="I651" s="8"/>
+      <c r="G651" s="13"/>
+      <c r="H651" s="13"/>
+      <c r="I651" s="13"/>
     </row>
     <row r="652" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A652" s="3" t="s">
@@ -12088,15 +12092,15 @@
       <c r="D652" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E652" s="12">
+      <c r="E652" s="7">
         <v>10</v>
       </c>
-      <c r="F652" s="7">
+      <c r="F652" s="12">
         <v>300</v>
       </c>
-      <c r="G652" s="8"/>
-      <c r="H652" s="8"/>
-      <c r="I652" s="8"/>
+      <c r="G652" s="13"/>
+      <c r="H652" s="13"/>
+      <c r="I652" s="13"/>
     </row>
     <row r="653" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A653" s="3" t="s">
@@ -12109,15 +12113,15 @@
       <c r="D653" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E653" s="12">
+      <c r="E653" s="7">
         <v>7</v>
       </c>
-      <c r="F653" s="7">
+      <c r="F653" s="12">
         <v>400</v>
       </c>
-      <c r="G653" s="8"/>
-      <c r="H653" s="8"/>
-      <c r="I653" s="8"/>
+      <c r="G653" s="13"/>
+      <c r="H653" s="13"/>
+      <c r="I653" s="13"/>
     </row>
     <row r="654" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A654" s="3" t="s">
@@ -12130,15 +12134,15 @@
       <c r="D654" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E654" s="12">
+      <c r="E654" s="7">
         <v>4</v>
       </c>
-      <c r="F654" s="7">
+      <c r="F654" s="12">
         <v>400</v>
       </c>
-      <c r="G654" s="8"/>
-      <c r="H654" s="8"/>
-      <c r="I654" s="8"/>
+      <c r="G654" s="13"/>
+      <c r="H654" s="13"/>
+      <c r="I654" s="13"/>
     </row>
     <row r="655" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A655" s="3" t="s">
@@ -12151,15 +12155,15 @@
       <c r="D655" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E655" s="12">
+      <c r="E655" s="7">
         <v>16</v>
       </c>
-      <c r="F655" s="7">
+      <c r="F655" s="12">
         <v>400</v>
       </c>
-      <c r="G655" s="8"/>
-      <c r="H655" s="8"/>
-      <c r="I655" s="7"/>
+      <c r="G655" s="13"/>
+      <c r="H655" s="13"/>
+      <c r="I655" s="12"/>
     </row>
     <row r="656" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A656" s="3" t="s">
@@ -12172,13 +12176,13 @@
       <c r="D656" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E656" s="12"/>
-      <c r="F656" s="7"/>
-      <c r="G656" s="8"/>
-      <c r="H656" s="7">
+      <c r="E656" s="7"/>
+      <c r="F656" s="12"/>
+      <c r="G656" s="13"/>
+      <c r="H656" s="12">
         <v>2500</v>
       </c>
-      <c r="I656" s="8"/>
+      <c r="I656" s="13"/>
     </row>
     <row r="657" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A657" s="3"/>
@@ -12191,13 +12195,13 @@
       <c r="D657" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E657" s="12"/>
-      <c r="F657" s="7"/>
-      <c r="G657" s="7">
+      <c r="E657" s="7"/>
+      <c r="F657" s="12"/>
+      <c r="G657" s="12">
         <v>558</v>
       </c>
-      <c r="H657" s="8"/>
-      <c r="I657" s="8"/>
+      <c r="H657" s="13"/>
+      <c r="I657" s="13"/>
     </row>
     <row r="658" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A658" s="3"/>
@@ -12210,13 +12214,13 @@
       <c r="D658" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E658" s="13"/>
-      <c r="F658" s="8"/>
-      <c r="G658" s="7">
+      <c r="E658" s="8"/>
+      <c r="F658" s="13"/>
+      <c r="G658" s="12">
         <v>1250</v>
       </c>
-      <c r="H658" s="8"/>
-      <c r="I658" s="8"/>
+      <c r="H658" s="13"/>
+      <c r="I658" s="13"/>
     </row>
     <row r="659" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A659" s="3" t="s">
@@ -12229,13 +12233,13 @@
       <c r="D659" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E659" s="12"/>
-      <c r="F659" s="7">
-        <v>45119</v>
-      </c>
-      <c r="G659" s="8"/>
-      <c r="H659" s="8"/>
-      <c r="I659" s="8"/>
+      <c r="E659" s="7"/>
+      <c r="F659" s="12">
+        <v>12.07</v>
+      </c>
+      <c r="G659" s="13"/>
+      <c r="H659" s="13"/>
+      <c r="I659" s="13"/>
     </row>
     <row r="660" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A660" s="3"/>
@@ -12248,13 +12252,13 @@
       <c r="D660" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E660" s="12"/>
-      <c r="F660" s="8"/>
-      <c r="G660" s="7">
+      <c r="E660" s="7"/>
+      <c r="F660" s="13"/>
+      <c r="G660" s="12">
         <v>1270</v>
       </c>
-      <c r="H660" s="7"/>
-      <c r="I660" s="8"/>
+      <c r="H660" s="12"/>
+      <c r="I660" s="13"/>
     </row>
     <row r="661" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A661" s="3"/>
@@ -12267,13 +12271,13 @@
       <c r="D661" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E661" s="13"/>
-      <c r="F661" s="8"/>
-      <c r="G661" s="7">
+      <c r="E661" s="8"/>
+      <c r="F661" s="13"/>
+      <c r="G661" s="12">
         <v>200</v>
       </c>
-      <c r="H661" s="8"/>
-      <c r="I661" s="8"/>
+      <c r="H661" s="13"/>
+      <c r="I661" s="13"/>
     </row>
     <row r="662" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A662" s="3"/>
@@ -12286,13 +12290,13 @@
       <c r="D662" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E662" s="13"/>
-      <c r="F662" s="8"/>
-      <c r="G662" s="7">
+      <c r="E662" s="8"/>
+      <c r="F662" s="13"/>
+      <c r="G662" s="12">
         <v>200</v>
       </c>
-      <c r="H662" s="8"/>
-      <c r="I662" s="8"/>
+      <c r="H662" s="13"/>
+      <c r="I662" s="13"/>
     </row>
     <row r="663" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A663" s="3"/>
@@ -12305,13 +12309,13 @@
       <c r="D663" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E663" s="13"/>
-      <c r="F663" s="8"/>
-      <c r="G663" s="7">
+      <c r="E663" s="8"/>
+      <c r="F663" s="13"/>
+      <c r="G663" s="12">
         <v>200</v>
       </c>
-      <c r="H663" s="8"/>
-      <c r="I663" s="8"/>
+      <c r="H663" s="13"/>
+      <c r="I663" s="13"/>
     </row>
     <row r="664" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A664" s="3" t="s">
@@ -12324,15 +12328,15 @@
       <c r="D664" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E664" s="12">
+      <c r="E664" s="7">
         <v>12</v>
       </c>
-      <c r="F664" s="7">
+      <c r="F664" s="12">
         <v>400</v>
       </c>
-      <c r="G664" s="8"/>
-      <c r="H664" s="8"/>
-      <c r="I664" s="8"/>
+      <c r="G664" s="13"/>
+      <c r="H664" s="13"/>
+      <c r="I664" s="13"/>
     </row>
     <row r="665" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A665" s="3" t="s">
@@ -12345,15 +12349,15 @@
       <c r="D665" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E665" s="12">
+      <c r="E665" s="7">
         <v>13</v>
       </c>
-      <c r="F665" s="7">
+      <c r="F665" s="12">
         <v>400</v>
       </c>
-      <c r="G665" s="8"/>
-      <c r="H665" s="8"/>
-      <c r="I665" s="8"/>
+      <c r="G665" s="13"/>
+      <c r="H665" s="13"/>
+      <c r="I665" s="13"/>
     </row>
     <row r="666" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A666" s="3"/>
@@ -12366,13 +12370,13 @@
       <c r="D666" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E666" s="13"/>
-      <c r="F666" s="8"/>
-      <c r="G666" s="9" t="s">
+      <c r="E666" s="8"/>
+      <c r="F666" s="13"/>
+      <c r="G666" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H666" s="8"/>
-      <c r="I666" s="8"/>
+      <c r="H666" s="13"/>
+      <c r="I666" s="13"/>
     </row>
     <row r="667" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A667" s="3"/>
@@ -12385,13 +12389,13 @@
       <c r="D667" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E667" s="13"/>
-      <c r="F667" s="8"/>
-      <c r="G667" s="9">
+      <c r="E667" s="8"/>
+      <c r="F667" s="13"/>
+      <c r="G667" s="14">
         <v>250</v>
       </c>
-      <c r="H667" s="8"/>
-      <c r="I667" s="8"/>
+      <c r="H667" s="13"/>
+      <c r="I667" s="13"/>
     </row>
     <row r="668" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A668" s="3" t="s">
@@ -12404,15 +12408,15 @@
       <c r="D668" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E668" s="14">
+      <c r="E668" s="9">
         <v>3</v>
       </c>
-      <c r="F668" s="9">
+      <c r="F668" s="14">
         <v>400</v>
       </c>
-      <c r="G668" s="8"/>
-      <c r="H668" s="8"/>
-      <c r="I668" s="8"/>
+      <c r="G668" s="13"/>
+      <c r="H668" s="13"/>
+      <c r="I668" s="13"/>
     </row>
     <row r="669" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A669" s="3" t="s">
@@ -12425,15 +12429,15 @@
       <c r="D669" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E669" s="14">
+      <c r="E669" s="9">
         <v>10</v>
       </c>
-      <c r="F669" s="9">
+      <c r="F669" s="14">
         <v>300</v>
       </c>
-      <c r="G669" s="8"/>
-      <c r="H669" s="8"/>
-      <c r="I669" s="8"/>
+      <c r="G669" s="13"/>
+      <c r="H669" s="13"/>
+      <c r="I669" s="13"/>
     </row>
     <row r="670" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A670" s="3" t="s">
@@ -12446,15 +12450,15 @@
       <c r="D670" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E670" s="14">
+      <c r="E670" s="9">
         <v>9</v>
       </c>
-      <c r="F670" s="9">
+      <c r="F670" s="14">
         <v>300</v>
       </c>
-      <c r="G670" s="8"/>
-      <c r="H670" s="8"/>
-      <c r="I670" s="8"/>
+      <c r="G670" s="13"/>
+      <c r="H670" s="13"/>
+      <c r="I670" s="13"/>
     </row>
     <row r="671" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A671" s="3" t="s">
@@ -12467,15 +12471,15 @@
       <c r="D671" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E671" s="14">
+      <c r="E671" s="9">
         <v>9</v>
       </c>
-      <c r="F671" s="9">
+      <c r="F671" s="14">
         <v>300</v>
       </c>
-      <c r="G671" s="8"/>
-      <c r="H671" s="8"/>
-      <c r="I671" s="8"/>
+      <c r="G671" s="13"/>
+      <c r="H671" s="13"/>
+      <c r="I671" s="13"/>
     </row>
     <row r="672" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A672" s="3"/>
@@ -12488,11 +12492,11 @@
       <c r="D672" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E672" s="13"/>
-      <c r="F672" s="8"/>
-      <c r="G672" s="8"/>
-      <c r="H672" s="8"/>
-      <c r="I672" s="9">
+      <c r="E672" s="8"/>
+      <c r="F672" s="13"/>
+      <c r="G672" s="13"/>
+      <c r="H672" s="13"/>
+      <c r="I672" s="14">
         <v>15000</v>
       </c>
     </row>
@@ -12507,15 +12511,15 @@
       <c r="D673" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E673" s="14">
+      <c r="E673" s="9">
         <v>4</v>
       </c>
-      <c r="F673" s="9">
+      <c r="F673" s="14">
         <v>400</v>
       </c>
-      <c r="G673" s="8"/>
-      <c r="H673" s="8"/>
-      <c r="I673" s="8"/>
+      <c r="G673" s="13"/>
+      <c r="H673" s="13"/>
+      <c r="I673" s="13"/>
     </row>
     <row r="674" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A674" s="3" t="s">
@@ -12528,15 +12532,15 @@
       <c r="D674" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E674" s="14">
+      <c r="E674" s="9">
         <v>7</v>
       </c>
-      <c r="F674" s="9">
+      <c r="F674" s="14">
         <v>400</v>
       </c>
-      <c r="G674" s="8"/>
-      <c r="H674" s="8"/>
-      <c r="I674" s="8"/>
+      <c r="G674" s="13"/>
+      <c r="H674" s="13"/>
+      <c r="I674" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I672" xr:uid="{00000000-0001-0000-0000-000000000000}">

--- a/hesaptakip.xlsx
+++ b/hesaptakip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATASCIENCE\GITHUB\melikkenthesap\melikkenthesap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D5517-6710-4011-8F68-93CBCEA1748C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922D0AA3-063C-491B-ABCE-406EAE9AA01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$672</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$674</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="84">
   <si>
     <t>GELİR NEDENİ</t>
   </si>
@@ -253,31 +253,13 @@
     <t>BAHÇE BAKIM BUDAMA BEDELİ</t>
   </si>
   <si>
-    <t>265.5</t>
-  </si>
-  <si>
     <t>HESAP İŞLETİM ÜCRETİ</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>269.5</t>
   </si>
   <si>
     <t>BAHÇE BAKIM YAKIT MALİYETİ</t>
   </si>
   <si>
-    <t>16.97</t>
-  </si>
-  <si>
     <t>BİNA BAKIM TEMİZLİK MALZEMESİ</t>
-  </si>
-  <si>
-    <t>69.96</t>
   </si>
   <si>
     <t>BİNA İLAÇLAMA</t>
@@ -287,12 +269,6 @@
   </si>
   <si>
     <t>BİNA GÜVENLİK KAMERASI YENİLEME</t>
-  </si>
-  <si>
-    <t>98.18</t>
-  </si>
-  <si>
-    <t>1352.5</t>
   </si>
   <si>
     <t>BİNA BAKIM TEMİZLİK MALZEMESİ KOVA</t>
@@ -776,8 +752,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A663" workbookViewId="0">
-      <selection activeCell="F660" sqref="F660"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G675" sqref="G675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9851,8 +9827,8 @@
       </c>
       <c r="E541" s="8"/>
       <c r="F541" s="13"/>
-      <c r="G541" s="12" t="s">
-        <v>76</v>
+      <c r="G541" s="12">
+        <v>265.5</v>
       </c>
       <c r="H541" s="13"/>
       <c r="I541" s="13"/>
@@ -10248,7 +10224,7 @@
     </row>
     <row r="561" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A561" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B561" s="3"/>
       <c r="C561" s="4">
@@ -10593,7 +10569,7 @@
     </row>
     <row r="578" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A578" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B578" s="3"/>
       <c r="C578" s="4">
@@ -10603,8 +10579,8 @@
         <v>62</v>
       </c>
       <c r="E578" s="8"/>
-      <c r="F578" s="12" t="s">
-        <v>78</v>
+      <c r="F578" s="12">
+        <v>0.56999999999999995</v>
       </c>
       <c r="G578" s="12"/>
       <c r="H578" s="13"/>
@@ -10898,7 +10874,7 @@
     </row>
     <row r="593" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A593" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B593" s="3"/>
       <c r="C593" s="4">
@@ -10908,8 +10884,8 @@
         <v>63</v>
       </c>
       <c r="E593" s="8"/>
-      <c r="F593" s="12" t="s">
-        <v>79</v>
+      <c r="F593" s="12">
+        <v>0.66</v>
       </c>
       <c r="G593" s="12"/>
       <c r="H593" s="13"/>
@@ -11027,8 +11003,8 @@
       </c>
       <c r="E599" s="8"/>
       <c r="F599" s="13"/>
-      <c r="G599" s="12" t="s">
-        <v>80</v>
+      <c r="G599" s="12">
+        <v>269.5</v>
       </c>
       <c r="H599" s="13"/>
       <c r="I599" s="13"/>
@@ -11246,7 +11222,7 @@
     <row r="610" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A610" s="3"/>
       <c r="B610" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C610" s="4">
         <v>2023</v>
@@ -11344,7 +11320,7 @@
     </row>
     <row r="615" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A615" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B615" s="3"/>
       <c r="C615" s="4">
@@ -11354,8 +11330,8 @@
         <v>67</v>
       </c>
       <c r="E615" s="8"/>
-      <c r="F615" s="12" t="s">
-        <v>82</v>
+      <c r="F615" s="12">
+        <v>16.97</v>
       </c>
       <c r="G615" s="12"/>
       <c r="H615" s="13"/>
@@ -11402,7 +11378,7 @@
     <row r="618" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A618" s="3"/>
       <c r="B618" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C618" s="4">
         <v>2023</v>
@@ -11666,7 +11642,7 @@
     </row>
     <row r="631" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A631" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B631" s="3"/>
       <c r="C631" s="4">
@@ -11676,8 +11652,8 @@
         <v>68</v>
       </c>
       <c r="E631" s="8"/>
-      <c r="F631" s="12" t="s">
-        <v>84</v>
+      <c r="F631" s="12">
+        <v>69.959999999999994</v>
       </c>
       <c r="G631" s="12"/>
       <c r="H631" s="13"/>
@@ -11829,7 +11805,7 @@
     <row r="639" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A639" s="3"/>
       <c r="B639" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C639" s="4">
         <v>2023</v>
@@ -11848,7 +11824,7 @@
     <row r="640" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A640" s="3"/>
       <c r="B640" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C640" s="4">
         <v>2023</v>
@@ -11926,7 +11902,7 @@
     <row r="644" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A644" s="3"/>
       <c r="B644" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C644" s="4">
         <v>2023</v>
@@ -11944,7 +11920,7 @@
     </row>
     <row r="645" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A645" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B645" s="3"/>
       <c r="C645" s="4">
@@ -11954,8 +11930,8 @@
         <v>69</v>
       </c>
       <c r="E645" s="8"/>
-      <c r="F645" s="12" t="s">
-        <v>88</v>
+      <c r="F645" s="12">
+        <v>98.18</v>
       </c>
       <c r="G645" s="12"/>
       <c r="H645" s="13"/>
@@ -12224,7 +12200,7 @@
     </row>
     <row r="659" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A659" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B659" s="3"/>
       <c r="C659" s="4">
@@ -12372,8 +12348,8 @@
       </c>
       <c r="E666" s="8"/>
       <c r="F666" s="13"/>
-      <c r="G666" s="14" t="s">
-        <v>89</v>
+      <c r="G666" s="14">
+        <v>1352.5</v>
       </c>
       <c r="H666" s="13"/>
       <c r="I666" s="13"/>
@@ -12381,7 +12357,7 @@
     <row r="667" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A667" s="3"/>
       <c r="B667" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C667" s="4">
         <v>2023</v>
@@ -12484,7 +12460,7 @@
     <row r="672" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A672" s="3"/>
       <c r="B672" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C672" s="4">
         <v>2023</v>
@@ -12543,7 +12519,7 @@
       <c r="I674" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I672" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:I674" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="2023"/>

--- a/hesaptakip.xlsx
+++ b/hesaptakip.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATASCIENCE\GITHUB\melikkenthesap\melikkenthesap\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yucel\Desktop\melikkent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922D0AA3-063C-491B-ABCE-406EAE9AA01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81F46B1-4F52-4822-B423-5ACEFB1AA699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$674</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="86">
   <si>
     <t>GELİR NEDENİ</t>
   </si>
@@ -276,14 +287,17 @@
   <si>
     <t>BİNA BAKIMI DOĞALGAZ TESİSAT YENİLEME</t>
   </si>
+  <si>
+    <t xml:space="preserve">NİSAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAZİRAN </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;₺&quot;#,##0.00"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -383,6 +397,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -398,17 +425,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -749,21 +770,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:I674"/>
+  <dimension ref="A1:J678"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G675" sqref="G675"/>
+    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
+      <selection activeCell="F679" sqref="F679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -779,23 +798,23 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -815,7 +834,7 @@
       </c>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -835,7 +854,7 @@
       <c r="H3"/>
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -855,7 +874,7 @@
       <c r="H4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -875,7 +894,7 @@
       <c r="H5"/>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -895,7 +914,7 @@
       <c r="H6"/>
       <c r="I6"/>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -915,7 +934,7 @@
       <c r="H7"/>
       <c r="I7"/>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -935,7 +954,7 @@
       <c r="H8"/>
       <c r="I8"/>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -955,7 +974,7 @@
       <c r="H9"/>
       <c r="I9"/>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -975,7 +994,7 @@
       <c r="H10"/>
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -995,7 +1014,7 @@
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1015,7 +1034,7 @@
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -1033,7 +1052,7 @@
       <c r="H13"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1051,7 +1070,7 @@
       <c r="H14"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1069,7 +1088,7 @@
       </c>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -1089,7 +1108,7 @@
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1106,7 +1125,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1123,7 +1142,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -1140,7 +1159,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1157,7 +1176,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1174,7 +1193,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1210,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1208,7 +1227,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1225,7 +1244,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1242,7 +1261,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1259,7 +1278,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1276,7 +1295,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1293,7 +1312,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1310,7 +1329,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1327,7 +1346,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>18</v>
       </c>
@@ -1341,7 +1360,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="32" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>19</v>
       </c>
@@ -1355,7 +1374,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>26</v>
       </c>
@@ -1369,7 +1388,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1386,7 +1405,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1403,7 +1422,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -1420,7 +1439,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1437,7 +1456,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1454,7 +1473,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1471,7 +1490,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -1488,7 +1507,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1505,7 +1524,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -1522,7 +1541,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -1539,7 +1558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -1556,7 +1575,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -1573,7 +1592,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -1590,7 +1609,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>18</v>
       </c>
@@ -1604,7 +1623,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="48" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>26</v>
       </c>
@@ -1618,7 +1637,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>26</v>
       </c>
@@ -1632,7 +1651,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>19</v>
       </c>
@@ -1646,7 +1665,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="51" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>27</v>
       </c>
@@ -1660,7 +1679,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="52" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -1674,7 +1693,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -1688,7 +1707,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1705,7 +1724,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -1722,7 +1741,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -1739,7 +1758,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -1756,7 +1775,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1773,7 +1792,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -1790,7 +1809,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -1807,7 +1826,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -1824,7 +1843,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -1841,7 +1860,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1858,7 +1877,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -1875,7 +1894,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>26</v>
       </c>
@@ -1889,7 +1908,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
         <v>19</v>
       </c>
@@ -1903,7 +1922,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="67" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>18</v>
       </c>
@@ -1917,7 +1936,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="68" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
         <v>27</v>
       </c>
@@ -1931,7 +1950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -1945,7 +1964,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="70" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -1962,7 +1981,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="71" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -1979,7 +1998,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="72" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -1996,7 +2015,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -2013,7 +2032,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>22</v>
       </c>
@@ -2030,7 +2049,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -2047,7 +2066,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -2064,7 +2083,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="77" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2081,7 +2100,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2098,7 +2117,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="79" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -2115,7 +2134,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -2132,7 +2151,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -2149,7 +2168,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="82" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -2166,7 +2185,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
         <v>18</v>
       </c>
@@ -2180,7 +2199,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="84" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>19</v>
       </c>
@@ -2194,7 +2213,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="85" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
         <v>26</v>
       </c>
@@ -2208,7 +2227,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>12</v>
       </c>
@@ -2225,7 +2244,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -2242,7 +2261,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -2259,7 +2278,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -2276,7 +2295,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="90" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -2293,7 +2312,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="91" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -2310,7 +2329,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -2327,7 +2346,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -2344,7 +2363,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="94" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>25</v>
       </c>
@@ -2361,7 +2380,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="95" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -2378,7 +2397,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="96" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -2395,7 +2414,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>25</v>
       </c>
@@ -2412,7 +2431,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>28</v>
       </c>
@@ -2429,7 +2448,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -2446,7 +2465,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="100" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>28</v>
       </c>
@@ -2463,7 +2482,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="101" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>28</v>
       </c>
@@ -2480,7 +2499,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>28</v>
       </c>
@@ -2497,7 +2516,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>28</v>
       </c>
@@ -2514,7 +2533,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="104" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -2531,7 +2550,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="105" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>28</v>
       </c>
@@ -2548,7 +2567,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>28</v>
       </c>
@@ -2565,7 +2584,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="107" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>28</v>
       </c>
@@ -2582,7 +2601,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>28</v>
       </c>
@@ -2599,7 +2618,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="109" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>28</v>
       </c>
@@ -2616,7 +2635,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -2633,7 +2652,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="111" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -2650,7 +2669,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="112" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>14</v>
       </c>
@@ -2667,7 +2686,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>14</v>
       </c>
@@ -2687,7 +2706,7 @@
       <c r="H113"/>
       <c r="I113"/>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -2707,7 +2726,7 @@
       <c r="H114"/>
       <c r="I114"/>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -2727,7 +2746,7 @@
       <c r="H115"/>
       <c r="I115"/>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -2747,7 +2766,7 @@
       <c r="H116"/>
       <c r="I116"/>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>29</v>
       </c>
@@ -2765,7 +2784,7 @@
       <c r="H117"/>
       <c r="I117"/>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
         <v>30</v>
       </c>
@@ -2783,7 +2802,7 @@
       <c r="H118"/>
       <c r="I118"/>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
         <v>18</v>
       </c>
@@ -2801,7 +2820,7 @@
       <c r="H119"/>
       <c r="I119"/>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
         <v>19</v>
       </c>
@@ -2819,7 +2838,7 @@
       <c r="H120"/>
       <c r="I120"/>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
         <v>26</v>
       </c>
@@ -2837,7 +2856,7 @@
       <c r="H121"/>
       <c r="I121"/>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -2855,7 +2874,7 @@
       </c>
       <c r="I122"/>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -2873,7 +2892,7 @@
       </c>
       <c r="I123"/>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>31</v>
       </c>
@@ -2891,7 +2910,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>12</v>
       </c>
@@ -2911,7 +2930,7 @@
       <c r="H125"/>
       <c r="I125"/>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>12</v>
       </c>
@@ -2931,7 +2950,7 @@
       <c r="H126"/>
       <c r="I126"/>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -2951,7 +2970,7 @@
       <c r="H127"/>
       <c r="I127"/>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>22</v>
       </c>
@@ -2971,7 +2990,7 @@
       <c r="H128"/>
       <c r="I128"/>
     </row>
-    <row r="129" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>13</v>
       </c>
@@ -2988,7 +3007,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="130" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -3005,7 +3024,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="131" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>14</v>
       </c>
@@ -3022,7 +3041,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="132" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -3039,7 +3058,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>24</v>
       </c>
@@ -3056,7 +3075,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>17</v>
       </c>
@@ -3073,7 +3092,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>11</v>
       </c>
@@ -3090,7 +3109,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="136" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>29</v>
       </c>
@@ -3104,7 +3123,7 @@
         <v>3.21</v>
       </c>
     </row>
-    <row r="137" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
         <v>30</v>
       </c>
@@ -3118,7 +3137,7 @@
         <v>110.5</v>
       </c>
     </row>
-    <row r="138" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
         <v>18</v>
       </c>
@@ -3132,7 +3151,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="139" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
         <v>19</v>
       </c>
@@ -3146,7 +3165,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="140" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
         <v>26</v>
       </c>
@@ -3160,7 +3179,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="141" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -3174,7 +3193,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="142" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>12</v>
       </c>
@@ -3191,7 +3210,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="143" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>12</v>
       </c>
@@ -3208,7 +3227,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="144" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -3225,7 +3244,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="145" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -3242,7 +3261,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="146" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>22</v>
       </c>
@@ -3259,7 +3278,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="147" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>23</v>
       </c>
@@ -3276,7 +3295,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="148" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>11</v>
       </c>
@@ -3293,7 +3312,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="149" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -3310,7 +3329,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -3327,7 +3346,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="151" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>24</v>
       </c>
@@ -3344,7 +3363,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="152" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>29</v>
       </c>
@@ -3358,7 +3377,7 @@
         <v>14.54</v>
       </c>
     </row>
-    <row r="153" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>32</v>
       </c>
@@ -3372,7 +3391,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
         <v>33</v>
       </c>
@@ -3386,7 +3405,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="155" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
         <v>74</v>
       </c>
@@ -3400,7 +3419,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="156" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
         <v>34</v>
       </c>
@@ -3414,7 +3433,7 @@
         <v>458.19</v>
       </c>
     </row>
-    <row r="157" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
         <v>18</v>
       </c>
@@ -3428,7 +3447,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="158" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
         <v>19</v>
       </c>
@@ -3442,7 +3461,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="159" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
         <v>26</v>
       </c>
@@ -3456,7 +3475,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>20</v>
       </c>
@@ -3470,7 +3489,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="161" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -3487,7 +3506,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="162" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -3504,7 +3523,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="163" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -3521,7 +3540,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="164" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>13</v>
       </c>
@@ -3538,7 +3557,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="165" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>22</v>
       </c>
@@ -3555,7 +3574,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="166" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>23</v>
       </c>
@@ -3572,7 +3591,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="167" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -3589,7 +3608,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="168" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -3606,7 +3625,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="169" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -3623,7 +3642,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="170" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -3640,7 +3659,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="171" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -3657,7 +3676,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="172" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -3674,7 +3693,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="173" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -3691,7 +3710,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="174" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -3708,7 +3727,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="175" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>21</v>
       </c>
@@ -3725,7 +3744,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="176" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -3742,7 +3761,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -3762,7 +3781,7 @@
       <c r="H177"/>
       <c r="I177"/>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -3782,7 +3801,7 @@
       <c r="H178"/>
       <c r="I178"/>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>24</v>
       </c>
@@ -3802,7 +3821,7 @@
       <c r="H179"/>
       <c r="I179"/>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>17</v>
       </c>
@@ -3822,7 +3841,7 @@
       <c r="H180"/>
       <c r="I180"/>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>11</v>
       </c>
@@ -3842,7 +3861,7 @@
       <c r="H181"/>
       <c r="I181"/>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>35</v>
       </c>
@@ -3860,7 +3879,7 @@
       <c r="H182"/>
       <c r="I182"/>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
         <v>18</v>
       </c>
@@ -3878,7 +3897,7 @@
       <c r="H183"/>
       <c r="I183"/>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
         <v>19</v>
       </c>
@@ -3896,7 +3915,7 @@
       <c r="H184"/>
       <c r="I184"/>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
         <v>26</v>
       </c>
@@ -3914,7 +3933,7 @@
       <c r="H185"/>
       <c r="I185"/>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
         <v>36</v>
       </c>
@@ -3932,7 +3951,7 @@
       <c r="H186"/>
       <c r="I186"/>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>20</v>
       </c>
@@ -3950,7 +3969,7 @@
       </c>
       <c r="I187"/>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
         <v>31</v>
       </c>
@@ -3968,7 +3987,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>15</v>
       </c>
@@ -3988,7 +4007,7 @@
       <c r="H189"/>
       <c r="I189"/>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -4008,7 +4027,7 @@
       <c r="H190"/>
       <c r="I190"/>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -4028,7 +4047,7 @@
       <c r="H191"/>
       <c r="I191"/>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -4048,7 +4067,7 @@
       <c r="H192"/>
       <c r="I192"/>
     </row>
-    <row r="193" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>15</v>
       </c>
@@ -4065,7 +4084,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="194" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>15</v>
       </c>
@@ -4082,7 +4101,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="195" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>12</v>
       </c>
@@ -4099,7 +4118,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="196" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>12</v>
       </c>
@@ -4116,7 +4135,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="197" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -4133,7 +4152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="198" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -4150,7 +4169,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="199" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -4167,7 +4186,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="200" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>10</v>
       </c>
@@ -4184,7 +4203,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="201" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>13</v>
       </c>
@@ -4201,7 +4220,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="202" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>22</v>
       </c>
@@ -4218,7 +4237,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="203" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>23</v>
       </c>
@@ -4235,7 +4254,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="204" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>16</v>
       </c>
@@ -4252,7 +4271,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="205" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>17</v>
       </c>
@@ -4269,7 +4288,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="206" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>24</v>
       </c>
@@ -4286,7 +4305,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="207" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B207" t="s">
         <v>37</v>
       </c>
@@ -4300,7 +4319,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="208" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B208" t="s">
         <v>38</v>
       </c>
@@ -4314,7 +4333,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B209" t="s">
         <v>38</v>
       </c>
@@ -4332,7 +4351,7 @@
       <c r="H209"/>
       <c r="I209"/>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B210" t="s">
         <v>38</v>
       </c>
@@ -4350,7 +4369,7 @@
       <c r="H210"/>
       <c r="I210"/>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B211" t="s">
         <v>38</v>
       </c>
@@ -4368,7 +4387,7 @@
       <c r="H211"/>
       <c r="I211"/>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B212" t="s">
         <v>38</v>
       </c>
@@ -4386,7 +4405,7 @@
       <c r="H212"/>
       <c r="I212"/>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>38</v>
       </c>
@@ -4404,7 +4423,7 @@
       <c r="H213"/>
       <c r="I213"/>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>38</v>
       </c>
@@ -4422,7 +4441,7 @@
       <c r="H214"/>
       <c r="I214"/>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B215" t="s">
         <v>38</v>
       </c>
@@ -4440,7 +4459,7 @@
       <c r="H215"/>
       <c r="I215"/>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B216" t="s">
         <v>39</v>
       </c>
@@ -4458,7 +4477,7 @@
       <c r="H216"/>
       <c r="I216"/>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B217" t="s">
         <v>40</v>
       </c>
@@ -4476,7 +4495,7 @@
       <c r="H217"/>
       <c r="I217"/>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B218" t="s">
         <v>30</v>
       </c>
@@ -4494,7 +4513,7 @@
       <c r="H218"/>
       <c r="I218"/>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B219" t="s">
         <v>18</v>
       </c>
@@ -4512,7 +4531,7 @@
       <c r="H219"/>
       <c r="I219"/>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>20</v>
       </c>
@@ -4530,7 +4549,7 @@
       </c>
       <c r="I220"/>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B221" t="s">
         <v>31</v>
       </c>
@@ -4548,7 +4567,7 @@
         <v>5440</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>12</v>
       </c>
@@ -4568,7 +4587,7 @@
       <c r="H222"/>
       <c r="I222"/>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>12</v>
       </c>
@@ -4588,7 +4607,7 @@
       <c r="H223"/>
       <c r="I223"/>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>10</v>
       </c>
@@ -4608,7 +4627,7 @@
       <c r="H224"/>
       <c r="I224"/>
     </row>
-    <row r="225" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>25</v>
       </c>
@@ -4625,7 +4644,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="226" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>25</v>
       </c>
@@ -4642,7 +4661,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="227" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>25</v>
       </c>
@@ -4659,7 +4678,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="228" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>25</v>
       </c>
@@ -4676,7 +4695,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="229" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>25</v>
       </c>
@@ -4693,7 +4712,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="230" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -4710,7 +4729,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="231" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>22</v>
       </c>
@@ -4727,7 +4746,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="232" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>23</v>
       </c>
@@ -4744,7 +4763,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="233" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>16</v>
       </c>
@@ -4761,7 +4780,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="234" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>24</v>
       </c>
@@ -4778,7 +4797,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="235" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B235" t="s">
         <v>26</v>
       </c>
@@ -4792,7 +4811,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="236" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B236" t="s">
         <v>26</v>
       </c>
@@ -4806,7 +4825,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="237" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B237" t="s">
         <v>19</v>
       </c>
@@ -4820,7 +4839,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="238" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B238" t="s">
         <v>19</v>
       </c>
@@ -4834,7 +4853,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="239" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B239" t="s">
         <v>30</v>
       </c>
@@ -4848,7 +4867,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="240" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>12</v>
       </c>
@@ -4865,7 +4884,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="241" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>12</v>
       </c>
@@ -4882,7 +4901,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="242" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -4899,7 +4918,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="243" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>13</v>
       </c>
@@ -4916,7 +4935,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="244" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>22</v>
       </c>
@@ -4933,7 +4952,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="245" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>23</v>
       </c>
@@ -4950,7 +4969,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="246" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>11</v>
       </c>
@@ -4967,7 +4986,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="247" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>11</v>
       </c>
@@ -4984,7 +5003,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="248" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -5001,7 +5020,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="249" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>24</v>
       </c>
@@ -5018,7 +5037,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="250" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>16</v>
       </c>
@@ -5035,7 +5054,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="251" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -5052,7 +5071,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="252" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -5069,7 +5088,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="253" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B253" t="s">
         <v>38</v>
       </c>
@@ -5083,7 +5102,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="254" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B254" t="s">
         <v>38</v>
       </c>
@@ -5097,7 +5116,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="255" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B255" t="s">
         <v>38</v>
       </c>
@@ -5111,7 +5130,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="256" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B256" t="s">
         <v>18</v>
       </c>
@@ -5125,7 +5144,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="257" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B257" t="s">
         <v>18</v>
       </c>
@@ -5139,7 +5158,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="258" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B258" t="s">
         <v>30</v>
       </c>
@@ -5153,7 +5172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B259" t="s">
         <v>19</v>
       </c>
@@ -5167,7 +5186,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="260" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B260" t="s">
         <v>26</v>
       </c>
@@ -5181,7 +5200,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="261" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>20</v>
       </c>
@@ -5195,7 +5214,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="262" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>20</v>
       </c>
@@ -5209,7 +5228,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="263" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>41</v>
       </c>
@@ -5226,7 +5245,7 @@
         <v>13475.42</v>
       </c>
     </row>
-    <row r="264" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>12</v>
       </c>
@@ -5243,7 +5262,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="265" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>12</v>
       </c>
@@ -5260,7 +5279,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="266" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>10</v>
       </c>
@@ -5277,7 +5296,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="267" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>22</v>
       </c>
@@ -5294,7 +5313,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="268" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>23</v>
       </c>
@@ -5311,7 +5330,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="269" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>11</v>
       </c>
@@ -5328,7 +5347,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="270" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>42</v>
       </c>
@@ -5345,7 +5364,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="271" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -5362,7 +5381,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="272" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>43</v>
       </c>
@@ -5379,7 +5398,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="273" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>24</v>
       </c>
@@ -5396,7 +5415,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="274" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B274" t="s">
         <v>30</v>
       </c>
@@ -5410,7 +5429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B275" t="s">
         <v>18</v>
       </c>
@@ -5424,7 +5443,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="276" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B276" t="s">
         <v>19</v>
       </c>
@@ -5438,7 +5457,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="277" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>20</v>
       </c>
@@ -5452,7 +5471,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="278" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>12</v>
       </c>
@@ -5469,7 +5488,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="279" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>12</v>
       </c>
@@ -5486,7 +5505,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="280" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>14</v>
       </c>
@@ -5503,7 +5522,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="281" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>14</v>
       </c>
@@ -5520,7 +5539,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="282" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>14</v>
       </c>
@@ -5537,7 +5556,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="283" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>14</v>
       </c>
@@ -5554,7 +5573,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="284" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>10</v>
       </c>
@@ -5571,7 +5590,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="285" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>22</v>
       </c>
@@ -5588,7 +5607,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="286" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>42</v>
       </c>
@@ -5605,7 +5624,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="287" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>23</v>
       </c>
@@ -5622,7 +5641,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="288" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>16</v>
       </c>
@@ -5639,7 +5658,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="289" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>24</v>
       </c>
@@ -5656,7 +5675,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="290" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>43</v>
       </c>
@@ -5673,7 +5692,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="291" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B291" t="s">
         <v>18</v>
       </c>
@@ -5687,7 +5706,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="292" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B292" t="s">
         <v>19</v>
       </c>
@@ -5701,7 +5720,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="293" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>20</v>
       </c>
@@ -5715,7 +5734,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="294" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>12</v>
       </c>
@@ -5732,7 +5751,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="295" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>12</v>
       </c>
@@ -5749,7 +5768,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="296" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>10</v>
       </c>
@@ -5766,7 +5785,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="297" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>22</v>
       </c>
@@ -5783,7 +5802,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="298" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>23</v>
       </c>
@@ -5800,7 +5819,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="299" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>16</v>
       </c>
@@ -5817,7 +5836,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="300" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>11</v>
       </c>
@@ -5834,7 +5853,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="301" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -5851,7 +5870,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="302" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>24</v>
       </c>
@@ -5868,7 +5887,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="303" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>43</v>
       </c>
@@ -5885,7 +5904,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="304" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B304" t="s">
         <v>18</v>
       </c>
@@ -5899,7 +5918,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="305" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B305" t="s">
         <v>44</v>
       </c>
@@ -5913,7 +5932,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="306" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B306" t="s">
         <v>19</v>
       </c>
@@ -5927,7 +5946,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="307" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>20</v>
       </c>
@@ -5941,7 +5960,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="308" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -5958,7 +5977,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="309" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>15</v>
       </c>
@@ -5975,7 +5994,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="310" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -5992,7 +6011,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="311" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>15</v>
       </c>
@@ -6009,7 +6028,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="312" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>15</v>
       </c>
@@ -6026,7 +6045,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="313" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -6043,7 +6062,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="314" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>12</v>
       </c>
@@ -6060,7 +6079,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="315" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>12</v>
       </c>
@@ -6077,7 +6096,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="316" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>10</v>
       </c>
@@ -6094,7 +6113,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="317" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>22</v>
       </c>
@@ -6111,7 +6130,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="318" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>23</v>
       </c>
@@ -6128,7 +6147,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="319" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>42</v>
       </c>
@@ -6145,7 +6164,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="320" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>16</v>
       </c>
@@ -6162,7 +6181,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="321" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>24</v>
       </c>
@@ -6179,7 +6198,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="322" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>43</v>
       </c>
@@ -6196,7 +6215,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="323" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B323" t="s">
         <v>30</v>
       </c>
@@ -6210,7 +6229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="324" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B324" t="s">
         <v>18</v>
       </c>
@@ -6224,7 +6243,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="325" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B325" t="s">
         <v>45</v>
       </c>
@@ -6238,7 +6257,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="326" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B326" t="s">
         <v>26</v>
       </c>
@@ -6252,7 +6271,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="327" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B327" t="s">
         <v>26</v>
       </c>
@@ -6266,7 +6285,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="328" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B328" t="s">
         <v>26</v>
       </c>
@@ -6280,7 +6299,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="329" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B329" t="s">
         <v>46</v>
       </c>
@@ -6294,7 +6313,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="330" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B330" t="s">
         <v>47</v>
       </c>
@@ -6308,7 +6327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="331" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B331" t="s">
         <v>48</v>
       </c>
@@ -6322,7 +6341,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="332" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B332" t="s">
         <v>19</v>
       </c>
@@ -6336,7 +6355,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="333" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>20</v>
       </c>
@@ -6350,7 +6369,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="334" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>12</v>
       </c>
@@ -6367,7 +6386,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="335" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>12</v>
       </c>
@@ -6384,7 +6403,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="336" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>10</v>
       </c>
@@ -6401,7 +6420,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="337" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>42</v>
       </c>
@@ -6418,7 +6437,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="338" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>23</v>
       </c>
@@ -6435,7 +6454,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="339" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>24</v>
       </c>
@@ -6452,7 +6471,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="340" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>11</v>
       </c>
@@ -6469,7 +6488,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="341" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -6486,7 +6505,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="342" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>43</v>
       </c>
@@ -6503,7 +6522,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="343" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B343" t="s">
         <v>26</v>
       </c>
@@ -6517,7 +6536,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="344" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B344" t="s">
         <v>26</v>
       </c>
@@ -6531,7 +6550,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="345" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B345" t="s">
         <v>18</v>
       </c>
@@ -6545,7 +6564,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="346" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B346" t="s">
         <v>49</v>
       </c>
@@ -6559,7 +6578,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="347" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B347" t="s">
         <v>50</v>
       </c>
@@ -6573,7 +6592,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="348" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B348" t="s">
         <v>19</v>
       </c>
@@ -6587,7 +6606,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="349" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>20</v>
       </c>
@@ -6601,7 +6620,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="350" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>25</v>
       </c>
@@ -6618,7 +6637,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="351" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>25</v>
       </c>
@@ -6635,7 +6654,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="352" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>25</v>
       </c>
@@ -6652,7 +6671,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="353" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>25</v>
       </c>
@@ -6669,7 +6688,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="354" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>25</v>
       </c>
@@ -6686,7 +6705,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="355" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>25</v>
       </c>
@@ -6703,7 +6722,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="356" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>14</v>
       </c>
@@ -6720,7 +6739,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="357" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>14</v>
       </c>
@@ -6737,7 +6756,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="358" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>14</v>
       </c>
@@ -6754,7 +6773,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="359" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>14</v>
       </c>
@@ -6771,7 +6790,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="360" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>21</v>
       </c>
@@ -6788,7 +6807,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="361" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>21</v>
       </c>
@@ -6805,7 +6824,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="362" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>21</v>
       </c>
@@ -6822,7 +6841,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="363" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>21</v>
       </c>
@@ -6839,7 +6858,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="364" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>21</v>
       </c>
@@ -6856,7 +6875,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="365" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>21</v>
       </c>
@@ -6873,7 +6892,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="366" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>21</v>
       </c>
@@ -6890,7 +6909,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="367" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>21</v>
       </c>
@@ -6907,7 +6926,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="368" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>21</v>
       </c>
@@ -6924,7 +6943,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="369" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>21</v>
       </c>
@@ -6941,7 +6960,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="370" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>21</v>
       </c>
@@ -6958,7 +6977,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="371" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>21</v>
       </c>
@@ -6975,7 +6994,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="372" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>28</v>
       </c>
@@ -6992,7 +7011,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="373" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>28</v>
       </c>
@@ -7009,7 +7028,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="374" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>28</v>
       </c>
@@ -7026,7 +7045,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="375" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>28</v>
       </c>
@@ -7043,7 +7062,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="376" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>28</v>
       </c>
@@ -7060,7 +7079,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="377" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>28</v>
       </c>
@@ -7077,7 +7096,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="378" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>28</v>
       </c>
@@ -7094,7 +7113,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="379" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>28</v>
       </c>
@@ -7111,7 +7130,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="380" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>28</v>
       </c>
@@ -7128,7 +7147,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="381" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>28</v>
       </c>
@@ -7145,7 +7164,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="382" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>28</v>
       </c>
@@ -7162,7 +7181,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="383" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>28</v>
       </c>
@@ -7179,7 +7198,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="384" spans="1:6" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>12</v>
       </c>
@@ -7196,7 +7215,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="385" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>12</v>
       </c>
@@ -7213,7 +7232,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="386" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>10</v>
       </c>
@@ -7230,7 +7249,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="387" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>42</v>
       </c>
@@ -7247,7 +7266,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="388" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>22</v>
       </c>
@@ -7264,7 +7283,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="389" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>16</v>
       </c>
@@ -7281,7 +7300,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="390" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>16</v>
       </c>
@@ -7298,7 +7317,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="391" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>24</v>
       </c>
@@ -7315,7 +7334,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="392" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>11</v>
       </c>
@@ -7332,7 +7351,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="393" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>43</v>
       </c>
@@ -7349,7 +7368,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="394" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B394" t="s">
         <v>30</v>
       </c>
@@ -7363,7 +7382,7 @@
         <v>834.5</v>
       </c>
     </row>
-    <row r="395" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B395" t="s">
         <v>18</v>
       </c>
@@ -7377,7 +7396,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="396" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B396" t="s">
         <v>19</v>
       </c>
@@ -7391,7 +7410,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="397" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B397" t="s">
         <v>26</v>
       </c>
@@ -7405,7 +7424,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="398" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B398" t="s">
         <v>51</v>
       </c>
@@ -7419,7 +7438,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="399" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>20</v>
       </c>
@@ -7433,7 +7452,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="400" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>52</v>
       </c>
@@ -7447,7 +7466,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>42</v>
       </c>
@@ -7467,7 +7486,7 @@
       <c r="H401"/>
       <c r="I401"/>
     </row>
-    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>12</v>
       </c>
@@ -7487,7 +7506,7 @@
       <c r="H402"/>
       <c r="I402"/>
     </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>12</v>
       </c>
@@ -7507,7 +7526,7 @@
       <c r="H403"/>
       <c r="I403"/>
     </row>
-    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>10</v>
       </c>
@@ -7527,7 +7546,7 @@
       <c r="H404"/>
       <c r="I404"/>
     </row>
-    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>23</v>
       </c>
@@ -7547,7 +7566,7 @@
       <c r="H405"/>
       <c r="I405"/>
     </row>
-    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>23</v>
       </c>
@@ -7567,7 +7586,7 @@
       <c r="H406"/>
       <c r="I406"/>
     </row>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>16</v>
       </c>
@@ -7587,7 +7606,7 @@
       <c r="H407"/>
       <c r="I407"/>
     </row>
-    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>24</v>
       </c>
@@ -7607,7 +7626,7 @@
       <c r="H408"/>
       <c r="I408"/>
     </row>
-    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>43</v>
       </c>
@@ -7627,7 +7646,7 @@
       <c r="H409"/>
       <c r="I409"/>
     </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B410" t="s">
         <v>18</v>
       </c>
@@ -7645,7 +7664,7 @@
       <c r="H410"/>
       <c r="I410"/>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B411" t="s">
         <v>30</v>
       </c>
@@ -7663,7 +7682,7 @@
       <c r="H411"/>
       <c r="I411"/>
     </row>
-    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B412" t="s">
         <v>30</v>
       </c>
@@ -7681,7 +7700,7 @@
       <c r="H412"/>
       <c r="I412"/>
     </row>
-    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B413" t="s">
         <v>19</v>
       </c>
@@ -7699,7 +7718,7 @@
       <c r="H413"/>
       <c r="I413"/>
     </row>
-    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B414" t="s">
         <v>51</v>
       </c>
@@ -7717,7 +7736,7 @@
         <v>229.9</v>
       </c>
     </row>
-    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B415" t="s">
         <v>53</v>
       </c>
@@ -7735,7 +7754,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>20</v>
       </c>
@@ -7753,7 +7772,7 @@
       </c>
       <c r="I416"/>
     </row>
-    <row r="417" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>12</v>
       </c>
@@ -7770,7 +7789,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="418" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>12</v>
       </c>
@@ -7787,7 +7806,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="419" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>11</v>
       </c>
@@ -7804,7 +7823,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="420" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>11</v>
       </c>
@@ -7821,7 +7840,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="421" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>10</v>
       </c>
@@ -7838,7 +7857,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="422" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>22</v>
       </c>
@@ -7855,7 +7874,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="423" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>23</v>
       </c>
@@ -7872,7 +7891,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="424" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>42</v>
       </c>
@@ -7889,7 +7908,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="425" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>16</v>
       </c>
@@ -7906,7 +7925,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="426" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>24</v>
       </c>
@@ -7923,7 +7942,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="427" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>43</v>
       </c>
@@ -7940,7 +7959,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="428" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B428" t="s">
         <v>26</v>
       </c>
@@ -7954,7 +7973,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="429" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B429" t="s">
         <v>26</v>
       </c>
@@ -7968,7 +7987,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="430" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B430" t="s">
         <v>54</v>
       </c>
@@ -7982,7 +8001,7 @@
         <v>568.52</v>
       </c>
     </row>
-    <row r="431" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B431" t="s">
         <v>30</v>
       </c>
@@ -7996,7 +8015,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="432" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B432" t="s">
         <v>18</v>
       </c>
@@ -8010,7 +8029,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="433" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B433" t="s">
         <v>19</v>
       </c>
@@ -8024,7 +8043,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="434" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>20</v>
       </c>
@@ -8038,7 +8057,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="435" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>12</v>
       </c>
@@ -8055,7 +8074,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="436" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>12</v>
       </c>
@@ -8072,7 +8091,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="437" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>10</v>
       </c>
@@ -8089,7 +8108,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="438" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>42</v>
       </c>
@@ -8106,7 +8125,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="439" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>23</v>
       </c>
@@ -8123,7 +8142,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="440" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>15</v>
       </c>
@@ -8140,7 +8159,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="441" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>15</v>
       </c>
@@ -8157,7 +8176,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="442" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>15</v>
       </c>
@@ -8174,7 +8193,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="443" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>15</v>
       </c>
@@ -8191,7 +8210,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="444" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>15</v>
       </c>
@@ -8208,7 +8227,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="445" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>15</v>
       </c>
@@ -8225,7 +8244,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="446" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>16</v>
       </c>
@@ -8242,7 +8261,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="447" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>24</v>
       </c>
@@ -8259,7 +8278,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="448" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>11</v>
       </c>
@@ -8276,7 +8295,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>43</v>
       </c>
@@ -8296,7 +8315,7 @@
       <c r="H449"/>
       <c r="I449"/>
     </row>
-    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B450" t="s">
         <v>30</v>
       </c>
@@ -8314,7 +8333,7 @@
       <c r="H450"/>
       <c r="I450"/>
     </row>
-    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B451" t="s">
         <v>18</v>
       </c>
@@ -8332,7 +8351,7 @@
       <c r="H451"/>
       <c r="I451"/>
     </row>
-    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B452" t="s">
         <v>47</v>
       </c>
@@ -8350,7 +8369,7 @@
       <c r="H452"/>
       <c r="I452"/>
     </row>
-    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B453" t="s">
         <v>26</v>
       </c>
@@ -8368,7 +8387,7 @@
       <c r="H453"/>
       <c r="I453"/>
     </row>
-    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B454" t="s">
         <v>55</v>
       </c>
@@ -8386,7 +8405,7 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B455" t="s">
         <v>56</v>
       </c>
@@ -8404,7 +8423,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>20</v>
       </c>
@@ -8422,7 +8441,7 @@
       </c>
       <c r="I456"/>
     </row>
-    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>12</v>
       </c>
@@ -8442,7 +8461,7 @@
       <c r="H457"/>
       <c r="I457"/>
     </row>
-    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>12</v>
       </c>
@@ -8462,7 +8481,7 @@
       <c r="H458"/>
       <c r="I458"/>
     </row>
-    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>10</v>
       </c>
@@ -8482,7 +8501,7 @@
       <c r="H459"/>
       <c r="I459"/>
     </row>
-    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>42</v>
       </c>
@@ -8502,7 +8521,7 @@
       <c r="H460"/>
       <c r="I460"/>
     </row>
-    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>23</v>
       </c>
@@ -8522,7 +8541,7 @@
       <c r="H461"/>
       <c r="I461"/>
     </row>
-    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>14</v>
       </c>
@@ -8542,7 +8561,7 @@
       <c r="H462"/>
       <c r="I462"/>
     </row>
-    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>14</v>
       </c>
@@ -8562,7 +8581,7 @@
       <c r="H463"/>
       <c r="I463"/>
     </row>
-    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>14</v>
       </c>
@@ -8582,7 +8601,7 @@
       <c r="H464"/>
       <c r="I464"/>
     </row>
-    <row r="465" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>14</v>
       </c>
@@ -8599,7 +8618,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="466" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>57</v>
       </c>
@@ -8616,7 +8635,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="467" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>57</v>
       </c>
@@ -8633,7 +8652,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="468" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>57</v>
       </c>
@@ -8650,7 +8669,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="469" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>57</v>
       </c>
@@ -8667,7 +8686,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="470" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>16</v>
       </c>
@@ -8684,7 +8703,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="471" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>22</v>
       </c>
@@ -8701,7 +8720,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="472" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>24</v>
       </c>
@@ -8718,7 +8737,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="473" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B473" t="s">
         <v>26</v>
       </c>
@@ -8732,7 +8751,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="474" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B474" t="s">
         <v>19</v>
       </c>
@@ -8746,7 +8765,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="475" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B475" t="s">
         <v>18</v>
       </c>
@@ -8760,7 +8779,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="476" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B476" t="s">
         <v>30</v>
       </c>
@@ -8774,7 +8793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="477" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B477" t="s">
         <v>30</v>
       </c>
@@ -8788,7 +8807,7 @@
         <v>776.5</v>
       </c>
     </row>
-    <row r="478" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B478" t="s">
         <v>19</v>
       </c>
@@ -8802,7 +8821,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="479" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>12</v>
       </c>
@@ -8819,7 +8838,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="480" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>12</v>
       </c>
@@ -8836,7 +8855,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="481" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>10</v>
       </c>
@@ -8853,7 +8872,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="482" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>42</v>
       </c>
@@ -8870,7 +8889,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="483" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>57</v>
       </c>
@@ -8887,7 +8906,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="484" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>22</v>
       </c>
@@ -8904,7 +8923,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="485" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>23</v>
       </c>
@@ -8921,7 +8940,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="486" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>16</v>
       </c>
@@ -8938,7 +8957,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="487" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>43</v>
       </c>
@@ -8955,7 +8974,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="488" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>43</v>
       </c>
@@ -8972,7 +8991,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="489" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B489" t="s">
         <v>30</v>
       </c>
@@ -8986,7 +9005,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="490" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B490" t="s">
         <v>30</v>
       </c>
@@ -9000,7 +9019,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="491" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B491" t="s">
         <v>18</v>
       </c>
@@ -9014,7 +9033,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="492" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B492" t="s">
         <v>19</v>
       </c>
@@ -9028,7 +9047,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="493" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B493" t="s">
         <v>26</v>
       </c>
@@ -9042,7 +9061,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="494" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>20</v>
       </c>
@@ -9056,7 +9075,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="495" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>20</v>
       </c>
@@ -9070,7 +9089,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="496" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>12</v>
       </c>
@@ -9087,7 +9106,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="497" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>12</v>
       </c>
@@ -9104,7 +9123,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="498" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>11</v>
       </c>
@@ -9121,7 +9140,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="499" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>11</v>
       </c>
@@ -9138,7 +9157,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="500" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>11</v>
       </c>
@@ -9155,7 +9174,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="501" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>10</v>
       </c>
@@ -9172,7 +9191,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="502" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>22</v>
       </c>
@@ -9189,7 +9208,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="503" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>42</v>
       </c>
@@ -9206,7 +9225,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="504" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>57</v>
       </c>
@@ -9223,7 +9242,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="505" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>23</v>
       </c>
@@ -9240,7 +9259,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="506" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>16</v>
       </c>
@@ -9257,7 +9276,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="507" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>24</v>
       </c>
@@ -9274,7 +9293,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="508" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>43</v>
       </c>
@@ -9291,7 +9310,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="509" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B509" t="s">
         <v>26</v>
       </c>
@@ -9305,7 +9324,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="510" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B510" t="s">
         <v>19</v>
       </c>
@@ -9319,7 +9338,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="511" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B511" t="s">
         <v>51</v>
       </c>
@@ -9333,7 +9352,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="512" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B512" t="s">
         <v>18</v>
       </c>
@@ -9347,7 +9366,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="513" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B513" t="s">
         <v>30</v>
       </c>
@@ -9361,7 +9380,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="514" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B514" t="s">
         <v>51</v>
       </c>
@@ -9375,7 +9394,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="515" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>20</v>
       </c>
@@ -9389,7 +9408,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="516" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>14</v>
       </c>
@@ -9406,7 +9425,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="517" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>14</v>
       </c>
@@ -9423,7 +9442,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="518" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>42</v>
       </c>
@@ -9440,7 +9459,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="519" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>22</v>
       </c>
@@ -9457,7 +9476,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="520" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>22</v>
       </c>
@@ -9474,7 +9493,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="521" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>22</v>
       </c>
@@ -9491,7 +9510,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="522" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>24</v>
       </c>
@@ -9508,7 +9527,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="523" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B523" t="s">
         <v>58</v>
       </c>
@@ -9522,7 +9541,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="524" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B524" t="s">
         <v>58</v>
       </c>
@@ -9536,7 +9555,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="525" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B525" t="s">
         <v>58</v>
       </c>
@@ -9550,7 +9569,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="526" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B526" t="s">
         <v>58</v>
       </c>
@@ -9564,7 +9583,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="527" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B527" t="s">
         <v>58</v>
       </c>
@@ -9578,7 +9597,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="528" spans="1:8" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B528" t="s">
         <v>58</v>
       </c>
@@ -9592,7 +9611,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="529" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B529" t="s">
         <v>58</v>
       </c>
@@ -9610,7 +9629,7 @@
       <c r="H529"/>
       <c r="I529"/>
     </row>
-    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B530" t="s">
         <v>58</v>
       </c>
@@ -9628,7 +9647,7 @@
       <c r="H530"/>
       <c r="I530"/>
     </row>
-    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B531" t="s">
         <v>58</v>
       </c>
@@ -9646,7 +9665,7 @@
       <c r="H531"/>
       <c r="I531"/>
     </row>
-    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B532" t="s">
         <v>58</v>
       </c>
@@ -9664,7 +9683,7 @@
       <c r="H532"/>
       <c r="I532"/>
     </row>
-    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B533" t="s">
         <v>58</v>
       </c>
@@ -9682,7 +9701,7 @@
       <c r="H533"/>
       <c r="I533"/>
     </row>
-    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B534" t="s">
         <v>58</v>
       </c>
@@ -9700,7 +9719,7 @@
       <c r="H534"/>
       <c r="I534"/>
     </row>
-    <row r="535" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B535" t="s">
         <v>59</v>
       </c>
@@ -9718,7 +9737,7 @@
       <c r="H535"/>
       <c r="I535"/>
     </row>
-    <row r="536" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B536" t="s">
         <v>60</v>
       </c>
@@ -9746,10 +9765,10 @@
       <c r="D537" t="s">
         <v>62</v>
       </c>
-      <c r="F537" s="11">
+      <c r="F537">
         <v>-2965.04</v>
       </c>
-      <c r="H537" s="11">
+      <c r="H537">
         <v>30546.02</v>
       </c>
     </row>
@@ -9764,15 +9783,15 @@
       <c r="D538" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E538" s="7">
+      <c r="E538" s="12">
         <v>12</v>
       </c>
-      <c r="F538" s="12">
+      <c r="F538" s="7">
         <v>300</v>
       </c>
-      <c r="G538" s="13"/>
-      <c r="H538" s="13"/>
-      <c r="I538" s="13"/>
+      <c r="G538" s="8"/>
+      <c r="H538" s="8"/>
+      <c r="I538" s="8"/>
     </row>
     <row r="539" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
@@ -9785,15 +9804,15 @@
       <c r="D539" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E539" s="7">
+      <c r="E539" s="12">
         <v>13</v>
       </c>
-      <c r="F539" s="12">
+      <c r="F539" s="7">
         <v>300</v>
       </c>
-      <c r="G539" s="13"/>
-      <c r="H539" s="13"/>
-      <c r="I539" s="13"/>
+      <c r="G539" s="8"/>
+      <c r="H539" s="8"/>
+      <c r="I539" s="8"/>
     </row>
     <row r="540" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A540" s="3"/>
@@ -9806,13 +9825,13 @@
       <c r="D540" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E540" s="7"/>
-      <c r="F540" s="12"/>
-      <c r="G540" s="12">
+      <c r="E540" s="12"/>
+      <c r="F540" s="7"/>
+      <c r="G540" s="7">
         <v>400</v>
       </c>
-      <c r="H540" s="13"/>
-      <c r="I540" s="13"/>
+      <c r="H540" s="8"/>
+      <c r="I540" s="8"/>
     </row>
     <row r="541" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A541" s="3"/>
@@ -9825,13 +9844,13 @@
       <c r="D541" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E541" s="8"/>
-      <c r="F541" s="13"/>
-      <c r="G541" s="12">
+      <c r="E541" s="13"/>
+      <c r="F541" s="8"/>
+      <c r="G541" s="7">
         <v>265.5</v>
       </c>
-      <c r="H541" s="13"/>
-      <c r="I541" s="13"/>
+      <c r="H541" s="8"/>
+      <c r="I541" s="8"/>
     </row>
     <row r="542" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A542" s="3" t="s">
@@ -9844,15 +9863,15 @@
       <c r="D542" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E542" s="7">
+      <c r="E542" s="12">
         <v>3</v>
       </c>
-      <c r="F542" s="12">
+      <c r="F542" s="7">
         <v>300</v>
       </c>
-      <c r="G542" s="13"/>
-      <c r="H542" s="13"/>
-      <c r="I542" s="13"/>
+      <c r="G542" s="8"/>
+      <c r="H542" s="8"/>
+      <c r="I542" s="8"/>
     </row>
     <row r="543" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A543" s="3" t="s">
@@ -9865,15 +9884,15 @@
       <c r="D543" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E543" s="7">
+      <c r="E543" s="12">
         <v>9</v>
       </c>
-      <c r="F543" s="12">
+      <c r="F543" s="7">
         <v>300</v>
       </c>
-      <c r="G543" s="13"/>
-      <c r="H543" s="13"/>
-      <c r="I543" s="13"/>
+      <c r="G543" s="8"/>
+      <c r="H543" s="8"/>
+      <c r="I543" s="8"/>
     </row>
     <row r="544" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A544" s="3" t="s">
@@ -9886,15 +9905,15 @@
       <c r="D544" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E544" s="7">
+      <c r="E544" s="12">
         <v>4</v>
       </c>
-      <c r="F544" s="12">
+      <c r="F544" s="7">
         <v>300</v>
       </c>
-      <c r="G544" s="13"/>
-      <c r="H544" s="13"/>
-      <c r="I544" s="13"/>
+      <c r="G544" s="8"/>
+      <c r="H544" s="8"/>
+      <c r="I544" s="8"/>
     </row>
     <row r="545" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A545" s="3" t="s">
@@ -9907,15 +9926,15 @@
       <c r="D545" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E545" s="7">
+      <c r="E545" s="12">
         <v>10</v>
       </c>
-      <c r="F545" s="12">
+      <c r="F545" s="7">
         <v>300</v>
       </c>
-      <c r="G545" s="13"/>
-      <c r="H545" s="13"/>
-      <c r="I545" s="13"/>
+      <c r="G545" s="8"/>
+      <c r="H545" s="8"/>
+      <c r="I545" s="8"/>
     </row>
     <row r="546" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A546" s="3" t="s">
@@ -9928,15 +9947,15 @@
       <c r="D546" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E546" s="7">
+      <c r="E546" s="12">
         <v>6</v>
       </c>
-      <c r="F546" s="12">
+      <c r="F546" s="7">
         <v>300</v>
       </c>
-      <c r="G546" s="13"/>
-      <c r="H546" s="13"/>
-      <c r="I546" s="13"/>
+      <c r="G546" s="8"/>
+      <c r="H546" s="8"/>
+      <c r="I546" s="8"/>
     </row>
     <row r="547" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A547" s="3" t="s">
@@ -9949,15 +9968,15 @@
       <c r="D547" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E547" s="7">
+      <c r="E547" s="12">
         <v>15</v>
       </c>
-      <c r="F547" s="12">
+      <c r="F547" s="7">
         <v>300</v>
       </c>
-      <c r="G547" s="13"/>
-      <c r="H547" s="13"/>
-      <c r="I547" s="13"/>
+      <c r="G547" s="8"/>
+      <c r="H547" s="8"/>
+      <c r="I547" s="8"/>
     </row>
     <row r="548" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A548" s="3" t="s">
@@ -9970,15 +9989,15 @@
       <c r="D548" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E548" s="7">
+      <c r="E548" s="12">
         <v>15</v>
       </c>
-      <c r="F548" s="12">
+      <c r="F548" s="7">
         <v>300</v>
       </c>
-      <c r="G548" s="13"/>
-      <c r="H548" s="12"/>
-      <c r="I548" s="13"/>
+      <c r="G548" s="8"/>
+      <c r="H548" s="7"/>
+      <c r="I548" s="8"/>
     </row>
     <row r="549" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A549" s="3" t="s">
@@ -9991,15 +10010,15 @@
       <c r="D549" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E549" s="7">
+      <c r="E549" s="12">
         <v>15</v>
       </c>
-      <c r="F549" s="12">
+      <c r="F549" s="7">
         <v>300</v>
       </c>
-      <c r="G549" s="13"/>
-      <c r="H549" s="12"/>
-      <c r="I549" s="13"/>
+      <c r="G549" s="8"/>
+      <c r="H549" s="7"/>
+      <c r="I549" s="8"/>
     </row>
     <row r="550" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A550" s="3" t="s">
@@ -10010,17 +10029,17 @@
         <v>2023</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E550" s="7">
+        <v>84</v>
+      </c>
+      <c r="E550" s="12">
         <v>15</v>
       </c>
-      <c r="F550" s="12">
+      <c r="F550" s="7">
         <v>300</v>
       </c>
-      <c r="G550" s="13"/>
-      <c r="H550" s="12"/>
-      <c r="I550" s="13"/>
+      <c r="G550" s="8"/>
+      <c r="H550" s="7"/>
+      <c r="I550" s="8"/>
     </row>
     <row r="551" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A551" s="3" t="s">
@@ -10033,15 +10052,15 @@
       <c r="D551" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E551" s="7">
+      <c r="E551" s="12">
         <v>15</v>
       </c>
-      <c r="F551" s="12">
+      <c r="F551" s="7">
         <v>300</v>
       </c>
-      <c r="G551" s="13"/>
-      <c r="H551" s="12"/>
-      <c r="I551" s="13"/>
+      <c r="G551" s="8"/>
+      <c r="H551" s="7"/>
+      <c r="I551" s="8"/>
     </row>
     <row r="552" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A552" s="3" t="s">
@@ -10054,15 +10073,15 @@
       <c r="D552" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E552" s="7">
+      <c r="E552" s="12">
         <v>15</v>
       </c>
-      <c r="F552" s="12">
+      <c r="F552" s="7">
         <v>300</v>
       </c>
-      <c r="G552" s="13"/>
-      <c r="H552" s="13"/>
-      <c r="I552" s="13"/>
+      <c r="G552" s="8"/>
+      <c r="H552" s="8"/>
+      <c r="I552" s="8"/>
     </row>
     <row r="553" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A553" s="3" t="s">
@@ -10075,15 +10094,15 @@
       <c r="D553" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E553" s="7">
+      <c r="E553" s="12">
         <v>14</v>
       </c>
-      <c r="F553" s="12">
+      <c r="F553" s="7">
         <v>300</v>
       </c>
-      <c r="G553" s="13"/>
-      <c r="H553" s="13"/>
-      <c r="I553" s="13"/>
+      <c r="G553" s="8"/>
+      <c r="H553" s="8"/>
+      <c r="I553" s="8"/>
     </row>
     <row r="554" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A554" s="3" t="s">
@@ -10096,15 +10115,15 @@
       <c r="D554" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E554" s="7">
+      <c r="E554" s="12">
         <v>16</v>
       </c>
-      <c r="F554" s="12">
+      <c r="F554" s="7">
         <v>400</v>
       </c>
-      <c r="G554" s="12"/>
-      <c r="H554" s="13"/>
-      <c r="I554" s="13"/>
+      <c r="G554" s="7"/>
+      <c r="H554" s="8"/>
+      <c r="I554" s="8"/>
     </row>
     <row r="555" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A555" s="3" t="s">
@@ -10117,13 +10136,13 @@
       <c r="D555" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E555" s="8"/>
-      <c r="F555" s="13"/>
-      <c r="G555" s="12"/>
-      <c r="H555" s="12">
+      <c r="E555" s="13"/>
+      <c r="F555" s="8"/>
+      <c r="G555" s="7"/>
+      <c r="H555">
         <v>2500</v>
       </c>
-      <c r="I555" s="13"/>
+      <c r="I555" s="8"/>
     </row>
     <row r="556" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A556" s="3" t="s">
@@ -10136,15 +10155,15 @@
       <c r="D556" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E556" s="7">
+      <c r="E556" s="12">
         <v>7</v>
       </c>
-      <c r="F556" s="12">
+      <c r="F556" s="7">
         <v>300</v>
       </c>
-      <c r="G556" s="12"/>
-      <c r="H556" s="13"/>
-      <c r="I556" s="13"/>
+      <c r="G556" s="7"/>
+      <c r="H556" s="8"/>
+      <c r="I556" s="8"/>
     </row>
     <row r="557" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A557" s="3"/>
@@ -10157,13 +10176,13 @@
       <c r="D557" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E557" s="8"/>
-      <c r="F557" s="13"/>
-      <c r="G557" s="12">
+      <c r="E557" s="13"/>
+      <c r="F557" s="8"/>
+      <c r="G557" s="7">
         <v>800</v>
       </c>
-      <c r="H557" s="13"/>
-      <c r="I557" s="13"/>
+      <c r="H557" s="8"/>
+      <c r="I557" s="8"/>
     </row>
     <row r="558" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A558" s="3"/>
@@ -10176,13 +10195,13 @@
       <c r="D558" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E558" s="7"/>
-      <c r="F558" s="12"/>
-      <c r="G558" s="12">
+      <c r="E558" s="12"/>
+      <c r="F558" s="7"/>
+      <c r="G558">
         <v>1250</v>
       </c>
-      <c r="H558" s="13"/>
-      <c r="I558" s="13"/>
+      <c r="H558" s="8"/>
+      <c r="I558" s="8"/>
     </row>
     <row r="559" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A559" s="3"/>
@@ -10195,13 +10214,13 @@
       <c r="D559" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E559" s="7"/>
-      <c r="F559" s="12"/>
-      <c r="G559" s="12">
+      <c r="E559" s="12"/>
+      <c r="F559" s="7"/>
+      <c r="G559" s="7">
         <v>200</v>
       </c>
-      <c r="H559" s="13"/>
-      <c r="I559" s="13"/>
+      <c r="H559" s="8"/>
+      <c r="I559" s="8"/>
     </row>
     <row r="560" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A560" s="3"/>
@@ -10214,15 +10233,15 @@
       <c r="D560" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E560" s="7"/>
-      <c r="F560" s="12"/>
-      <c r="G560" s="12">
+      <c r="E560" s="12"/>
+      <c r="F560" s="7"/>
+      <c r="G560" s="7">
         <v>375</v>
       </c>
-      <c r="H560" s="13"/>
-      <c r="I560" s="13"/>
-    </row>
-    <row r="561" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H560" s="8"/>
+      <c r="I560" s="8"/>
+    </row>
+    <row r="561" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A561" s="3" t="s">
         <v>76</v>
       </c>
@@ -10233,15 +10252,16 @@
       <c r="D561" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E561" s="8"/>
-      <c r="F561" s="12">
+      <c r="E561" s="13"/>
+      <c r="F561" s="7">
         <v>12.18</v>
       </c>
-      <c r="G561" s="12"/>
-      <c r="H561" s="13"/>
-      <c r="I561" s="13"/>
-    </row>
-    <row r="562" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G561" s="7"/>
+      <c r="H561" s="8"/>
+      <c r="I561" s="8"/>
+      <c r="J561" s="15"/>
+    </row>
+    <row r="562" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A562" s="3" t="s">
         <v>42</v>
       </c>
@@ -10252,17 +10272,17 @@
       <c r="D562" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E562" s="7">
+      <c r="E562" s="12">
         <v>3</v>
       </c>
-      <c r="F562" s="12">
+      <c r="F562" s="7">
         <v>300</v>
       </c>
-      <c r="G562" s="13"/>
-      <c r="H562" s="13"/>
-      <c r="I562" s="13"/>
-    </row>
-    <row r="563" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G562" s="8"/>
+      <c r="H562" s="8"/>
+      <c r="I562" s="8"/>
+    </row>
+    <row r="563" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A563" s="3" t="s">
         <v>57</v>
       </c>
@@ -10273,17 +10293,17 @@
       <c r="D563" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E563" s="7">
+      <c r="E563" s="12">
         <v>10</v>
       </c>
-      <c r="F563" s="12">
+      <c r="F563" s="7">
         <v>300</v>
       </c>
-      <c r="G563" s="12"/>
-      <c r="H563" s="13"/>
-      <c r="I563" s="13"/>
-    </row>
-    <row r="564" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G563" s="7"/>
+      <c r="H563" s="8"/>
+      <c r="I563" s="8"/>
+    </row>
+    <row r="564" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A564" s="3" t="s">
         <v>10</v>
       </c>
@@ -10294,17 +10314,17 @@
       <c r="D564" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E564" s="7">
+      <c r="E564" s="12">
         <v>9</v>
       </c>
-      <c r="F564" s="12">
+      <c r="F564" s="7">
         <v>300</v>
       </c>
-      <c r="G564" s="13"/>
-      <c r="H564" s="13"/>
-      <c r="I564" s="13"/>
-    </row>
-    <row r="565" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G564" s="8"/>
+      <c r="H564" s="8"/>
+      <c r="I564" s="8"/>
+    </row>
+    <row r="565" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A565" s="3" t="s">
         <v>12</v>
       </c>
@@ -10315,17 +10335,17 @@
       <c r="D565" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E565" s="7">
+      <c r="E565" s="12">
         <v>12</v>
       </c>
-      <c r="F565" s="12">
+      <c r="F565" s="7">
         <v>300</v>
       </c>
-      <c r="G565" s="13"/>
-      <c r="H565" s="13"/>
-      <c r="I565" s="13"/>
-    </row>
-    <row r="566" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G565" s="8"/>
+      <c r="H565" s="8"/>
+      <c r="I565" s="8"/>
+    </row>
+    <row r="566" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A566" s="3" t="s">
         <v>12</v>
       </c>
@@ -10336,17 +10356,17 @@
       <c r="D566" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E566" s="7">
+      <c r="E566" s="12">
         <v>13</v>
       </c>
-      <c r="F566" s="12">
+      <c r="F566" s="7">
         <v>300</v>
       </c>
-      <c r="G566" s="13"/>
-      <c r="H566" s="13"/>
-      <c r="I566" s="13"/>
-    </row>
-    <row r="567" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G566" s="8"/>
+      <c r="H566" s="8"/>
+      <c r="I566" s="8"/>
+    </row>
+    <row r="567" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A567" s="3"/>
       <c r="B567" s="3" t="s">
         <v>30</v>
@@ -10357,15 +10377,15 @@
       <c r="D567" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E567" s="7"/>
-      <c r="F567" s="12"/>
-      <c r="G567" s="12">
+      <c r="E567" s="12"/>
+      <c r="F567" s="7"/>
+      <c r="G567" s="7">
         <v>162</v>
       </c>
-      <c r="H567" s="13"/>
-      <c r="I567" s="13"/>
-    </row>
-    <row r="568" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H567" s="8"/>
+      <c r="I567" s="8"/>
+    </row>
+    <row r="568" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A568" s="3" t="s">
         <v>22</v>
       </c>
@@ -10376,17 +10396,17 @@
       <c r="D568" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E568" s="7">
+      <c r="E568" s="12">
         <v>4</v>
       </c>
-      <c r="F568" s="12">
+      <c r="F568" s="7">
         <v>300</v>
       </c>
-      <c r="G568" s="13"/>
-      <c r="H568" s="13"/>
-      <c r="I568" s="13"/>
-    </row>
-    <row r="569" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G568" s="8"/>
+      <c r="H568" s="8"/>
+      <c r="I568" s="8"/>
+    </row>
+    <row r="569" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A569" s="3" t="s">
         <v>23</v>
       </c>
@@ -10397,15 +10417,15 @@
       <c r="D569" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E569" s="7"/>
-      <c r="F569" s="12">
+      <c r="E569" s="12"/>
+      <c r="F569" s="7">
         <v>300</v>
       </c>
-      <c r="G569" s="13"/>
-      <c r="H569" s="13"/>
-      <c r="I569" s="13"/>
-    </row>
-    <row r="570" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G569" s="8"/>
+      <c r="H569" s="8"/>
+      <c r="I569" s="8"/>
+    </row>
+    <row r="570" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A570" s="3" t="s">
         <v>23</v>
       </c>
@@ -10416,15 +10436,15 @@
       <c r="D570" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E570" s="7"/>
-      <c r="F570" s="12">
+      <c r="E570" s="12"/>
+      <c r="F570" s="7">
         <v>300</v>
       </c>
-      <c r="G570" s="13"/>
-      <c r="H570" s="13"/>
-      <c r="I570" s="13"/>
-    </row>
-    <row r="571" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G570" s="8"/>
+      <c r="H570" s="8"/>
+      <c r="I570" s="8"/>
+    </row>
+    <row r="571" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A571" s="3" t="s">
         <v>16</v>
       </c>
@@ -10435,17 +10455,17 @@
       <c r="D571" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E571" s="7">
+      <c r="E571" s="12">
         <v>14</v>
       </c>
-      <c r="F571" s="12">
+      <c r="F571" s="7">
         <v>300</v>
       </c>
-      <c r="G571" s="13"/>
-      <c r="H571" s="13"/>
-      <c r="I571" s="13"/>
-    </row>
-    <row r="572" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G571" s="8"/>
+      <c r="H571" s="8"/>
+      <c r="I571" s="8"/>
+    </row>
+    <row r="572" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A572" s="3" t="s">
         <v>24</v>
       </c>
@@ -10456,17 +10476,17 @@
       <c r="D572" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E572" s="7">
+      <c r="E572" s="12">
         <v>7</v>
       </c>
-      <c r="F572" s="12">
+      <c r="F572" s="7">
         <v>300</v>
       </c>
-      <c r="G572" s="13"/>
-      <c r="H572" s="12"/>
-      <c r="I572" s="13"/>
-    </row>
-    <row r="573" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G572" s="8"/>
+      <c r="H572" s="7"/>
+      <c r="I572" s="8"/>
+    </row>
+    <row r="573" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A573" s="3" t="s">
         <v>43</v>
       </c>
@@ -10477,17 +10497,17 @@
       <c r="D573" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E573" s="7">
+      <c r="E573" s="12">
         <v>16</v>
       </c>
-      <c r="F573" s="12">
+      <c r="F573" s="7">
         <v>400</v>
       </c>
-      <c r="G573" s="13"/>
-      <c r="H573" s="13"/>
-      <c r="I573" s="13"/>
-    </row>
-    <row r="574" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G573" s="8"/>
+      <c r="H573" s="8"/>
+      <c r="I573" s="8"/>
+    </row>
+    <row r="574" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A574" s="3" t="s">
         <v>20</v>
       </c>
@@ -10498,15 +10518,15 @@
       <c r="D574" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E574" s="8"/>
-      <c r="F574" s="13"/>
-      <c r="G574" s="12"/>
-      <c r="H574" s="12">
+      <c r="E574" s="13"/>
+      <c r="F574" s="8"/>
+      <c r="G574" s="7"/>
+      <c r="H574">
         <v>2500</v>
       </c>
-      <c r="I574" s="13"/>
-    </row>
-    <row r="575" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I574" s="8"/>
+    </row>
+    <row r="575" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A575" s="3"/>
       <c r="B575" s="3" t="s">
         <v>19</v>
@@ -10517,15 +10537,15 @@
       <c r="D575" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E575" s="7"/>
-      <c r="F575" s="12"/>
-      <c r="G575" s="12">
+      <c r="E575" s="12"/>
+      <c r="F575" s="7"/>
+      <c r="G575" s="7">
         <v>803</v>
       </c>
-      <c r="H575" s="13"/>
-      <c r="I575" s="13"/>
-    </row>
-    <row r="576" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H575" s="8"/>
+      <c r="I575" s="8"/>
+    </row>
+    <row r="576" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A576" s="3" t="s">
         <v>11</v>
       </c>
@@ -10536,15 +10556,15 @@
       <c r="D576" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E576" s="7">
+      <c r="E576" s="12">
         <v>1</v>
       </c>
-      <c r="F576" s="12">
+      <c r="F576" s="7">
         <v>300</v>
       </c>
-      <c r="G576" s="12"/>
-      <c r="H576" s="13"/>
-      <c r="I576" s="13"/>
+      <c r="G576" s="7"/>
+      <c r="H576" s="8"/>
+      <c r="I576" s="8"/>
     </row>
     <row r="577" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A577" s="3" t="s">
@@ -10557,15 +10577,15 @@
       <c r="D577" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E577" s="7">
+      <c r="E577" s="12">
         <v>1</v>
       </c>
-      <c r="F577" s="12">
+      <c r="F577" s="7">
         <v>300</v>
       </c>
-      <c r="G577" s="12"/>
-      <c r="H577" s="13"/>
-      <c r="I577" s="13"/>
+      <c r="G577" s="7"/>
+      <c r="H577" s="8"/>
+      <c r="I577" s="8"/>
     </row>
     <row r="578" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A578" s="3" t="s">
@@ -10578,13 +10598,13 @@
       <c r="D578" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E578" s="8"/>
-      <c r="F578" s="12">
+      <c r="E578" s="13"/>
+      <c r="F578" s="7">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G578" s="12"/>
-      <c r="H578" s="13"/>
-      <c r="I578" s="13"/>
+      <c r="G578" s="7"/>
+      <c r="H578" s="8"/>
+      <c r="I578" s="8"/>
     </row>
     <row r="579" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A579" s="3"/>
@@ -10597,13 +10617,13 @@
       <c r="D579" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E579" s="8"/>
-      <c r="F579" s="13"/>
-      <c r="G579" s="12">
+      <c r="E579" s="13"/>
+      <c r="F579" s="8"/>
+      <c r="G579">
         <v>1250</v>
       </c>
-      <c r="H579" s="13"/>
-      <c r="I579" s="13"/>
+      <c r="H579" s="8"/>
+      <c r="I579" s="8"/>
     </row>
     <row r="580" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A580" s="3" t="s">
@@ -10616,15 +10636,15 @@
       <c r="D580" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E580" s="7">
+      <c r="E580" s="12">
         <v>12</v>
       </c>
-      <c r="F580" s="12">
+      <c r="F580" s="7">
         <v>300</v>
       </c>
-      <c r="G580" s="13"/>
-      <c r="H580" s="13"/>
-      <c r="I580" s="13"/>
+      <c r="G580" s="8"/>
+      <c r="H580" s="8"/>
+      <c r="I580" s="8"/>
     </row>
     <row r="581" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A581" s="3" t="s">
@@ -10637,15 +10657,15 @@
       <c r="D581" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E581" s="7">
+      <c r="E581" s="12">
         <v>13</v>
       </c>
-      <c r="F581" s="12">
+      <c r="F581" s="7">
         <v>300</v>
       </c>
-      <c r="G581" s="13"/>
-      <c r="H581" s="13"/>
-      <c r="I581" s="13"/>
+      <c r="G581" s="8"/>
+      <c r="H581" s="8"/>
+      <c r="I581" s="8"/>
     </row>
     <row r="582" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A582" s="3"/>
@@ -10658,13 +10678,13 @@
       <c r="D582" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E582" s="8"/>
-      <c r="F582" s="13"/>
-      <c r="G582" s="12">
+      <c r="E582" s="13"/>
+      <c r="F582" s="8"/>
+      <c r="G582" s="7">
         <v>261</v>
       </c>
-      <c r="H582" s="13"/>
-      <c r="I582" s="13"/>
+      <c r="H582" s="8"/>
+      <c r="I582" s="8"/>
     </row>
     <row r="583" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A583" s="3" t="s">
@@ -10677,15 +10697,15 @@
       <c r="D583" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E583" s="7">
+      <c r="E583" s="12">
         <v>9</v>
       </c>
-      <c r="F583" s="12">
+      <c r="F583" s="7">
         <v>300</v>
       </c>
-      <c r="G583" s="13"/>
-      <c r="H583" s="13"/>
-      <c r="I583" s="13"/>
+      <c r="G583" s="8"/>
+      <c r="H583" s="8"/>
+      <c r="I583" s="8"/>
     </row>
     <row r="584" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A584" s="3" t="s">
@@ -10698,15 +10718,15 @@
       <c r="D584" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E584" s="7">
+      <c r="E584" s="12">
         <v>3</v>
       </c>
-      <c r="F584" s="12">
+      <c r="F584" s="7">
         <v>300</v>
       </c>
-      <c r="G584" s="13"/>
-      <c r="H584" s="13"/>
-      <c r="I584" s="13"/>
+      <c r="G584" s="8"/>
+      <c r="H584" s="8"/>
+      <c r="I584" s="8"/>
     </row>
     <row r="585" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A585" s="3" t="s">
@@ -10719,15 +10739,15 @@
       <c r="D585" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E585" s="7">
+      <c r="E585" s="12">
         <v>4</v>
       </c>
-      <c r="F585" s="12">
+      <c r="F585" s="7">
         <v>300</v>
       </c>
-      <c r="G585" s="13"/>
-      <c r="H585" s="13"/>
-      <c r="I585" s="13"/>
+      <c r="G585" s="8"/>
+      <c r="H585" s="8"/>
+      <c r="I585" s="8"/>
     </row>
     <row r="586" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A586" s="3" t="s">
@@ -10740,15 +10760,15 @@
       <c r="D586" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E586" s="7">
+      <c r="E586" s="12">
         <v>10</v>
       </c>
-      <c r="F586" s="12">
+      <c r="F586" s="7">
         <v>300</v>
       </c>
-      <c r="G586" s="13"/>
-      <c r="H586" s="13"/>
-      <c r="I586" s="13"/>
+      <c r="G586" s="8"/>
+      <c r="H586" s="8"/>
+      <c r="I586" s="8"/>
     </row>
     <row r="587" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A587" s="3" t="s">
@@ -10761,15 +10781,15 @@
       <c r="D587" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E587" s="7">
+      <c r="E587" s="12">
         <v>14</v>
       </c>
-      <c r="F587" s="12">
+      <c r="F587" s="7">
         <v>300</v>
       </c>
-      <c r="G587" s="13"/>
-      <c r="H587" s="13"/>
-      <c r="I587" s="13"/>
+      <c r="G587" s="8"/>
+      <c r="H587" s="8"/>
+      <c r="I587" s="8"/>
     </row>
     <row r="588" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A588" s="3" t="s">
@@ -10782,15 +10802,15 @@
       <c r="D588" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E588" s="7">
+      <c r="E588" s="12">
         <v>16</v>
       </c>
-      <c r="F588" s="12">
+      <c r="F588" s="7">
         <v>400</v>
       </c>
-      <c r="G588" s="13"/>
-      <c r="H588" s="13"/>
-      <c r="I588" s="13"/>
+      <c r="G588" s="8"/>
+      <c r="H588" s="8"/>
+      <c r="I588" s="8"/>
     </row>
     <row r="589" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A589" s="3" t="s">
@@ -10803,13 +10823,13 @@
       <c r="D589" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E589" s="7"/>
-      <c r="F589" s="12"/>
-      <c r="G589" s="13"/>
-      <c r="H589" s="12">
+      <c r="E589" s="12"/>
+      <c r="F589" s="7"/>
+      <c r="G589" s="8"/>
+      <c r="H589">
         <v>2500</v>
       </c>
-      <c r="I589" s="13"/>
+      <c r="I589" s="8"/>
     </row>
     <row r="590" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A590" s="3" t="s">
@@ -10822,15 +10842,15 @@
       <c r="D590" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E590" s="7">
+      <c r="E590" s="12">
         <v>7</v>
       </c>
-      <c r="F590" s="12">
+      <c r="F590" s="7">
         <v>300</v>
       </c>
-      <c r="G590" s="13"/>
-      <c r="H590" s="13"/>
-      <c r="I590" s="13"/>
+      <c r="G590" s="8"/>
+      <c r="H590" s="8"/>
+      <c r="I590" s="8"/>
     </row>
     <row r="591" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A591" s="3"/>
@@ -10843,13 +10863,13 @@
       <c r="D591" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E591" s="7"/>
-      <c r="F591" s="12"/>
-      <c r="G591" s="12">
+      <c r="E591" s="12"/>
+      <c r="F591" s="7"/>
+      <c r="G591" s="7">
         <v>729</v>
       </c>
-      <c r="H591" s="13"/>
-      <c r="I591" s="13"/>
+      <c r="H591" s="8"/>
+      <c r="I591" s="8"/>
     </row>
     <row r="592" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A592" s="3" t="s">
@@ -10862,15 +10882,15 @@
       <c r="D592" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E592" s="7">
+      <c r="E592" s="12">
         <v>1</v>
       </c>
-      <c r="F592" s="12">
+      <c r="F592" s="7">
         <v>300</v>
       </c>
-      <c r="G592" s="13"/>
-      <c r="H592" s="13"/>
-      <c r="I592" s="13"/>
+      <c r="G592" s="8"/>
+      <c r="H592" s="8"/>
+      <c r="I592" s="8"/>
     </row>
     <row r="593" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A593" s="3" t="s">
@@ -10883,13 +10903,13 @@
       <c r="D593" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E593" s="8"/>
-      <c r="F593" s="12">
+      <c r="E593" s="13"/>
+      <c r="F593" s="7">
         <v>0.66</v>
       </c>
-      <c r="G593" s="12"/>
-      <c r="H593" s="13"/>
-      <c r="I593" s="13"/>
+      <c r="G593" s="7"/>
+      <c r="H593" s="8"/>
+      <c r="I593" s="8"/>
     </row>
     <row r="594" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A594" s="3"/>
@@ -10902,13 +10922,13 @@
       <c r="D594" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E594" s="7"/>
-      <c r="F594" s="12"/>
-      <c r="G594" s="12">
+      <c r="E594" s="12"/>
+      <c r="F594" s="7"/>
+      <c r="G594">
         <v>1250</v>
       </c>
-      <c r="H594" s="13"/>
-      <c r="I594" s="13"/>
+      <c r="H594" s="8"/>
+      <c r="I594" s="8"/>
     </row>
     <row r="595" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A595" s="3"/>
@@ -10921,13 +10941,13 @@
       <c r="D595" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E595" s="8"/>
-      <c r="F595" s="13"/>
-      <c r="G595" s="12">
+      <c r="E595" s="13"/>
+      <c r="F595" s="8"/>
+      <c r="G595" s="7">
         <v>200</v>
       </c>
-      <c r="H595" s="13"/>
-      <c r="I595" s="13"/>
+      <c r="H595" s="8"/>
+      <c r="I595" s="8"/>
     </row>
     <row r="596" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A596" s="3"/>
@@ -10940,13 +10960,13 @@
       <c r="D596" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E596" s="7"/>
-      <c r="F596" s="12"/>
-      <c r="G596" s="12">
+      <c r="E596" s="12"/>
+      <c r="F596" s="7"/>
+      <c r="G596" s="7">
         <v>200</v>
       </c>
-      <c r="H596" s="13"/>
-      <c r="I596" s="13"/>
+      <c r="H596" s="8"/>
+      <c r="I596" s="8"/>
     </row>
     <row r="597" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A597" s="3" t="s">
@@ -10957,17 +10977,17 @@
         <v>2023</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E597" s="7">
+        <v>84</v>
+      </c>
+      <c r="E597" s="12">
         <v>12</v>
       </c>
-      <c r="F597" s="12">
+      <c r="F597" s="7">
         <v>300</v>
       </c>
-      <c r="G597" s="13"/>
-      <c r="H597" s="12"/>
-      <c r="I597" s="13"/>
+      <c r="G597" s="8"/>
+      <c r="H597" s="7"/>
+      <c r="I597" s="8"/>
     </row>
     <row r="598" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A598" s="3" t="s">
@@ -10978,17 +10998,17 @@
         <v>2023</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E598" s="7">
+        <v>84</v>
+      </c>
+      <c r="E598" s="12">
         <v>13</v>
       </c>
-      <c r="F598" s="12">
+      <c r="F598" s="7">
         <v>300</v>
       </c>
-      <c r="G598" s="12"/>
-      <c r="H598" s="13"/>
-      <c r="I598" s="13"/>
+      <c r="G598" s="7"/>
+      <c r="H598" s="8"/>
+      <c r="I598" s="8"/>
     </row>
     <row r="599" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A599" s="3"/>
@@ -11001,13 +11021,13 @@
       <c r="D599" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E599" s="8"/>
-      <c r="F599" s="13"/>
-      <c r="G599" s="12">
+      <c r="E599" s="13"/>
+      <c r="F599" s="8"/>
+      <c r="G599" s="7">
         <v>269.5</v>
       </c>
-      <c r="H599" s="13"/>
-      <c r="I599" s="13"/>
+      <c r="H599" s="8"/>
+      <c r="I599" s="8"/>
     </row>
     <row r="600" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A600" s="3" t="s">
@@ -11020,15 +11040,15 @@
       <c r="D600" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E600" s="7">
+      <c r="E600" s="12">
         <v>9</v>
       </c>
-      <c r="F600" s="12">
+      <c r="F600" s="7">
         <v>300</v>
       </c>
-      <c r="G600" s="12"/>
-      <c r="H600" s="13"/>
-      <c r="I600" s="13"/>
+      <c r="G600" s="7"/>
+      <c r="H600" s="8"/>
+      <c r="I600" s="8"/>
     </row>
     <row r="601" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A601" s="3" t="s">
@@ -11041,15 +11061,15 @@
       <c r="D601" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E601" s="7">
+      <c r="E601" s="12">
         <v>3</v>
       </c>
-      <c r="F601" s="12">
+      <c r="F601" s="7">
         <v>300</v>
       </c>
-      <c r="G601" s="13"/>
-      <c r="H601" s="13"/>
-      <c r="I601" s="13"/>
+      <c r="G601" s="8"/>
+      <c r="H601" s="8"/>
+      <c r="I601" s="8"/>
     </row>
     <row r="602" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A602" s="3" t="s">
@@ -11062,15 +11082,15 @@
       <c r="D602" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E602" s="7">
+      <c r="E602" s="12">
         <v>4</v>
       </c>
-      <c r="F602" s="12">
+      <c r="F602" s="7">
         <v>300</v>
       </c>
-      <c r="G602" s="13"/>
-      <c r="H602" s="13"/>
-      <c r="I602" s="13"/>
+      <c r="G602" s="8"/>
+      <c r="H602" s="8"/>
+      <c r="I602" s="8"/>
     </row>
     <row r="603" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A603" s="3" t="s">
@@ -11083,15 +11103,15 @@
       <c r="D603" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E603" s="7">
+      <c r="E603" s="12">
         <v>8</v>
       </c>
-      <c r="F603" s="12">
+      <c r="F603" s="7">
         <v>300</v>
       </c>
-      <c r="G603" s="12"/>
-      <c r="H603" s="13"/>
-      <c r="I603" s="13"/>
+      <c r="G603" s="7"/>
+      <c r="H603" s="8"/>
+      <c r="I603" s="8"/>
     </row>
     <row r="604" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A604" s="3" t="s">
@@ -11104,15 +11124,15 @@
       <c r="D604" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E604" s="7">
+      <c r="E604" s="12">
         <v>8</v>
       </c>
-      <c r="F604" s="12">
+      <c r="F604" s="7">
         <v>300</v>
       </c>
-      <c r="G604" s="13"/>
-      <c r="H604" s="13"/>
-      <c r="I604" s="13"/>
+      <c r="G604" s="8"/>
+      <c r="H604" s="8"/>
+      <c r="I604" s="8"/>
     </row>
     <row r="605" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A605" s="3" t="s">
@@ -11125,15 +11145,15 @@
       <c r="D605" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E605" s="7">
+      <c r="E605" s="12">
         <v>8</v>
       </c>
-      <c r="F605" s="12">
+      <c r="F605" s="7">
         <v>300</v>
       </c>
-      <c r="G605" s="13"/>
-      <c r="H605" s="13"/>
-      <c r="I605" s="13"/>
+      <c r="G605" s="8"/>
+      <c r="H605" s="8"/>
+      <c r="I605" s="8"/>
     </row>
     <row r="606" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A606" s="3" t="s">
@@ -11146,15 +11166,15 @@
       <c r="D606" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E606" s="7">
+      <c r="E606" s="12">
         <v>8</v>
       </c>
-      <c r="F606" s="12">
+      <c r="F606" s="7">
         <v>300</v>
       </c>
-      <c r="G606" s="13"/>
-      <c r="H606" s="13"/>
-      <c r="I606" s="13"/>
+      <c r="G606" s="8"/>
+      <c r="H606" s="8"/>
+      <c r="I606" s="8"/>
     </row>
     <row r="607" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A607" s="3" t="s">
@@ -11167,15 +11187,15 @@
       <c r="D607" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E607" s="7">
+      <c r="E607" s="12">
         <v>8</v>
       </c>
-      <c r="F607" s="12">
+      <c r="F607" s="7">
         <v>300</v>
       </c>
-      <c r="G607" s="13"/>
-      <c r="H607" s="13"/>
-      <c r="I607" s="13"/>
+      <c r="G607" s="8"/>
+      <c r="H607" s="8"/>
+      <c r="I607" s="8"/>
     </row>
     <row r="608" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A608" s="3" t="s">
@@ -11188,15 +11208,15 @@
       <c r="D608" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E608" s="7">
+      <c r="E608" s="12">
         <v>7</v>
       </c>
-      <c r="F608" s="12">
+      <c r="F608" s="7">
         <v>300</v>
       </c>
-      <c r="G608" s="13"/>
-      <c r="H608" s="13"/>
-      <c r="I608" s="13"/>
+      <c r="G608" s="8"/>
+      <c r="H608" s="8"/>
+      <c r="I608" s="8"/>
     </row>
     <row r="609" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A609" s="3" t="s">
@@ -11209,15 +11229,15 @@
       <c r="D609" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E609" s="7">
+      <c r="E609" s="12">
         <v>10</v>
       </c>
-      <c r="F609" s="12">
+      <c r="F609" s="7">
         <v>300</v>
       </c>
-      <c r="G609" s="13"/>
-      <c r="H609" s="13"/>
-      <c r="I609" s="13"/>
+      <c r="G609" s="8"/>
+      <c r="H609" s="8"/>
+      <c r="I609" s="8"/>
     </row>
     <row r="610" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A610" s="3"/>
@@ -11230,13 +11250,13 @@
       <c r="D610" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E610" s="7"/>
-      <c r="F610" s="12"/>
-      <c r="G610" s="12">
+      <c r="E610" s="12"/>
+      <c r="F610" s="7"/>
+      <c r="G610" s="7">
         <v>200</v>
       </c>
-      <c r="H610" s="13"/>
-      <c r="I610" s="13"/>
+      <c r="H610" s="8"/>
+      <c r="I610" s="8"/>
     </row>
     <row r="611" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A611" s="3" t="s">
@@ -11249,15 +11269,15 @@
       <c r="D611" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E611" s="7">
+      <c r="E611" s="12">
         <v>14</v>
       </c>
-      <c r="F611" s="12">
+      <c r="F611" s="7">
         <v>300</v>
       </c>
-      <c r="G611" s="13"/>
-      <c r="H611" s="13"/>
-      <c r="I611" s="13"/>
+      <c r="G611" s="8"/>
+      <c r="H611" s="8"/>
+      <c r="I611" s="8"/>
     </row>
     <row r="612" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A612" s="3"/>
@@ -11270,13 +11290,13 @@
       <c r="D612" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E612" s="7"/>
-      <c r="F612" s="12"/>
-      <c r="G612" s="12">
+      <c r="E612" s="12"/>
+      <c r="F612" s="7"/>
+      <c r="G612" s="7">
         <v>641</v>
       </c>
-      <c r="H612" s="13"/>
-      <c r="I612" s="13"/>
+      <c r="H612" s="8"/>
+      <c r="I612" s="8"/>
     </row>
     <row r="613" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A613" s="3" t="s">
@@ -11289,15 +11309,15 @@
       <c r="D613" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E613" s="7">
+      <c r="E613" s="12">
         <v>16</v>
       </c>
-      <c r="F613" s="12">
+      <c r="F613" s="7">
         <v>400</v>
       </c>
-      <c r="G613" s="13"/>
-      <c r="H613" s="13"/>
-      <c r="I613" s="13"/>
+      <c r="G613" s="8"/>
+      <c r="H613" s="8"/>
+      <c r="I613" s="8"/>
     </row>
     <row r="614" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A614" s="3" t="s">
@@ -11310,13 +11330,13 @@
       <c r="D614" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E614" s="8"/>
-      <c r="F614" s="13"/>
-      <c r="G614" s="13"/>
-      <c r="H614" s="12">
+      <c r="E614" s="13"/>
+      <c r="F614" s="8"/>
+      <c r="G614" s="8"/>
+      <c r="H614">
         <v>2500</v>
       </c>
-      <c r="I614" s="13"/>
+      <c r="I614" s="8"/>
     </row>
     <row r="615" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A615" s="3" t="s">
@@ -11329,13 +11349,13 @@
       <c r="D615" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E615" s="8"/>
-      <c r="F615" s="12">
+      <c r="E615" s="13"/>
+      <c r="F615" s="7">
         <v>16.97</v>
       </c>
-      <c r="G615" s="12"/>
-      <c r="H615" s="13"/>
-      <c r="I615" s="13"/>
+      <c r="G615" s="7"/>
+      <c r="H615" s="8"/>
+      <c r="I615" s="8"/>
     </row>
     <row r="616" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A616" s="3"/>
@@ -11348,13 +11368,13 @@
       <c r="D616" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E616" s="7"/>
-      <c r="F616" s="12"/>
-      <c r="G616" s="12">
+      <c r="E616" s="12"/>
+      <c r="F616" s="7"/>
+      <c r="G616">
         <v>1250</v>
       </c>
-      <c r="H616" s="13"/>
-      <c r="I616" s="13"/>
+      <c r="H616" s="8"/>
+      <c r="I616" s="8"/>
     </row>
     <row r="617" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A617" s="3"/>
@@ -11367,13 +11387,13 @@
       <c r="D617" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E617" s="8"/>
-      <c r="F617" s="13"/>
-      <c r="G617" s="12">
+      <c r="E617" s="13"/>
+      <c r="F617" s="8"/>
+      <c r="G617" s="7">
         <v>200</v>
       </c>
-      <c r="H617" s="13"/>
-      <c r="I617" s="13"/>
+      <c r="H617" s="8"/>
+      <c r="I617" s="8"/>
     </row>
     <row r="618" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A618" s="3"/>
@@ -11386,13 +11406,13 @@
       <c r="D618" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E618" s="7"/>
-      <c r="F618" s="12"/>
-      <c r="G618" s="12">
+      <c r="E618" s="12"/>
+      <c r="F618" s="7"/>
+      <c r="G618" s="7">
         <v>275</v>
       </c>
-      <c r="H618" s="13"/>
-      <c r="I618" s="13"/>
+      <c r="H618" s="8"/>
+      <c r="I618" s="8"/>
     </row>
     <row r="619" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A619" s="3" t="s">
@@ -11405,15 +11425,15 @@
       <c r="D619" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E619" s="7">
+      <c r="E619" s="12">
         <v>12</v>
       </c>
-      <c r="F619" s="12">
+      <c r="F619" s="7">
         <v>300</v>
       </c>
-      <c r="G619" s="13"/>
-      <c r="H619" s="13"/>
-      <c r="I619" s="13"/>
+      <c r="G619" s="8"/>
+      <c r="H619" s="8"/>
+      <c r="I619" s="8"/>
     </row>
     <row r="620" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A620" s="3" t="s">
@@ -11426,15 +11446,15 @@
       <c r="D620" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E620" s="7">
+      <c r="E620" s="12">
         <v>13</v>
       </c>
-      <c r="F620" s="12">
+      <c r="F620" s="7">
         <v>300</v>
       </c>
-      <c r="G620" s="12"/>
-      <c r="H620" s="13"/>
-      <c r="I620" s="13"/>
+      <c r="G620" s="7"/>
+      <c r="H620" s="8"/>
+      <c r="I620" s="8"/>
     </row>
     <row r="621" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A621" s="3"/>
@@ -11447,13 +11467,13 @@
       <c r="D621" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E621" s="7"/>
-      <c r="F621" s="12"/>
-      <c r="G621" s="12">
+      <c r="E621" s="12"/>
+      <c r="F621" s="7"/>
+      <c r="G621" s="7">
         <v>75</v>
       </c>
-      <c r="H621" s="13"/>
-      <c r="I621" s="13"/>
+      <c r="H621" s="8"/>
+      <c r="I621" s="8"/>
     </row>
     <row r="622" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A622" s="3" t="s">
@@ -11466,15 +11486,15 @@
       <c r="D622" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E622" s="7">
+      <c r="E622" s="12">
         <v>9</v>
       </c>
-      <c r="F622" s="12">
+      <c r="F622" s="7">
         <v>300</v>
       </c>
-      <c r="G622" s="13"/>
-      <c r="H622" s="13"/>
-      <c r="I622" s="13"/>
+      <c r="G622" s="8"/>
+      <c r="H622" s="8"/>
+      <c r="I622" s="8"/>
     </row>
     <row r="623" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A623" s="3" t="s">
@@ -11487,15 +11507,15 @@
       <c r="D623" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E623" s="7">
+      <c r="E623" s="12">
         <v>10</v>
       </c>
-      <c r="F623" s="12">
+      <c r="F623" s="7">
         <v>300</v>
       </c>
-      <c r="G623" s="13"/>
-      <c r="H623" s="13"/>
-      <c r="I623" s="13"/>
+      <c r="G623" s="8"/>
+      <c r="H623" s="8"/>
+      <c r="I623" s="8"/>
     </row>
     <row r="624" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A624" s="3" t="s">
@@ -11508,15 +11528,15 @@
       <c r="D624" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E624" s="7">
+      <c r="E624" s="12">
         <v>3</v>
       </c>
-      <c r="F624" s="12">
+      <c r="F624" s="7">
         <v>300</v>
       </c>
-      <c r="G624" s="12"/>
-      <c r="H624" s="13"/>
-      <c r="I624" s="13"/>
+      <c r="G624" s="7"/>
+      <c r="H624" s="8"/>
+      <c r="I624" s="8"/>
     </row>
     <row r="625" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A625" s="3" t="s">
@@ -11529,15 +11549,15 @@
       <c r="D625" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E625" s="7">
+      <c r="E625" s="12">
         <v>4</v>
       </c>
-      <c r="F625" s="12">
+      <c r="F625" s="7">
         <v>300</v>
       </c>
-      <c r="G625" s="13"/>
-      <c r="H625" s="13"/>
-      <c r="I625" s="12"/>
+      <c r="G625" s="8"/>
+      <c r="H625" s="8"/>
+      <c r="I625" s="7"/>
     </row>
     <row r="626" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A626" s="3" t="s">
@@ -11550,15 +11570,15 @@
       <c r="D626" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E626" s="7">
+      <c r="E626" s="12">
         <v>14</v>
       </c>
-      <c r="F626" s="12">
+      <c r="F626" s="7">
         <v>300</v>
       </c>
-      <c r="G626" s="12"/>
-      <c r="H626" s="13"/>
-      <c r="I626" s="13"/>
+      <c r="G626" s="7"/>
+      <c r="H626" s="8"/>
+      <c r="I626" s="8"/>
     </row>
     <row r="627" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A627" s="3" t="s">
@@ -11571,15 +11591,15 @@
       <c r="D627" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E627" s="7">
+      <c r="E627" s="12">
         <v>16</v>
       </c>
-      <c r="F627" s="12">
+      <c r="F627" s="7">
         <v>400</v>
       </c>
-      <c r="G627" s="13"/>
-      <c r="H627" s="13"/>
-      <c r="I627" s="13"/>
+      <c r="G627" s="8"/>
+      <c r="H627" s="8"/>
+      <c r="I627" s="8"/>
     </row>
     <row r="628" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A628" s="3" t="s">
@@ -11592,13 +11612,13 @@
       <c r="D628" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E628" s="7"/>
-      <c r="F628" s="13"/>
-      <c r="G628" s="13"/>
-      <c r="H628" s="12">
+      <c r="E628" s="12"/>
+      <c r="F628" s="8"/>
+      <c r="G628" s="8"/>
+      <c r="H628">
         <v>2500</v>
       </c>
-      <c r="I628" s="13"/>
+      <c r="I628" s="8"/>
     </row>
     <row r="629" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A629" s="3" t="s">
@@ -11611,15 +11631,15 @@
       <c r="D629" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E629" s="7">
+      <c r="E629" s="12">
         <v>7</v>
       </c>
-      <c r="F629" s="12">
+      <c r="F629" s="7">
         <v>300</v>
       </c>
-      <c r="G629" s="13"/>
-      <c r="H629" s="13"/>
-      <c r="I629" s="12"/>
+      <c r="G629" s="8"/>
+      <c r="H629" s="8"/>
+      <c r="I629" s="7"/>
     </row>
     <row r="630" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A630" s="3"/>
@@ -11632,13 +11652,13 @@
       <c r="D630" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E630" s="8"/>
-      <c r="F630" s="13"/>
-      <c r="G630" s="12">
+      <c r="E630" s="13"/>
+      <c r="F630" s="8"/>
+      <c r="G630" s="7">
         <v>564</v>
       </c>
-      <c r="H630" s="13"/>
-      <c r="I630" s="13"/>
+      <c r="H630" s="8"/>
+      <c r="I630" s="8"/>
     </row>
     <row r="631" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A631" s="3" t="s">
@@ -11651,13 +11671,13 @@
       <c r="D631" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E631" s="8"/>
-      <c r="F631" s="12">
+      <c r="E631" s="13"/>
+      <c r="F631" s="7">
         <v>69.959999999999994</v>
       </c>
-      <c r="G631" s="12"/>
-      <c r="H631" s="13"/>
-      <c r="I631" s="13"/>
+      <c r="G631" s="7"/>
+      <c r="H631" s="8"/>
+      <c r="I631" s="8"/>
     </row>
     <row r="632" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A632" s="3"/>
@@ -11670,13 +11690,13 @@
       <c r="D632" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E632" s="8"/>
-      <c r="F632" s="13"/>
-      <c r="G632" s="12">
+      <c r="E632" s="13"/>
+      <c r="F632" s="8"/>
+      <c r="G632">
         <v>1250</v>
       </c>
-      <c r="H632" s="13"/>
-      <c r="I632" s="13"/>
+      <c r="H632" s="8"/>
+      <c r="I632" s="8"/>
     </row>
     <row r="633" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A633" s="3" t="s">
@@ -11689,15 +11709,15 @@
       <c r="D633" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E633" s="7">
+      <c r="E633" s="12">
         <v>12</v>
       </c>
-      <c r="F633" s="12">
+      <c r="F633" s="7">
         <v>400</v>
       </c>
-      <c r="G633" s="13"/>
-      <c r="H633" s="13"/>
-      <c r="I633" s="13"/>
+      <c r="G633" s="8"/>
+      <c r="H633" s="8"/>
+      <c r="I633" s="8"/>
     </row>
     <row r="634" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A634" s="3" t="s">
@@ -11710,15 +11730,15 @@
       <c r="D634" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E634" s="7">
+      <c r="E634" s="12">
         <v>13</v>
       </c>
-      <c r="F634" s="12">
+      <c r="F634" s="7">
         <v>400</v>
       </c>
-      <c r="G634" s="13"/>
-      <c r="H634" s="13"/>
-      <c r="I634" s="13"/>
+      <c r="G634" s="8"/>
+      <c r="H634" s="8"/>
+      <c r="I634" s="8"/>
     </row>
     <row r="635" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A635" s="3"/>
@@ -11731,13 +11751,13 @@
       <c r="D635" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E635" s="7"/>
-      <c r="F635" s="12"/>
-      <c r="G635" s="12">
+      <c r="E635" s="12"/>
+      <c r="F635" s="7"/>
+      <c r="G635" s="7">
         <v>268</v>
       </c>
-      <c r="H635" s="13"/>
-      <c r="I635" s="13"/>
+      <c r="H635" s="8"/>
+      <c r="I635" s="8"/>
     </row>
     <row r="636" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A636" s="3" t="s">
@@ -11750,15 +11770,15 @@
       <c r="D636" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E636" s="7">
+      <c r="E636" s="12">
         <v>10</v>
       </c>
-      <c r="F636" s="12">
+      <c r="F636" s="7">
         <v>300</v>
       </c>
-      <c r="G636" s="13"/>
-      <c r="H636" s="13"/>
-      <c r="I636" s="13"/>
+      <c r="G636" s="8"/>
+      <c r="H636" s="8"/>
+      <c r="I636" s="8"/>
     </row>
     <row r="637" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A637" s="3" t="s">
@@ -11771,15 +11791,15 @@
       <c r="D637" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E637" s="7">
+      <c r="E637" s="12">
         <v>3</v>
       </c>
-      <c r="F637" s="12">
+      <c r="F637" s="7">
         <v>300</v>
       </c>
-      <c r="G637" s="13"/>
-      <c r="H637" s="13"/>
-      <c r="I637" s="13"/>
+      <c r="G637" s="8"/>
+      <c r="H637" s="8"/>
+      <c r="I637" s="8"/>
     </row>
     <row r="638" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A638" s="3" t="s">
@@ -11792,15 +11812,15 @@
       <c r="D638" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E638" s="7">
+      <c r="E638" s="12">
         <v>7</v>
       </c>
-      <c r="F638" s="12">
+      <c r="F638" s="7">
         <v>300</v>
       </c>
-      <c r="G638" s="13"/>
-      <c r="H638" s="13"/>
-      <c r="I638" s="13"/>
+      <c r="G638" s="8"/>
+      <c r="H638" s="8"/>
+      <c r="I638" s="8"/>
     </row>
     <row r="639" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A639" s="3"/>
@@ -11813,13 +11833,13 @@
       <c r="D639" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E639" s="7"/>
-      <c r="F639" s="12"/>
-      <c r="G639" s="12">
+      <c r="E639" s="12"/>
+      <c r="F639" s="7"/>
+      <c r="G639" s="7">
         <v>600</v>
       </c>
-      <c r="H639" s="13"/>
-      <c r="I639" s="13"/>
+      <c r="H639" s="8"/>
+      <c r="I639" s="8"/>
     </row>
     <row r="640" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A640" s="3"/>
@@ -11832,11 +11852,11 @@
       <c r="D640" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E640" s="7"/>
-      <c r="F640" s="13"/>
-      <c r="G640" s="13"/>
-      <c r="H640" s="12"/>
-      <c r="I640" s="12">
+      <c r="E640" s="12"/>
+      <c r="F640" s="8"/>
+      <c r="G640" s="8"/>
+      <c r="H640" s="7"/>
+      <c r="I640">
         <v>6650</v>
       </c>
     </row>
@@ -11851,13 +11871,13 @@
       <c r="D641" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E641" s="8"/>
-      <c r="F641" s="13"/>
-      <c r="G641" s="12">
+      <c r="E641" s="13"/>
+      <c r="F641" s="8"/>
+      <c r="G641" s="7">
         <v>457</v>
       </c>
-      <c r="H641" s="13"/>
-      <c r="I641" s="13"/>
+      <c r="H641" s="8"/>
+      <c r="I641" s="8"/>
     </row>
     <row r="642" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A642" s="3" t="s">
@@ -11870,15 +11890,15 @@
       <c r="D642" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E642" s="7">
+      <c r="E642" s="12">
         <v>16</v>
       </c>
-      <c r="F642" s="12">
+      <c r="F642" s="7">
         <v>400</v>
       </c>
-      <c r="G642" s="12"/>
-      <c r="H642" s="13"/>
-      <c r="I642" s="13"/>
+      <c r="G642" s="7"/>
+      <c r="H642" s="8"/>
+      <c r="I642" s="8"/>
     </row>
     <row r="643" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A643" s="3" t="s">
@@ -11891,13 +11911,13 @@
       <c r="D643" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E643" s="8"/>
-      <c r="F643" s="13"/>
-      <c r="G643" s="12"/>
-      <c r="H643" s="12">
+      <c r="E643" s="13"/>
+      <c r="F643" s="8"/>
+      <c r="G643" s="7"/>
+      <c r="H643">
         <v>2500</v>
       </c>
-      <c r="I643" s="13"/>
+      <c r="I643" s="8"/>
     </row>
     <row r="644" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A644" s="3"/>
@@ -11910,11 +11930,11 @@
       <c r="D644" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E644" s="8"/>
-      <c r="F644" s="13"/>
-      <c r="G644" s="12"/>
-      <c r="H644" s="13"/>
-      <c r="I644" s="12">
+      <c r="E644" s="13"/>
+      <c r="F644" s="8"/>
+      <c r="G644" s="7"/>
+      <c r="H644" s="8"/>
+      <c r="I644">
         <v>1857</v>
       </c>
     </row>
@@ -11929,13 +11949,13 @@
       <c r="D645" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E645" s="8"/>
-      <c r="F645" s="12">
+      <c r="E645" s="13"/>
+      <c r="F645" s="7">
         <v>98.18</v>
       </c>
-      <c r="G645" s="12"/>
-      <c r="H645" s="13"/>
-      <c r="I645" s="13"/>
+      <c r="G645" s="7"/>
+      <c r="H645" s="8"/>
+      <c r="I645" s="8"/>
     </row>
     <row r="646" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A646" s="3"/>
@@ -11946,15 +11966,15 @@
         <v>2023</v>
       </c>
       <c r="D646" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E646" s="8"/>
-      <c r="F646" s="13"/>
-      <c r="G646" s="12">
+        <v>85</v>
+      </c>
+      <c r="E646" s="13"/>
+      <c r="F646" s="8"/>
+      <c r="G646">
         <v>1250</v>
       </c>
-      <c r="H646" s="13"/>
-      <c r="I646" s="13"/>
+      <c r="H646" s="8"/>
+      <c r="I646" s="8"/>
     </row>
     <row r="647" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A647" s="3"/>
@@ -11967,13 +11987,13 @@
       <c r="D647" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E647" s="7"/>
-      <c r="F647" s="12"/>
-      <c r="G647" s="12">
+      <c r="E647" s="12"/>
+      <c r="F647" s="7"/>
+      <c r="G647" s="7">
         <v>41</v>
       </c>
-      <c r="H647" s="13"/>
-      <c r="I647" s="13"/>
+      <c r="H647" s="8"/>
+      <c r="I647" s="8"/>
     </row>
     <row r="648" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A648" s="3"/>
@@ -11986,13 +12006,13 @@
       <c r="D648" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E648" s="7"/>
-      <c r="F648" s="12"/>
-      <c r="G648" s="12">
+      <c r="E648" s="12"/>
+      <c r="F648" s="7"/>
+      <c r="G648" s="7">
         <v>721</v>
       </c>
-      <c r="H648" s="13"/>
-      <c r="I648" s="13"/>
+      <c r="H648" s="8"/>
+      <c r="I648" s="8"/>
     </row>
     <row r="649" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A649" s="3" t="s">
@@ -12005,15 +12025,15 @@
       <c r="D649" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E649" s="7">
+      <c r="E649" s="12">
         <v>12</v>
       </c>
-      <c r="F649" s="12">
+      <c r="F649" s="7">
         <v>300</v>
       </c>
-      <c r="G649" s="12"/>
-      <c r="H649" s="13"/>
-      <c r="I649" s="13"/>
+      <c r="G649" s="7"/>
+      <c r="H649" s="8"/>
+      <c r="I649" s="8"/>
     </row>
     <row r="650" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A650" s="3" t="s">
@@ -12026,15 +12046,15 @@
       <c r="D650" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E650" s="7">
+      <c r="E650" s="12">
         <v>13</v>
       </c>
-      <c r="F650" s="12">
+      <c r="F650" s="7">
         <v>300</v>
       </c>
-      <c r="G650" s="12"/>
-      <c r="H650" s="13"/>
-      <c r="I650" s="13"/>
+      <c r="G650" s="7"/>
+      <c r="H650" s="8"/>
+      <c r="I650" s="8"/>
     </row>
     <row r="651" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A651" s="3" t="s">
@@ -12047,15 +12067,15 @@
       <c r="D651" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E651" s="7">
+      <c r="E651" s="12">
         <v>3</v>
       </c>
-      <c r="F651" s="12">
+      <c r="F651" s="7">
         <v>400</v>
       </c>
-      <c r="G651" s="13"/>
-      <c r="H651" s="13"/>
-      <c r="I651" s="13"/>
+      <c r="G651" s="8"/>
+      <c r="H651" s="8"/>
+      <c r="I651" s="8"/>
     </row>
     <row r="652" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A652" s="3" t="s">
@@ -12068,15 +12088,15 @@
       <c r="D652" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E652" s="7">
+      <c r="E652" s="12">
         <v>10</v>
       </c>
-      <c r="F652" s="12">
+      <c r="F652" s="7">
         <v>300</v>
       </c>
-      <c r="G652" s="13"/>
-      <c r="H652" s="13"/>
-      <c r="I652" s="13"/>
+      <c r="G652" s="8"/>
+      <c r="H652" s="8"/>
+      <c r="I652" s="8"/>
     </row>
     <row r="653" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A653" s="3" t="s">
@@ -12089,15 +12109,15 @@
       <c r="D653" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E653" s="7">
+      <c r="E653" s="12">
         <v>7</v>
       </c>
-      <c r="F653" s="12">
+      <c r="F653" s="7">
         <v>400</v>
       </c>
-      <c r="G653" s="13"/>
-      <c r="H653" s="13"/>
-      <c r="I653" s="13"/>
+      <c r="G653" s="8"/>
+      <c r="H653" s="8"/>
+      <c r="I653" s="8"/>
     </row>
     <row r="654" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A654" s="3" t="s">
@@ -12110,15 +12130,15 @@
       <c r="D654" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E654" s="7">
+      <c r="E654" s="12">
         <v>4</v>
       </c>
-      <c r="F654" s="12">
+      <c r="F654" s="7">
         <v>400</v>
       </c>
-      <c r="G654" s="13"/>
-      <c r="H654" s="13"/>
-      <c r="I654" s="13"/>
+      <c r="G654" s="8"/>
+      <c r="H654" s="8"/>
+      <c r="I654" s="8"/>
     </row>
     <row r="655" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A655" s="3" t="s">
@@ -12131,15 +12151,15 @@
       <c r="D655" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E655" s="7">
+      <c r="E655" s="12">
         <v>16</v>
       </c>
-      <c r="F655" s="12">
+      <c r="F655" s="7">
         <v>400</v>
       </c>
-      <c r="G655" s="13"/>
-      <c r="H655" s="13"/>
-      <c r="I655" s="12"/>
+      <c r="G655" s="8"/>
+      <c r="H655" s="8"/>
+      <c r="I655" s="7"/>
     </row>
     <row r="656" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A656" s="3" t="s">
@@ -12152,13 +12172,13 @@
       <c r="D656" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E656" s="7"/>
-      <c r="F656" s="12"/>
-      <c r="G656" s="13"/>
-      <c r="H656" s="12">
+      <c r="E656" s="12"/>
+      <c r="F656" s="7"/>
+      <c r="G656" s="8"/>
+      <c r="H656">
         <v>2500</v>
       </c>
-      <c r="I656" s="13"/>
+      <c r="I656" s="8"/>
     </row>
     <row r="657" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A657" s="3"/>
@@ -12171,13 +12191,13 @@
       <c r="D657" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E657" s="7"/>
-      <c r="F657" s="12"/>
-      <c r="G657" s="12">
+      <c r="E657" s="12"/>
+      <c r="F657" s="7"/>
+      <c r="G657" s="7">
         <v>558</v>
       </c>
-      <c r="H657" s="13"/>
-      <c r="I657" s="13"/>
+      <c r="H657" s="8"/>
+      <c r="I657" s="8"/>
     </row>
     <row r="658" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A658" s="3"/>
@@ -12190,13 +12210,13 @@
       <c r="D658" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E658" s="8"/>
-      <c r="F658" s="13"/>
-      <c r="G658" s="12">
+      <c r="E658" s="13"/>
+      <c r="F658" s="8"/>
+      <c r="G658">
         <v>1250</v>
       </c>
-      <c r="H658" s="13"/>
-      <c r="I658" s="13"/>
+      <c r="H658" s="8"/>
+      <c r="I658" s="8"/>
     </row>
     <row r="659" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A659" s="3" t="s">
@@ -12209,13 +12229,13 @@
       <c r="D659" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E659" s="7"/>
-      <c r="F659" s="12">
-        <v>12.07</v>
-      </c>
-      <c r="G659" s="13"/>
-      <c r="H659" s="13"/>
-      <c r="I659" s="13"/>
+      <c r="E659" s="12"/>
+      <c r="F659" s="7">
+        <v>12.7</v>
+      </c>
+      <c r="G659" s="8"/>
+      <c r="H659" s="8"/>
+      <c r="I659" s="8"/>
     </row>
     <row r="660" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A660" s="3"/>
@@ -12228,13 +12248,13 @@
       <c r="D660" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E660" s="7"/>
-      <c r="F660" s="13"/>
-      <c r="G660" s="12">
+      <c r="E660" s="12"/>
+      <c r="F660" s="8"/>
+      <c r="G660">
         <v>1270</v>
       </c>
-      <c r="H660" s="12"/>
-      <c r="I660" s="13"/>
+      <c r="H660" s="7"/>
+      <c r="I660" s="8"/>
     </row>
     <row r="661" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A661" s="3"/>
@@ -12247,13 +12267,13 @@
       <c r="D661" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E661" s="8"/>
-      <c r="F661" s="13"/>
-      <c r="G661" s="12">
+      <c r="E661" s="13"/>
+      <c r="F661" s="8"/>
+      <c r="G661" s="7">
         <v>200</v>
       </c>
-      <c r="H661" s="13"/>
-      <c r="I661" s="13"/>
+      <c r="H661" s="8"/>
+      <c r="I661" s="8"/>
     </row>
     <row r="662" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A662" s="3"/>
@@ -12266,13 +12286,13 @@
       <c r="D662" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E662" s="8"/>
-      <c r="F662" s="13"/>
-      <c r="G662" s="12">
+      <c r="E662" s="13"/>
+      <c r="F662" s="8"/>
+      <c r="G662" s="7">
         <v>200</v>
       </c>
-      <c r="H662" s="13"/>
-      <c r="I662" s="13"/>
+      <c r="H662" s="8"/>
+      <c r="I662" s="8"/>
     </row>
     <row r="663" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A663" s="3"/>
@@ -12285,13 +12305,13 @@
       <c r="D663" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E663" s="8"/>
-      <c r="F663" s="13"/>
-      <c r="G663" s="12">
+      <c r="E663" s="13"/>
+      <c r="F663" s="8"/>
+      <c r="G663" s="7">
         <v>200</v>
       </c>
-      <c r="H663" s="13"/>
-      <c r="I663" s="13"/>
+      <c r="H663" s="8"/>
+      <c r="I663" s="8"/>
     </row>
     <row r="664" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A664" s="3" t="s">
@@ -12304,15 +12324,15 @@
       <c r="D664" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E664" s="7">
+      <c r="E664" s="12">
         <v>12</v>
       </c>
-      <c r="F664" s="12">
+      <c r="F664" s="7">
         <v>400</v>
       </c>
-      <c r="G664" s="13"/>
-      <c r="H664" s="13"/>
-      <c r="I664" s="13"/>
+      <c r="G664" s="8"/>
+      <c r="H664" s="8"/>
+      <c r="I664" s="8"/>
     </row>
     <row r="665" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A665" s="3" t="s">
@@ -12325,15 +12345,15 @@
       <c r="D665" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E665" s="7">
+      <c r="E665" s="12">
         <v>13</v>
       </c>
-      <c r="F665" s="12">
+      <c r="F665" s="7">
         <v>400</v>
       </c>
-      <c r="G665" s="13"/>
-      <c r="H665" s="13"/>
-      <c r="I665" s="13"/>
+      <c r="G665" s="8"/>
+      <c r="H665" s="8"/>
+      <c r="I665" s="8"/>
     </row>
     <row r="666" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A666" s="3"/>
@@ -12346,13 +12366,13 @@
       <c r="D666" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E666" s="8"/>
-      <c r="F666" s="13"/>
-      <c r="G666" s="14">
+      <c r="E666" s="13"/>
+      <c r="F666" s="8"/>
+      <c r="G666">
         <v>1352.5</v>
       </c>
-      <c r="H666" s="13"/>
-      <c r="I666" s="13"/>
+      <c r="H666" s="8"/>
+      <c r="I666" s="8"/>
     </row>
     <row r="667" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A667" s="3"/>
@@ -12365,13 +12385,13 @@
       <c r="D667" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E667" s="8"/>
-      <c r="F667" s="13"/>
-      <c r="G667" s="14">
+      <c r="E667" s="13"/>
+      <c r="F667" s="8"/>
+      <c r="G667" s="9">
         <v>250</v>
       </c>
-      <c r="H667" s="13"/>
-      <c r="I667" s="13"/>
+      <c r="H667" s="8"/>
+      <c r="I667" s="8"/>
     </row>
     <row r="668" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A668" s="3" t="s">
@@ -12384,15 +12404,15 @@
       <c r="D668" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E668" s="9">
+      <c r="E668" s="14">
         <v>3</v>
       </c>
-      <c r="F668" s="14">
+      <c r="F668" s="9">
         <v>400</v>
       </c>
-      <c r="G668" s="13"/>
-      <c r="H668" s="13"/>
-      <c r="I668" s="13"/>
+      <c r="G668" s="8"/>
+      <c r="H668" s="8"/>
+      <c r="I668" s="8"/>
     </row>
     <row r="669" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A669" s="3" t="s">
@@ -12405,15 +12425,15 @@
       <c r="D669" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E669" s="9">
+      <c r="E669" s="14">
         <v>10</v>
       </c>
-      <c r="F669" s="14">
+      <c r="F669" s="9">
         <v>300</v>
       </c>
-      <c r="G669" s="13"/>
-      <c r="H669" s="13"/>
-      <c r="I669" s="13"/>
+      <c r="G669" s="8"/>
+      <c r="H669" s="8"/>
+      <c r="I669" s="8"/>
     </row>
     <row r="670" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A670" s="3" t="s">
@@ -12426,15 +12446,15 @@
       <c r="D670" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E670" s="9">
+      <c r="E670" s="14">
         <v>9</v>
       </c>
-      <c r="F670" s="14">
+      <c r="F670" s="9">
         <v>300</v>
       </c>
-      <c r="G670" s="13"/>
-      <c r="H670" s="13"/>
-      <c r="I670" s="13"/>
+      <c r="G670" s="8"/>
+      <c r="H670" s="8"/>
+      <c r="I670" s="8"/>
     </row>
     <row r="671" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A671" s="3" t="s">
@@ -12447,15 +12467,15 @@
       <c r="D671" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E671" s="9">
+      <c r="E671" s="14">
         <v>9</v>
       </c>
-      <c r="F671" s="14">
+      <c r="F671" s="9">
         <v>300</v>
       </c>
-      <c r="G671" s="13"/>
-      <c r="H671" s="13"/>
-      <c r="I671" s="13"/>
+      <c r="G671" s="8"/>
+      <c r="H671" s="8"/>
+      <c r="I671" s="8"/>
     </row>
     <row r="672" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A672" s="3"/>
@@ -12468,11 +12488,11 @@
       <c r="D672" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E672" s="8"/>
-      <c r="F672" s="13"/>
-      <c r="G672" s="13"/>
-      <c r="H672" s="13"/>
-      <c r="I672" s="14">
+      <c r="E672" s="13"/>
+      <c r="F672" s="8"/>
+      <c r="G672" s="8"/>
+      <c r="H672" s="8"/>
+      <c r="I672">
         <v>15000</v>
       </c>
     </row>
@@ -12487,15 +12507,15 @@
       <c r="D673" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E673" s="9">
+      <c r="E673" s="14">
         <v>4</v>
       </c>
-      <c r="F673" s="14">
+      <c r="F673" s="9">
         <v>400</v>
       </c>
-      <c r="G673" s="13"/>
-      <c r="H673" s="13"/>
-      <c r="I673" s="13"/>
+      <c r="G673" s="8"/>
+      <c r="H673" s="8"/>
+      <c r="I673" s="8"/>
     </row>
     <row r="674" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A674" s="3" t="s">
@@ -12508,24 +12528,100 @@
       <c r="D674" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E674" s="9">
+      <c r="E674" s="14">
         <v>7</v>
       </c>
-      <c r="F674" s="14">
+      <c r="F674" s="9">
         <v>400</v>
       </c>
-      <c r="G674" s="13"/>
-      <c r="H674" s="13"/>
-      <c r="I674" s="13"/>
+      <c r="G674" s="8"/>
+      <c r="H674" s="8"/>
+      <c r="I674" s="8"/>
+    </row>
+    <row r="675" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A675" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C675" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D675" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F675" s="3"/>
+      <c r="G675" s="17">
+        <v>524</v>
+      </c>
+      <c r="H675" s="16"/>
+      <c r="I675" s="16"/>
+    </row>
+    <row r="676" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A676" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C676" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D676" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E676" s="3"/>
+      <c r="F676" s="17">
+        <v>400</v>
+      </c>
+      <c r="G676" s="3"/>
+      <c r="H676" s="16"/>
+      <c r="I676" s="16"/>
+    </row>
+    <row r="677" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A677" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C677" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D677" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E677" s="3"/>
+      <c r="G677" s="3"/>
+      <c r="H677" s="17">
+        <v>2500</v>
+      </c>
+      <c r="I677" s="16"/>
+    </row>
+    <row r="678" spans="1:9" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A678" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C678" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D678" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E678" s="3"/>
+      <c r="F678" s="3">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="G678" s="3"/>
+      <c r="H678" s="16"/>
+      <c r="I678" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I674" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="2023"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I674" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/hesaptakip.xlsx
+++ b/hesaptakip.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yucel\Desktop\melikkent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATASCIENCE\GITHUB\melikkenthesap\melikkenthesap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81F46B1-4F52-4822-B423-5ACEFB1AA699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E5213-FF6B-4272-B245-4F3C083FEB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A667" workbookViewId="0">
-      <selection activeCell="F679" sqref="F679"/>
+    <sheetView tabSelected="1" topLeftCell="A652" workbookViewId="0">
+      <selection activeCell="F660" sqref="F660"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12231,7 +12231,7 @@
       </c>
       <c r="E659" s="12"/>
       <c r="F659" s="7">
-        <v>12.7</v>
+        <v>12.07</v>
       </c>
       <c r="G659" s="8"/>
       <c r="H659" s="8"/>

--- a/hesaptakip.xlsx
+++ b/hesaptakip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATASCIENCE\GITHUB\melikkenthesap\melikkenthesap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866E5213-FF6B-4272-B245-4F3C083FEB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEB3F5F-4A9A-4D5B-AD0A-866AB73962C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A652" workbookViewId="0">
-      <selection activeCell="F660" sqref="F660"/>
+    <sheetView tabSelected="1" topLeftCell="A526" workbookViewId="0">
+      <selection activeCell="F538" sqref="F538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9766,7 +9766,7 @@
         <v>62</v>
       </c>
       <c r="F537">
-        <v>-2965.04</v>
+        <v>-2965.4</v>
       </c>
       <c r="H537">
         <v>30546.02</v>
